--- a/input_data/deliveries.xlsx
+++ b/input_data/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="72">
   <si>
     <t>Vendor</t>
   </si>
@@ -261,6 +261,9 @@
   <si>
     <t>Vendors</t>
   </si>
+  <si>
+    <t>2-3</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,13 +670,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -685,7 +690,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -705,7 +710,7 @@
       <c r="C2" s="8">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="17">
@@ -725,8 +730,8 @@
       <c r="C3" s="8">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
+      <c r="D3" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="17">
         <v>66</v>
@@ -745,7 +750,7 @@
       <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="17">
@@ -765,8 +770,8 @@
       <c r="C5" s="8">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>6</v>
+      <c r="D5" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="17">
         <v>66</v>
@@ -785,7 +790,7 @@
       <c r="C6" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="17">
@@ -825,8 +830,8 @@
       <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>6</v>
+      <c r="D8" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="17">
         <v>71</v>
@@ -849,14 +854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="10.83203125" style="18"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,7 +869,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -875,7 +880,7 @@
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -886,8 +891,8 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
+      <c r="B3" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -897,7 +902,7 @@
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -919,8 +924,8 @@
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
+      <c r="B6" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -935,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/input_data/deliveries.xlsx
+++ b/input_data/deliveries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinesorli/Chris-Tora-master/input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristinehagen/PycharmProjects/chris/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B4582-5832-2F41-8A89-636E709EC97C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="52540" yWindow="2240" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="7" r:id="rId1"/>
@@ -25,15 +26,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Delivery!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,12 +40,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="73">
   <si>
     <t>Vendor</t>
   </si>
@@ -264,11 +265,14 @@
   <si>
     <t>2-3</t>
   </si>
+  <si>
+    <t>Ops: Kristine lagt til</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;kr&quot;\ #,##0.00;\-&quot;kr&quot;\ #,##0.00"/>
   </numFmts>
@@ -357,14 +361,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F100" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F100" headerRowDxfId="1">
   <tableColumns count="6">
-    <tableColumn id="1" name="Vendor"/>
-    <tableColumn id="7" name="Delivery ID"/>
-    <tableColumn id="2" name="Sales Quantity (Selected period)"/>
-    <tableColumn id="3" name="Product"/>
-    <tableColumn id="4" name="Purchase Price" dataDxfId="0"/>
-    <tableColumn id="5" name="Arrival Date"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vendor"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Delivery ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sales Quantity (Selected period)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Purchase Price" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Arrival Date"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -841,8 +845,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:F28">
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
       <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
@@ -851,11 +855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,9 +867,10 @@
     <col min="1" max="1" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="18"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,7 +881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -887,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -898,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -909,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -920,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -929,6 +934,48 @@
       </c>
       <c r="C6">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="13">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -937,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2497,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3995,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5357,7 +5404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6136,7 +6183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8761,7 +8808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/input_data/deliveries.xlsx
+++ b/input_data/deliveries.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristinehagen/PycharmProjects/chris/input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinesorli/Chris-Tora-master/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B4582-5832-2F41-8A89-636E709EC97C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52540" yWindow="2240" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="7" r:id="rId1"/>
@@ -26,12 +25,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Delivery!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,9 +41,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -272,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;kr&quot;\ #,##0.00;\-&quot;kr&quot;\ #,##0.00"/>
   </numFmts>
@@ -361,14 +360,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F100" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F100" headerRowDxfId="1">
+  <autoFilter ref="A1:F100"/>
+  <sortState ref="A2:F100">
+    <sortCondition ref="A1:A100"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vendor"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Delivery ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sales Quantity (Selected period)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Purchase Price" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Arrival Date"/>
+    <tableColumn id="1" name="Vendor"/>
+    <tableColumn id="7" name="Delivery ID"/>
+    <tableColumn id="2" name="Sales Quantity (Selected period)"/>
+    <tableColumn id="3" name="Product"/>
+    <tableColumn id="4" name="Purchase Price" dataDxfId="0"/>
+    <tableColumn id="5" name="Arrival Date"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -845,8 +848,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F28">
       <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
@@ -855,11 +858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -984,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1014,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,6 +1031,7 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1052,137 +1056,137 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="1">
-        <v>89989.48</v>
+        <v>3155.2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>65.076394349694297</v>
+        <v>56.734599993661298</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="1">
-        <v>82269.8</v>
+        <v>212.1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>67.234076104475704</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1">
-        <v>67985.759999999995</v>
+        <v>23353</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>66.076010780787001</v>
+        <v>65.546799998381005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="1">
-        <v>66947.199999999997</v>
+        <v>15971</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>67.748841397562401</v>
+        <v>66.003460056989994</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="1">
-        <v>61081.89</v>
+        <v>8346.7999999999993</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>70.858111918958102</v>
+        <v>58.977342382709601</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="1">
-        <v>46158.73</v>
+        <v>6662.6</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>66.484599999480494</v>
+        <v>66.743593927295606</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="1">
-        <v>34718.39</v>
+        <v>5659</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>65.246013531156905</v>
+        <v>67.346617193850506</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="1">
-        <v>34234.99</v>
+        <v>1551.3</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>69.296599999999998</v>
+        <v>51.046799974215197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="1">
-        <v>32382.3</v>
+        <v>470.8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>66.046799998764797</v>
+        <v>69.046799915038207</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1191,58 +1195,58 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="1">
-        <v>30749</v>
+        <v>89989.48</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>67.075377283814106</v>
+        <v>65.076394349694297</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="1">
-        <v>29522.53</v>
+        <v>67985.759999999995</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>65.484599999136094</v>
+        <v>66.076010780787001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="1">
-        <v>29470.789000000001</v>
+        <v>30749</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>70.754478432292302</v>
+        <v>67.075377283814106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="1">
-        <v>26752.79</v>
+        <v>26445.54</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>67.484600000459295</v>
+        <v>58.076664250380198</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1251,268 +1255,268 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="1">
-        <v>26445.54</v>
+        <v>19257.240000000002</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>58.076664250380198</v>
+        <v>71.441969581310701</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="1">
-        <v>24287.99</v>
+        <v>6239.76</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>64.984600000506703</v>
+        <v>71.464719284075002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="1">
-        <v>23353</v>
+        <v>1331.1</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>65.546799998381005</v>
+        <v>70.720782660957099</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="1">
-        <v>20878.400000000001</v>
+        <v>561.34</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>65.722166775231798</v>
+        <v>51.076899918053201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="1">
-        <v>20573.79</v>
+        <v>15092.995000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>66.4872000005833</v>
+        <v>60.4845999978535</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="1">
-        <v>19257.240000000002</v>
+        <v>12526.82</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>71.441969581310701</v>
+        <v>67.484600000656101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="1">
-        <v>18779.5</v>
+        <v>7930.31</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>67.293642770041799</v>
+        <v>66.4846</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="1">
-        <v>18710.32</v>
+        <v>4086.3310000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>69</v>
+        <v>68.484599981567897</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="1">
-        <v>18296.86</v>
+        <v>3750.931</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>58.484599997511701</v>
+        <v>69.484600001896098</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="1">
-        <v>17517.599999999999</v>
+        <v>886.28</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>69.449833293373501</v>
+        <v>51.484599879523699</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="1">
-        <v>15971</v>
+        <v>803.9</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>66.003460056989994</v>
+        <v>69.484599950242597</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="1">
-        <v>15409.47</v>
+        <v>83.69</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>69.296599999999998</v>
+        <v>69.484600310670302</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="1">
-        <v>15092.995000000001</v>
+        <v>149.1</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>60.4845999978535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="1">
-        <v>14723.57</v>
+        <v>627.4</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>65.487199999728304</v>
+        <v>52.5467999681224</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="1">
-        <v>14509.1</v>
+        <v>374.19</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>65.546799998085206</v>
+        <v>79.363884999599094</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="1">
-        <v>14117.3</v>
+        <v>61081.89</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>65.5344168419402</v>
+        <v>70.858111918958102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="1">
-        <v>13410.6</v>
+        <v>34234.99</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>67.046799998545893</v>
+        <v>69.296599999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="1">
-        <v>12526.82</v>
+        <v>29470.789000000001</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>67.484600000656101</v>
+        <v>70.754478432292302</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1521,58 +1525,58 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="1">
-        <v>12114.79</v>
+        <v>15409.47</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>70.757589916523301</v>
+        <v>69.296599999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="1">
-        <v>10856.85</v>
+        <v>12114.79</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>68.487199997275496</v>
+        <v>70.757589916523301</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="1">
-        <v>10678.67</v>
+        <v>5406.24</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>68.484599996930697</v>
+        <v>70.527626952621901</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="1">
-        <v>8346.7999999999993</v>
+        <v>1217.24</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>58.977342382709601</v>
+        <v>70.879678275545302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,137 +1596,137 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="1">
-        <v>7930.31</v>
+        <v>5491.3</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>66.4846</v>
+        <v>56.106500009105297</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="1">
-        <v>6662.6</v>
+        <v>2685.1</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>66.743593927295606</v>
+        <v>66.106500018621304</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="1">
-        <v>6239.76</v>
+        <v>380.6</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>71.464719284075002</v>
+        <v>67.106499999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="1">
-        <v>5659</v>
+        <v>18710.32</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>67.346617193850506</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="1">
-        <v>5491.3</v>
+        <v>4360.99</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>56.106500009105297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="1">
-        <v>5406.24</v>
+        <v>1558.11</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>70.527626952621901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="1">
-        <v>4607.8</v>
+        <v>1261.8399999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>70.484600004340507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="1">
-        <v>4567.2</v>
+        <v>624.9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>71.484599995620997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="1">
-        <v>4474.5</v>
+        <v>55.92</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46">
-        <v>59.046799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1731,10 +1735,10 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="1">
-        <v>4360.99</v>
+        <v>25.79</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1742,122 +1746,122 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="1">
-        <v>4086.3310000000001</v>
+        <v>82269.8</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>68.484599981567897</v>
+        <v>67.234076104475704</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="1">
-        <v>3804.64</v>
+        <v>66947.199999999997</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>65.984599996082807</v>
+        <v>67.748841397562401</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="1">
-        <v>3750.931</v>
+        <v>34718.39</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50">
-        <v>69.484600001896098</v>
+        <v>65.246013531156905</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="1">
-        <v>3355.68</v>
+        <v>20878.400000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>58.484599991655898</v>
+        <v>65.722166775231798</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="1">
-        <v>3155.2</v>
+        <v>14117.3</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>56.734599993661298</v>
+        <v>65.5344168419402</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="1">
-        <v>2685.1</v>
+        <v>1816.5</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>66.106500018621304</v>
+        <v>58.809398843930602</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="1">
-        <v>2609.6999999999998</v>
+        <v>1217.3</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>68.4845999923363</v>
+        <v>62.6750228374271</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="1">
-        <v>2605.6999999999998</v>
+        <v>34.6</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>71.484599992324505</v>
+        <v>50.846199421965302</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1866,358 +1870,358 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="1">
-        <v>2067.2399999999998</v>
+        <v>20573.79</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>59.487199986455401</v>
+        <v>66.4872000005833</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="1">
-        <v>1952.06</v>
+        <v>14723.57</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>68.484599984515299</v>
+        <v>65.487199999728304</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="1">
-        <v>1816.5</v>
+        <v>10856.85</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>58.809398843930602</v>
+        <v>68.487199997275496</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="1">
-        <v>1756.6</v>
+        <v>2067.2399999999998</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>59.487199986455401</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="1">
-        <v>1685.6</v>
+        <v>1443.33</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60">
-        <v>69.046799991596302</v>
+        <v>70.487200016628194</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="1">
-        <v>1558.11</v>
+        <v>225.52</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>50.487200064938598</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="1">
-        <v>1551.3</v>
+        <v>160.43</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>51.046799974215197</v>
+        <v>70.487200024933003</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="1">
-        <v>1443.33</v>
+        <v>663.02</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>70.487200016628194</v>
+        <v>52.046799945703</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="1">
-        <v>1416.76</v>
+        <v>584.70000000000005</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>50.484599945999499</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="1">
-        <v>1331.1</v>
+        <v>18779.5</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>70.720782660957099</v>
+        <v>67.293642770041799</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="1">
-        <v>1261.8399999999999</v>
+        <v>17517.599999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>69.449833293373501</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="1">
-        <v>1254.5999999999999</v>
+        <v>24287.99</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>64.984600000506703</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="1">
-        <v>1217.3</v>
+        <v>18296.86</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>62.6750228374271</v>
+        <v>58.484599997511701</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="1">
-        <v>1217.24</v>
+        <v>3804.64</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E69">
-        <v>70.879678275545302</v>
+        <v>65.984599996082807</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="1">
-        <v>1005.8</v>
+        <v>1416.76</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>71.484600019884695</v>
+        <v>50.484599945999499</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="1">
-        <v>886.28</v>
+        <v>237.03</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>51.484599879523699</v>
+        <v>66.984599942531702</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="1">
-        <v>803.9</v>
+        <v>75.89</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>69.484599950242597</v>
+        <v>68.484600079061806</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="1">
-        <v>663.02</v>
+        <v>4607.8</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>52.046799945703</v>
+        <v>70.484600004340507</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="1">
-        <v>627.4</v>
+        <v>4567.2</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>52.5467999681224</v>
+        <v>71.484599995620997</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="1">
-        <v>624.9</v>
+        <v>2609.6999999999998</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>68.4845999923363</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="1">
-        <v>606</v>
+        <v>2605.6999999999998</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>71.484599992324505</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="1">
-        <v>584.70000000000005</v>
+        <v>1005.8</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>68</v>
+        <v>71.484600019884695</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="1">
-        <v>561.34</v>
+        <v>397.1</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E78">
-        <v>51.076899918053201</v>
+        <v>71.484600100730304</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="1">
-        <v>470.8</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>69.046799915038207</v>
+        <v>66.484599944781905</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2226,313 +2230,313 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="1">
-        <v>397.1</v>
+        <v>250.5</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>71.484600100730304</v>
+        <v>61.4846</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="1">
-        <v>380.6</v>
+        <v>26.2</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E81">
-        <v>67.106499999999997</v>
+        <v>50.484599236641202</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="1">
-        <v>374.19</v>
+        <v>20.5</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82">
-        <v>79.363884999599094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="1">
-        <v>371.1</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>69.046800091701002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="1">
-        <v>354.3</v>
+        <v>606</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>51.046799887101301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="1">
-        <v>271.60000000000002</v>
+        <v>46158.73</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>66.484599944781905</v>
+        <v>66.484599999480494</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="1">
-        <v>250.5</v>
+        <v>29522.53</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>61.4846</v>
+        <v>65.484599999136094</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="1">
-        <v>237.03</v>
+        <v>26752.79</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87">
-        <v>66.984599942531702</v>
+        <v>67.484600000459295</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="1">
-        <v>225.52</v>
+        <v>10678.67</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>50.487200064938598</v>
+        <v>68.484599996930697</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="1">
-        <v>212.1</v>
+        <v>3355.68</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>52</v>
+        <v>58.484599991655898</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="1">
-        <v>160.43</v>
+        <v>1952.06</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90">
-        <v>70.487200024933003</v>
+        <v>68.484599984515299</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="1">
-        <v>149.1</v>
+        <v>140.49</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>68.484600327425397</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="1">
-        <v>140.49</v>
+        <v>1756.6</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>68.484600327425397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="1">
-        <v>83.69</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>69.484600310670302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="1">
-        <v>75.89</v>
+        <v>32382.3</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <v>68.484600079061806</v>
+        <v>66.046799998764797</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="1">
-        <v>55.92</v>
+        <v>14509.1</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>65.546799998085206</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="1">
-        <v>39.700000000000003</v>
+        <v>13410.6</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>67.046799998545893</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="1">
-        <v>34.6</v>
+        <v>4474.5</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E97">
-        <v>50.846199421965302</v>
+        <v>59.046799999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="1">
-        <v>26.2</v>
+        <v>1685.6</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>50.484599236641202</v>
+        <v>69.046799991596302</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="1">
-        <v>25.79</v>
+        <v>371.1</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>69.046800091701002</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="1">
-        <v>20.5</v>
+        <v>354.3</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>51.046799887101301</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4042,10 +4046,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -5404,7 +5408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6183,7 +6187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8808,7 +8812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/input_data/deliveries.xlsx
+++ b/input_data/deliveries.xlsx
@@ -24,7 +24,7 @@
     <sheet name="Ark2" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Delivery!$A$1:$G$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Delivery!$A$1:$F$299</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Forecast W13'!$A$1:$F$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Forecast W14'!$A$1:$F$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Forecast W15'!$A$1:$G$71</definedName>
@@ -773,7 +773,7 @@
   <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B60"/>
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,161 +811,161 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="38">
-        <v>44102</v>
+      <c r="A2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="40">
+        <v>44344</v>
       </c>
       <c r="C2" s="27">
-        <v>7</v>
-      </c>
-      <c r="D2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1123.0295994327344</v>
+        <v>1298</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G2" s="24">
         <v>51.046799974215197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="38">
-        <v>44086</v>
+      <c r="A3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="40">
+        <v>44344</v>
       </c>
       <c r="C3" s="27">
-        <v>98</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>25</v>
+        <v>177</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>1123.6917981971703</v>
+        <v>1408</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G3" s="24">
         <v>51.076899918053201</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="38">
-        <v>44109</v>
+      <c r="A4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="32">
+        <v>44344</v>
       </c>
       <c r="C4" s="27">
-        <v>23</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>25</v>
+        <v>360</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>1132.6611973495214</v>
+        <v>1267.5</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G4" s="24">
         <v>51.484599879523699</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="32">
+        <v>44345</v>
+      </c>
+      <c r="C5" s="27">
+        <v>355</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1452</v>
+      </c>
+      <c r="F5">
         <v>22</v>
-      </c>
-      <c r="B5" s="39">
-        <v>111111</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1100</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
       </c>
       <c r="G5" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="38">
-        <v>44108</v>
+      <c r="A6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="32">
+        <v>44345</v>
       </c>
       <c r="C6" s="27">
-        <v>9</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>25</v>
+        <v>306</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>1110.7184014286493</v>
+        <v>1156</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G6" s="24">
         <v>50.487200064938598</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="38">
-        <v>44119</v>
+      <c r="A7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="32">
+        <v>44413</v>
       </c>
       <c r="C7" s="27">
-        <v>123</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>1110.6611988119889</v>
+        <v>1540</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G7" s="24">
         <v>50.484599945999499</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="38">
-        <v>44104</v>
+      <c r="A8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="32">
+        <v>44413</v>
       </c>
       <c r="C8" s="27">
-        <v>17</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>1123.0295975162287</v>
+        <v>1540</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G8" s="24">
         <v>51.046799887101301</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="39">
-        <v>44292</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="38">
+        <v>44285</v>
       </c>
       <c r="C11" s="27">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1044.6612007554249</v>
+        <v>1220.7183967188671</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="24">
         <v>47.484600034337497</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="39">
-        <v>44151</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="38">
+        <v>44192</v>
       </c>
       <c r="C12" s="27">
-        <v>34</v>
+        <v>518</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>1604.916141342987</v>
+        <v>1176.7183997319939</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="24">
         <v>72.950733697408495</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="38">
-        <v>44181</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="24">
+        <v>44285</v>
       </c>
       <c r="C13" s="27">
-        <v>55</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>25</v>
+        <v>510</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>1128.0874018628278</v>
+        <v>1320</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="24">
         <v>51.276700084673998</v>
@@ -1088,19 +1088,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="38">
-        <v>44222</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="24">
+        <v>44192</v>
       </c>
       <c r="C14" s="27">
-        <v>54</v>
+        <v>2256</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1145.0295996483937</v>
+        <v>1179.2195176041266</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="39">
-        <v>44261</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="24">
+        <v>44286</v>
       </c>
       <c r="C15" s="27">
-        <v>123</v>
+        <v>3746</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>1088.0693989035508</v>
+        <v>1296.5004000069616</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G15" s="24">
         <v>49.457699950161398</v>
@@ -1134,22 +1134,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="39">
-        <v>44176</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="24">
+        <v>44192</v>
       </c>
       <c r="C16" s="27">
-        <v>11</v>
+        <v>1909</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>1126.3912126436771</v>
+        <v>1352.0357563145797</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="24">
         <v>51.199600574712598</v>
@@ -1157,22 +1157,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="39">
-        <v>44208</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="24">
+        <v>44285</v>
       </c>
       <c r="C17" s="27">
-        <v>35</v>
+        <v>1598</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>1057.0296034415326</v>
+        <v>1484.7184000124298</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="24">
         <v>48.046800156433299</v>
@@ -1182,68 +1182,68 @@
       <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="38">
-        <v>44285</v>
+      <c r="B18" s="24">
+        <v>44192</v>
       </c>
       <c r="C18" s="27">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1220.7183967188671</v>
+        <v>1062.2823999584537</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G18" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A18,'Helping Sheet - Prices'!$K$3:$K$85,D18)</f>
-        <v>55.4871998508576</v>
+        <v>68.487200002084407</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="39">
-        <v>44282</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="24">
+        <v>44285</v>
       </c>
       <c r="C19" s="27">
-        <v>4</v>
+        <v>935</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>1189.0295999999998</v>
+        <v>1164.2824000354349</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G19" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A19,'Helping Sheet - Prices'!$K$3:$K$85,D19)</f>
-        <v>54.046799999999998</v>
+        <v>68.487200002084407</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="39">
-        <v>44305</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="24">
+        <v>44192</v>
       </c>
       <c r="C20" s="27">
-        <v>173</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>1144</v>
+        <v>1396.7184008195197</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" s="24">
         <v>52</v>
@@ -1251,46 +1251,46 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="39">
-        <v>44370</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="24">
+        <v>44285</v>
       </c>
       <c r="C21" s="27">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>1220.6611981945018</v>
+        <v>1550.7183998628541</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A21,'Helping Sheet - Prices'!$K$3:$K$85,D21)</f>
-        <v>55.484599917931902</v>
+        <v>70.487199993766097</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="39">
-        <v>44302</v>
+        <v>46</v>
+      </c>
+      <c r="B22" s="41">
+        <v>44408</v>
       </c>
       <c r="C22" s="27">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E22">
-        <v>1072.9692600000001</v>
+        <v>1232</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G22" s="24">
         <v>48.771329999999999</v>
@@ -1298,118 +1298,118 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="39">
-        <v>44269</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="22">
+        <v>44408</v>
       </c>
       <c r="C23" s="27">
-        <v>1</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>25</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E23">
-        <v>1189.9230033613451</v>
+        <v>132</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G23" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A23,'Helping Sheet - Prices'!$K$3:$K$85,D23)</f>
-        <v>54.0874092436975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="38">
-        <v>44321</v>
+        <v>46</v>
+      </c>
+      <c r="B24" s="22">
+        <v>44408</v>
       </c>
       <c r="C24" s="27">
-        <v>81</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>25</v>
+        <v>351</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>1255.0296000814637</v>
+        <v>1291.875</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G24" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A24,'Helping Sheet - Prices'!$K$3:$K$85,D24)</f>
-        <v>57.046800003702899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="39">
-        <v>44315</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="22">
+        <v>44408</v>
       </c>
       <c r="C25" s="27">
-        <v>72</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>25</v>
+        <v>473</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>1299.0296008470771</v>
+        <v>1479.5</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G25" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A25,'Helping Sheet - Prices'!$K$3:$K$85,D25)</f>
-        <v>59.046800038503498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="39">
-        <v>44299</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="22">
+        <v>44408</v>
       </c>
       <c r="C26" s="27">
-        <v>26</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>25</v>
+        <v>609</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>1220.0693986208134</v>
+        <v>1160.25</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G26" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A26,'Helping Sheet - Prices'!$K$3:$K$85,D26)</f>
-        <v>55.457699937309698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="40">
-        <v>44344</v>
+        <v>46</v>
+      </c>
+      <c r="B27" s="22">
+        <v>44408</v>
       </c>
       <c r="C27" s="27">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>1298</v>
+        <v>1512.5</v>
       </c>
       <c r="F27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="32">
         <v>59</v>
@@ -1419,17 +1419,17 @@
       <c r="A28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="22">
         <v>44408</v>
       </c>
       <c r="C28" s="27">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>1232</v>
+        <v>1512.5</v>
       </c>
       <c r="F28">
         <v>22</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="41">
-        <v>44388</v>
+        <v>46</v>
+      </c>
+      <c r="B29" s="24">
+        <v>44408</v>
       </c>
       <c r="C29" s="27">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>1122</v>
+        <v>1512.5</v>
       </c>
       <c r="F29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="13">
         <v>51</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="41">
-        <v>44425</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="22">
+        <v>44408</v>
       </c>
       <c r="C30" s="27">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>1232</v>
+        <v>1512.5</v>
       </c>
       <c r="F30">
         <v>22</v>
@@ -1485,23 +1485,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="39">
-        <v>44417</v>
+      <c r="A31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="38">
+        <v>44102</v>
       </c>
       <c r="C31" s="27">
-        <v>91</v>
-      </c>
-      <c r="D31" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1166</v>
+        <v>1123.0295994327344</v>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G31" s="13">
         <v>53</v>
@@ -1509,45 +1509,45 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B32" s="39">
-        <v>44371</v>
+        <v>44282</v>
       </c>
       <c r="C32" s="27">
-        <v>74</v>
-      </c>
-      <c r="D32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E32">
-        <v>1254</v>
+        <v>1189.0295999999998</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="39">
-        <v>44375</v>
+      <c r="A33" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="38">
+        <v>44101</v>
       </c>
       <c r="C33" s="27">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E33">
-        <v>1254</v>
+        <v>1297.5015324196113</v>
       </c>
       <c r="F33">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G33" s="36">
         <v>57</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="38">
-        <v>44226</v>
+        <v>14</v>
+      </c>
+      <c r="B34" s="39">
+        <v>44221</v>
       </c>
       <c r="C34" s="27">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E34">
-        <v>1495.098</v>
+        <v>1181.8308751919735</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="24">
         <v>67.959000000000003</v>
@@ -1578,45 +1578,45 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="38">
-        <v>44263</v>
+        <v>14</v>
+      </c>
+      <c r="B35" s="24">
+        <v>44282</v>
       </c>
       <c r="C35" s="27">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E35">
-        <v>1166</v>
+        <v>1342</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G35" s="24">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="39">
-        <v>44228</v>
+      <c r="A36" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="24">
+        <v>44101</v>
       </c>
       <c r="C36" s="27">
-        <v>200</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>68</v>
+        <v>1290</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1430.4246001163094</v>
+        <v>1278.1625999684295</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G36" s="24">
         <v>65.019300005286794</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="40">
-        <v>44344</v>
+        <v>14</v>
+      </c>
+      <c r="B37" s="13">
+        <v>44221</v>
       </c>
       <c r="C37" s="27">
-        <v>177</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>68</v>
+        <v>579</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>1408</v>
+        <v>1180.6625999801588</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G37" s="32">
         <v>64</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="41">
-        <v>44405</v>
+        <v>14</v>
+      </c>
+      <c r="B38" s="24">
+        <v>44131</v>
       </c>
       <c r="C38" s="27">
-        <v>101</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>68</v>
+        <v>963</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>1072.9692600000001</v>
+        <v>1278.1626000000001</v>
       </c>
       <c r="F38">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G38" s="13">
         <v>48.771329999999999</v>
@@ -1672,66 +1672,66 @@
       <c r="A39" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="38">
-        <v>44101</v>
+      <c r="B39" s="24">
+        <v>44102</v>
       </c>
       <c r="C39" s="27">
-        <v>187</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>68</v>
+        <v>1451</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>1297.5015324196113</v>
+        <v>1452.0761212537798</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="24">
         <v>58.977342382709601</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="38">
-        <v>44087</v>
+      <c r="A40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="13">
+        <v>44191</v>
       </c>
       <c r="C40" s="27">
-        <v>1845</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>68</v>
+        <v>740</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>1277.6866135083644</v>
+        <v>1354.0295999999998</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G40" s="24">
         <v>58.076664250380198</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="38">
-        <v>44109</v>
+      <c r="A41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="24">
+        <v>44282</v>
       </c>
       <c r="C41" s="27">
-        <v>573</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>68</v>
+        <v>1212</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>1330.661199952777</v>
+        <v>1464.029600030666</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G41" s="24">
         <v>60.4845999978535</v>
@@ -1739,68 +1739,68 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="38">
-        <v>44096</v>
+        <v>14</v>
+      </c>
+      <c r="B42" s="24">
+        <v>44101</v>
       </c>
       <c r="C42" s="27">
-        <v>98</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>68</v>
+        <v>735</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>1551.6077929576818</v>
+        <v>1134.6410967640254</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" s="24">
         <v>70.527626952621901</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="38">
-        <v>44123</v>
+      <c r="A43" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="24">
+        <v>44221</v>
       </c>
       <c r="C43" s="27">
-        <v>275</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>68</v>
+        <v>381</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>1234.3430002003165</v>
+        <v>1063.2956000191402</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G43" s="24">
         <v>56.106500009105297</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="39">
-        <v>111111</v>
+      <c r="A44" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="24">
+        <v>44131</v>
       </c>
       <c r="C44" s="27">
-        <v>3</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>68</v>
+        <v>1073</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>1276</v>
+        <v>1139.7956000000001</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G44" s="24">
         <v>58</v>
@@ -1808,68 +1808,68 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="38">
-        <v>44118</v>
+        <v>14</v>
+      </c>
+      <c r="B45" s="24">
+        <v>44102</v>
       </c>
       <c r="C45" s="27">
-        <v>211</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>68</v>
+        <v>94</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>1320</v>
+        <v>1481.6255782647111</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="38">
-        <v>44108</v>
+      <c r="A46" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="24">
+        <v>44191</v>
       </c>
       <c r="C46" s="27">
-        <v>165</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>1308.7183997020188</v>
+        <v>1409.0296000000001</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G46" s="24">
         <v>59.487199986455401</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="38">
-        <v>44119</v>
+      <c r="A47" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="24">
+        <v>44282</v>
       </c>
       <c r="C47" s="27">
-        <v>1031</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>68</v>
+        <v>348</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>1286.6611999452575</v>
+        <v>1497.02960019956</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G47" s="24">
         <v>58.484599997511701</v>
@@ -1877,45 +1877,45 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="38">
-        <v>44083</v>
+        <v>14</v>
+      </c>
+      <c r="B48" s="24">
+        <v>44102</v>
       </c>
       <c r="C48" s="27">
-        <v>146</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E48">
-        <v>1286.6611998164299</v>
+        <v>1519.0295981308404</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="24">
         <v>58.484599991655898</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="38">
-        <v>44105</v>
+      <c r="A49" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="24">
+        <v>44191</v>
       </c>
       <c r="C49" s="27">
-        <v>202</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E49">
-        <v>1299.0295999999998</v>
+        <v>1409.0296003550977</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G49" s="24">
         <v>59.046799999999998</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="38">
-        <v>44192</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="24">
+        <v>44282</v>
       </c>
       <c r="C50" s="27">
-        <v>518</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>1176.7183997319939</v>
+        <v>1497.0295984939239</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" s="24">
         <v>53.487199987817903</v>
@@ -1948,17 +1948,17 @@
       <c r="A51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="39">
-        <v>44221</v>
+      <c r="B51" s="24">
+        <v>44191</v>
       </c>
       <c r="C51" s="27">
-        <v>259</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>1181.8308751919735</v>
+        <v>1409.0296086956516</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -1969,45 +1969,45 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="39">
-        <v>44194</v>
+        <v>14</v>
+      </c>
+      <c r="B52" s="24">
+        <v>44282</v>
       </c>
       <c r="C52" s="27">
-        <v>286</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>1202.5804264337623</v>
+        <v>1497.0295637860088</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G52" s="24">
         <v>54.662746656080103</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="39">
-        <v>44292</v>
+      <c r="A53" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="38">
+        <v>44086</v>
       </c>
       <c r="C53" s="27">
-        <v>782</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E53">
-        <v>1187.6611995842241</v>
+        <v>1123.6917981971703</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G53" s="24">
         <v>53.984599981101098</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B54" s="39">
-        <v>44151</v>
+        <v>44305</v>
       </c>
       <c r="C54" s="27">
-        <v>388</v>
+        <v>173</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>1604.916141342987</v>
+        <v>1144</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G54" s="24">
         <v>72.950733697408495</v>
@@ -2038,45 +2038,45 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="39">
-        <v>44213</v>
+        <v>3</v>
+      </c>
+      <c r="B55" s="41">
+        <v>44388</v>
       </c>
       <c r="C55" s="27">
-        <v>507</v>
+        <v>290</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>1190.3429999999998</v>
+        <v>1122</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="24">
         <v>54.106499999999997</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>36</v>
+      <c r="A56" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="B56" s="38">
-        <v>44180</v>
+        <v>44087</v>
       </c>
       <c r="C56" s="27">
-        <v>695</v>
+        <v>1845</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E56">
-        <v>1253.4873999824131</v>
+        <v>1277.6866135083644</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G56" s="24">
         <v>56.976699999200598</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B57" s="39">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="C57" s="27">
-        <v>1011</v>
+        <v>286</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E57">
-        <v>1266.0296000088463</v>
+        <v>1202.5804264337623</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="24">
         <v>57.546800000402101</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="39">
-        <v>44261</v>
+        <v>3</v>
+      </c>
+      <c r="B58" s="13">
+        <v>44306</v>
       </c>
       <c r="C58" s="27">
-        <v>1231</v>
+        <v>864</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E58">
-        <v>1198.0694000953501</v>
+        <v>1342</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G58" s="24">
         <v>54.4577000043341</v>
@@ -2130,45 +2130,45 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="39">
-        <v>44176</v>
+        <v>3</v>
+      </c>
+      <c r="B59" s="22">
+        <v>44389</v>
       </c>
       <c r="C59" s="27">
-        <v>918</v>
+        <v>2312</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E59">
-        <v>1253.4874000486839</v>
+        <v>1276</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G59" s="24">
         <v>56.976700002212901</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="39">
-        <v>44175</v>
+      <c r="A60" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="24">
+        <v>44085</v>
       </c>
       <c r="C60" s="27">
-        <v>503</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>68</v>
+        <v>5508</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>1198.6611998098497</v>
+        <v>1268.9896898190389</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G60" s="24">
         <v>54.484599991356802</v>
@@ -2176,20 +2176,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="B61" s="13">
+        <v>44195</v>
+      </c>
       <c r="C61" s="27">
-        <v>202</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>68</v>
+        <v>1364</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>1199</v>
+        <v>1190.9507999725497</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="24">
         <v>54.5</v>
@@ -2197,22 +2199,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="13">
-        <v>44208</v>
+        <v>3</v>
+      </c>
+      <c r="B62" s="24">
+        <v>44310</v>
       </c>
       <c r="C62" s="27">
-        <v>546</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>68</v>
+        <v>4180</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>1189.0295998292361</v>
+        <v>1288.1801078959566</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G62" s="24">
         <v>54.046799992238</v>
@@ -2220,45 +2222,45 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="24">
-        <v>44285</v>
+        <v>3</v>
+      </c>
+      <c r="B63" s="22">
+        <v>44379</v>
       </c>
       <c r="C63" s="27">
-        <v>510</v>
+        <v>6655</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>1320</v>
+        <v>1248</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G63" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>14</v>
+      <c r="A64" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="B64" s="24">
-        <v>44282</v>
+        <v>44088</v>
       </c>
       <c r="C64" s="27">
-        <v>118</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>68</v>
+        <v>2001</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>1342</v>
+        <v>1453.6722371773139</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G64" s="24">
         <v>61</v>
@@ -2269,19 +2271,19 @@
         <v>3</v>
       </c>
       <c r="B65" s="13">
-        <v>44306</v>
+        <v>44196</v>
       </c>
       <c r="C65" s="27">
-        <v>864</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>68</v>
+        <v>1436</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>1342</v>
+        <v>1365.6368000172458</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G65" s="24">
         <v>61</v>
@@ -2289,22 +2291,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B66" s="24">
-        <v>44294</v>
+        <v>44307</v>
       </c>
       <c r="C66" s="27">
-        <v>239</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>68</v>
+        <v>2032</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>1364</v>
+        <v>1475.3855233515972</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G66" s="24">
         <v>62</v>
@@ -2312,45 +2314,45 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="13">
-        <v>44302</v>
+        <v>3</v>
+      </c>
+      <c r="B67" s="22">
+        <v>44390</v>
       </c>
       <c r="C67" s="27">
-        <v>255</v>
+        <v>4038</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>1364</v>
+        <v>1430</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G67" s="24">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="24">
+        <v>44089</v>
+      </c>
+      <c r="C68" s="27">
+        <v>1039</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>1140.2814138248398</v>
+      </c>
+      <c r="F68">
         <v>5</v>
-      </c>
-      <c r="B68" s="24">
-        <v>44269</v>
-      </c>
-      <c r="C68" s="27">
-        <v>191</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68">
-        <v>1364</v>
-      </c>
-      <c r="F68">
-        <v>17</v>
       </c>
       <c r="G68" s="24">
         <v>62</v>
@@ -2358,22 +2360,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B69" s="13">
-        <v>44311</v>
+        <v>44197</v>
       </c>
       <c r="C69" s="27">
-        <v>1377</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>68</v>
+        <v>1202</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>1320</v>
+        <v>1072.2647999804126</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G69" s="24">
         <v>60</v>
@@ -2381,45 +2383,45 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="13">
-        <v>44329</v>
+        <v>3</v>
+      </c>
+      <c r="B70" s="22">
+        <v>44391</v>
       </c>
       <c r="C70" s="27">
-        <v>495</v>
+        <v>1017</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>1320</v>
+        <v>1122</v>
       </c>
       <c r="F70">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G70" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="13">
-        <v>44299</v>
+      <c r="A71" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="24">
+        <v>44090</v>
       </c>
       <c r="C71" s="27">
-        <v>346</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>68</v>
+        <v>887</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>1320</v>
+        <v>1571.7233307888355</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G71" s="24">
         <v>60</v>
@@ -2427,22 +2429,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B72" s="13">
-        <v>44277</v>
+        <v>44198</v>
       </c>
       <c r="C72" s="27">
-        <v>186</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>68</v>
+        <v>523</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>1320</v>
+        <v>1469.3553688672364</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G72" s="24">
         <v>60</v>
@@ -2450,45 +2452,45 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="22">
-        <v>44408</v>
+        <v>3</v>
+      </c>
+      <c r="B73" s="24">
+        <v>44392</v>
       </c>
       <c r="C73" s="27">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>132</v>
+        <v>1419</v>
       </c>
       <c r="F73">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G73" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="22">
-        <v>44389</v>
+      <c r="B74" s="24">
+        <v>44086</v>
       </c>
       <c r="C74" s="27">
-        <v>2312</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>68</v>
+        <v>312</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>1276</v>
+        <v>1572.2238242496501</v>
       </c>
       <c r="F74">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G74" s="13">
         <v>58</v>
@@ -2496,68 +2498,68 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="22">
-        <v>44414</v>
+        <v>3</v>
+      </c>
+      <c r="B75" s="24">
+        <v>44198</v>
       </c>
       <c r="C75" s="27">
-        <v>903</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>68</v>
+        <v>157</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>1364</v>
+        <v>1467.2273849907124</v>
       </c>
       <c r="F75">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G75" s="13">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="13">
-        <v>44422</v>
+      <c r="A76" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="24">
+        <v>44086</v>
       </c>
       <c r="C76" s="27">
-        <v>1698</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>1320</v>
+        <v>1555.8572185410562</v>
       </c>
       <c r="F76">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G76" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="13">
-        <v>44371</v>
+      <c r="A77" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="38">
+        <v>44109</v>
       </c>
       <c r="C77" s="27">
-        <v>884</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E77">
-        <v>1386</v>
+        <v>1132.6611973495214</v>
       </c>
       <c r="F77">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G77" s="13">
         <v>63</v>
@@ -2565,22 +2567,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="13">
-        <v>44395</v>
+        <v>19</v>
+      </c>
+      <c r="B78" s="39">
+        <v>44292</v>
       </c>
       <c r="C78" s="27">
-        <v>88</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>1320</v>
+        <v>1044.6612007554249</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="36">
         <v>60</v>
@@ -2588,22 +2590,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" s="13">
-        <v>44375</v>
+        <v>19</v>
+      </c>
+      <c r="B79" s="39">
+        <v>44370</v>
       </c>
       <c r="C79" s="27">
-        <v>340</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>1386</v>
+        <v>1220.6611981945018</v>
       </c>
       <c r="F79">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G79" s="36">
         <v>63</v>
@@ -2611,22 +2613,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="24">
-        <v>44377</v>
+        <v>19</v>
+      </c>
+      <c r="B80" s="41">
+        <v>44425</v>
       </c>
       <c r="C80" s="27">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>1320</v>
+        <v>1232</v>
       </c>
       <c r="F80">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G80" s="36">
         <v>60</v>
@@ -2634,91 +2636,91 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="24">
-        <v>44101</v>
+        <v>19</v>
+      </c>
+      <c r="B81" s="38">
+        <v>44109</v>
       </c>
       <c r="C81" s="27">
-        <v>1290</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>4</v>
+        <v>573</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E81">
-        <v>1278.1625999684295</v>
+        <v>1330.661199952777</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G81" s="24">
         <v>65.546799998381005</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="24">
-        <v>44085</v>
+      <c r="A82" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="39">
+        <v>44292</v>
       </c>
       <c r="C82" s="27">
-        <v>5508</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>4</v>
+        <v>782</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E82">
-        <v>1268.9896898190389</v>
+        <v>1187.6611995842241</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G82" s="24">
         <v>65.076394349694297</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B83" s="24">
-        <v>44109</v>
+        <v>44294</v>
       </c>
       <c r="C83" s="27">
-        <v>1374</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>4</v>
+        <v>239</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E83">
-        <v>1296.4497000000001</v>
+        <v>1364</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G83" s="24">
         <v>66.4846</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="24">
-        <v>44096</v>
+      <c r="A84" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="22">
+        <v>44414</v>
       </c>
       <c r="C84" s="27">
-        <v>568</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>4</v>
+        <v>903</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E84">
-        <v>1379.7730033722044</v>
+        <v>1364</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G84" s="24">
         <v>70.757589916523301</v>
@@ -2726,91 +2728,91 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="24">
-        <v>44123</v>
+        <v>44109</v>
       </c>
       <c r="C85" s="27">
-        <v>477</v>
-      </c>
-      <c r="D85" s="25" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D85" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E85">
-        <v>1269.5767501204143</v>
+        <v>1296.4497000000001</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" s="24">
         <v>65.106500006175096</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="24">
-        <v>44124</v>
+      <c r="A86" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="13">
+        <v>44292</v>
       </c>
       <c r="C86" s="27">
-        <v>1005</v>
+        <v>385</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E86">
-        <v>1345.5</v>
+        <v>1179.4496988262599</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G86" s="24">
         <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="13">
-        <v>111111</v>
+      <c r="A87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="24">
+        <v>44293</v>
       </c>
       <c r="C87" s="27">
-        <v>65</v>
+        <v>669</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E87">
-        <v>1267.5</v>
+        <v>1276.9496996488888</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G87" s="24">
         <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="24">
-        <v>44115</v>
+      <c r="A88" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="22">
+        <v>44380</v>
       </c>
       <c r="C88" s="27">
-        <v>2037</v>
-      </c>
-      <c r="D88" s="24" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D88" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E88">
-        <v>1281.5822521170201</v>
+        <v>1287</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G88" s="24">
         <v>65.722166775231798</v>
@@ -2818,89 +2820,91 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B89" s="24">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="C89" s="27">
-        <v>889</v>
+        <v>714</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>1277.0003999947019</v>
+        <v>1484.6612000144341</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="24">
         <v>65.487199999728304</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="24">
-        <v>44119</v>
+      <c r="A90" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="13">
+        <v>44292</v>
       </c>
       <c r="C90" s="27">
-        <v>1191</v>
+        <v>123</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>1267.1997000098806</v>
+        <v>1352.6611797235021</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G90" s="24">
         <v>64.984600000506703</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="24"/>
+      <c r="A91" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="24">
+        <v>44369</v>
+      </c>
       <c r="C91" s="27">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>1296.4496989232471</v>
+        <v>1462.6612001810972</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G91" s="24">
         <v>66.484599944781905</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="37" t="s">
-        <v>9</v>
+      <c r="A92" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B92" s="24">
-        <v>44083</v>
+        <v>44381</v>
       </c>
       <c r="C92" s="27">
-        <v>1891</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>4</v>
+        <v>998</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>1276.9496999831538</v>
+        <v>1474</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G92" s="24">
         <v>65.484599999136094</v>
@@ -2908,22 +2912,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B93" s="24">
-        <v>44104</v>
+        <v>44109</v>
       </c>
       <c r="C93" s="27">
-        <v>1340</v>
+        <v>377</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>1278.1625999626615</v>
+        <v>1164.2381996866543</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" s="24">
         <v>65.546799998085206</v>
@@ -2931,19 +2935,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="24">
-        <v>44192</v>
+        <v>19</v>
+      </c>
+      <c r="B94" s="13">
+        <v>44292</v>
       </c>
       <c r="C94" s="27">
-        <v>2256</v>
+        <v>59</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>1179.2195176041266</v>
+        <v>1037</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -2954,22 +2958,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="13">
-        <v>44221</v>
+        <v>19</v>
+      </c>
+      <c r="B95" s="24">
+        <v>44369</v>
       </c>
       <c r="C95" s="27">
-        <v>579</v>
+        <v>72</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>1180.6625999801588</v>
+        <v>1147.238198390151</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G95" s="24">
         <v>60.5467999989825</v>
@@ -2977,45 +2981,45 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="13">
-        <v>44195</v>
+        <v>19</v>
+      </c>
+      <c r="B96" s="22">
+        <v>44415</v>
       </c>
       <c r="C96" s="27">
-        <v>1364</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>4</v>
+        <v>1282</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>1190.9507999725497</v>
+        <v>1156</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G96" s="24">
         <v>61.074399998592298</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="13">
-        <v>44292</v>
+      <c r="B97" s="24">
+        <v>44109</v>
       </c>
       <c r="C97" s="27">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>1179.4496988262599</v>
+        <v>1528.6612000417142</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G97" s="24">
         <v>60.484599939808199</v>
@@ -3023,22 +3027,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B98" s="13">
-        <v>44151</v>
+        <v>44292</v>
       </c>
       <c r="C98" s="27">
-        <v>724</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>1404.7188519495905</v>
+        <v>1342</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G98" s="24">
         <v>72.0368642025431</v>
@@ -3046,22 +3050,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="13">
-        <v>44213</v>
+        <v>19</v>
+      </c>
+      <c r="B99" s="24">
+        <v>44370</v>
       </c>
       <c r="C99" s="27">
-        <v>528</v>
+        <v>55</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E99">
-        <v>1191.5767499999999</v>
+        <v>1474</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="24">
         <v>61.106499999999997</v>
@@ -3069,45 +3073,45 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="24">
-        <v>44181</v>
+        <v>19</v>
+      </c>
+      <c r="B100" s="22">
+        <v>44464</v>
       </c>
       <c r="C100" s="27">
-        <v>2267</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>4</v>
+        <v>321</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>1241.4016147031168</v>
+        <v>1496</v>
       </c>
       <c r="F100">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G100" s="24">
         <v>63.661621266826501</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="13">
-        <v>44261</v>
+      <c r="A101" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="24">
+        <v>44109</v>
       </c>
       <c r="C101" s="27">
-        <v>1191</v>
+        <v>23</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>1178.9251500606781</v>
+        <v>1528.6611989053372</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G101" s="24">
         <v>60.457700003111697</v>
@@ -3115,45 +3119,45 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B102" s="13">
-        <v>44176</v>
+        <v>19</v>
+      </c>
+      <c r="B102" s="24">
+        <v>44424</v>
       </c>
       <c r="C102" s="27">
-        <v>3882</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>1238.9763520231579</v>
+        <v>1496</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G102" s="24">
         <v>63.537248821700402</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="13">
-        <v>44174</v>
+      <c r="A103" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="24">
+        <v>44109</v>
       </c>
       <c r="C103" s="27">
-        <v>1933</v>
+        <v>4</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>1173.8074793282331</v>
+        <v>1528.6612068347467</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G103" s="24">
         <v>60.195255350165802</v>
@@ -3161,22 +3165,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="13">
-        <v>44208</v>
+        <v>8</v>
+      </c>
+      <c r="B104" s="39">
+        <v>44151</v>
       </c>
       <c r="C104" s="27">
-        <v>1715</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>1190.4125999629384</v>
+        <v>1604.916141342987</v>
       </c>
       <c r="F104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G104" s="24">
         <v>61.046799998099402</v>
@@ -3184,98 +3188,98 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="24">
-        <v>44286</v>
+        <v>8</v>
+      </c>
+      <c r="B105" s="39">
+        <v>44302</v>
       </c>
       <c r="C105" s="27">
-        <v>3746</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E105">
-        <v>1296.5004000069616</v>
+        <v>1072.9692600000001</v>
       </c>
       <c r="F105">
         <v>14</v>
       </c>
       <c r="G105" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A105,'Helping Sheet - Prices'!$K$3:$K$85,D105)</f>
-        <v>66.487200000357007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="24">
-        <v>44131</v>
+        <v>8</v>
+      </c>
+      <c r="B106" s="41">
+        <v>44405</v>
       </c>
       <c r="C106" s="27">
-        <v>963</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E106">
-        <v>1278.1626000000001</v>
+        <v>1072.9692600000001</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G106" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A106,'Helping Sheet - Prices'!$K$3:$K$85,D106)</f>
-        <v>65.546800000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="24">
-        <v>44310</v>
+      <c r="A107" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="38">
+        <v>44096</v>
       </c>
       <c r="C107" s="27">
-        <v>4180</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E107">
-        <v>1288.1801078959566</v>
+        <v>1551.6077929576818</v>
       </c>
       <c r="F107">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G107" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A107,'Helping Sheet - Prices'!$K$3:$K$85,D107)</f>
-        <v>66.060518353638798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" s="24">
-        <v>44293</v>
+        <v>8</v>
+      </c>
+      <c r="B108" s="39">
+        <v>44151</v>
       </c>
       <c r="C108" s="27">
-        <v>669</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>4</v>
+        <v>388</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E108">
-        <v>1276.9496996488888</v>
+        <v>1604.916141342987</v>
       </c>
       <c r="F108">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G108" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A108,'Helping Sheet - Prices'!$K$3:$K$85,D108)</f>
-        <v>65.484599981994293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3286,160 +3290,160 @@
         <v>44302</v>
       </c>
       <c r="C109" s="27">
-        <v>821</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>4</v>
+        <v>255</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E109">
-        <v>1414.4019490398466</v>
+        <v>1364</v>
       </c>
       <c r="F109">
         <v>14</v>
       </c>
       <c r="G109" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A109,'Helping Sheet - Prices'!$K$3:$K$85,D109)</f>
-        <v>72.533433284094698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
-        <v>5</v>
+      <c r="A110" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B110" s="24">
-        <v>44268</v>
+        <v>44096</v>
       </c>
       <c r="C110" s="27">
-        <v>2955</v>
+        <v>568</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E110">
-        <v>1302.8100282238568</v>
+        <v>1379.7730033722044</v>
       </c>
       <c r="F110">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G110" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A110,'Helping Sheet - Prices'!$K$3:$K$85,D110)</f>
-        <v>66.810770678146497</v>
+        <v>72.533433284094698</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B111" s="13">
-        <v>44321</v>
+        <v>44151</v>
       </c>
       <c r="C111" s="27">
-        <v>368</v>
-      </c>
-      <c r="D111" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="D111" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E111">
-        <v>1313.6465237551208</v>
+        <v>1404.7188519495905</v>
       </c>
       <c r="F111">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G111" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A111,'Helping Sheet - Prices'!$K$3:$K$85,D111)</f>
-        <v>67.366488397698504</v>
+        <v>72.533433284094698</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B112" s="24">
-        <v>44315</v>
+        <v>8</v>
+      </c>
+      <c r="B112" s="13">
+        <v>44302</v>
       </c>
       <c r="C112" s="27">
-        <v>91</v>
+        <v>821</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E112">
-        <v>1357.5276000747804</v>
+        <v>1414.4019490398466</v>
       </c>
       <c r="F112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G112" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A112,'Helping Sheet - Prices'!$K$3:$K$85,D112)</f>
-        <v>69.616800003834896</v>
+        <v>72.533433284094698</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="13">
-        <v>44287</v>
+        <v>8</v>
+      </c>
+      <c r="B113" s="22">
+        <v>44406</v>
       </c>
       <c r="C113" s="27">
-        <v>1540</v>
-      </c>
-      <c r="D113" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D113" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E113">
-        <v>1295.9251500266644</v>
+        <v>1270.7875049999998</v>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G113" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A113,'Helping Sheet - Prices'!$K$3:$K$85,D113)</f>
-        <v>66.4577000013674</v>
+        <v>72.533433284094698</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="13">
-        <v>44277</v>
+      <c r="A114" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="24">
+        <v>44097</v>
       </c>
       <c r="C114" s="27">
-        <v>1280</v>
+        <v>1369</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>1296.4497000155941</v>
+        <v>1556.5985255104306</v>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G114" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A114,'Helping Sheet - Prices'!$K$3:$K$85,D114)</f>
-        <v>66.484600000799702</v>
+        <v>72.046522751283405</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="32">
-        <v>44344</v>
+        <v>8</v>
+      </c>
+      <c r="B115" s="13">
+        <v>44152</v>
       </c>
       <c r="C115" s="27">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>1267.5</v>
+        <v>1548.1212592739828</v>
       </c>
       <c r="F115">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G115" s="32">
         <v>65</v>
@@ -3447,22 +3451,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B116" s="22">
-        <v>44408</v>
+        <v>8</v>
+      </c>
+      <c r="B116" s="13">
+        <v>44304</v>
       </c>
       <c r="C116" s="27">
-        <v>351</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>4</v>
+        <v>1346</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>1291.875</v>
+        <v>1585.023500528235</v>
       </c>
       <c r="F116">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G116" s="24">
         <v>66.25</v>
@@ -3470,19 +3474,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="22">
-        <v>44379</v>
+        <v>8</v>
+      </c>
+      <c r="B117" s="24">
+        <v>44404</v>
       </c>
       <c r="C117" s="27">
-        <v>6655</v>
+        <v>757</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>1248</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F117">
         <v>22</v>
@@ -3492,23 +3496,23 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" s="22">
-        <v>44380</v>
+      <c r="A118" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="24">
+        <v>44098</v>
       </c>
       <c r="C118" s="27">
-        <v>2170</v>
-      </c>
-      <c r="D118" s="25" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>1204.5879026222876</v>
+      </c>
+      <c r="F118">
         <v>4</v>
-      </c>
-      <c r="E118">
-        <v>1287</v>
-      </c>
-      <c r="F118">
-        <v>22</v>
       </c>
       <c r="G118" s="13">
         <v>66</v>
@@ -3518,20 +3522,20 @@
       <c r="A119" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="22">
-        <v>44406</v>
+      <c r="B119" s="13">
+        <v>44153</v>
       </c>
       <c r="C119" s="27">
-        <v>342</v>
+        <v>1836</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E119">
-        <v>1270.7875049999998</v>
+        <v>1208.1312869691017</v>
       </c>
       <c r="F119">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G119" s="13">
         <v>65.168589999999995</v>
@@ -3539,22 +3543,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B120" s="13">
-        <v>44411</v>
+        <v>44303</v>
       </c>
       <c r="C120" s="27">
-        <v>2004</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>4</v>
+        <v>1271</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>1267.5</v>
+        <v>1236.7054612818426</v>
       </c>
       <c r="F120">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G120" s="24">
         <v>65</v>
@@ -3562,45 +3566,45 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" s="13">
-        <v>44371</v>
+        <v>8</v>
+      </c>
+      <c r="B121" s="24">
+        <v>44405</v>
       </c>
       <c r="C121" s="27">
-        <v>2825</v>
+        <v>1698</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>1306.5</v>
+        <v>1107.8660299999999</v>
       </c>
       <c r="F121">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G121" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="s">
-        <v>30</v>
+      <c r="A122" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B122" s="24">
-        <v>44418</v>
+        <v>44099</v>
       </c>
       <c r="C122" s="27">
-        <v>1005</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>4</v>
+        <v>1161</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>1296.75</v>
+        <v>1524.5252</v>
       </c>
       <c r="F122">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G122" s="36">
         <v>66.5</v>
@@ -3608,22 +3612,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B123" s="13">
-        <v>44395</v>
+        <v>44154</v>
       </c>
       <c r="C123" s="27">
-        <v>728</v>
+        <v>797</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>1267.5</v>
+        <v>1602.4471819220655</v>
       </c>
       <c r="F123">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G123" s="36">
         <v>65</v>
@@ -3631,22 +3635,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B124" s="13">
-        <v>44375</v>
+        <v>44303</v>
       </c>
       <c r="C124" s="27">
-        <v>1680</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>4</v>
+        <v>218</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>1306.5</v>
+        <v>1607.9405989281647</v>
       </c>
       <c r="F124">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G124" s="36">
         <v>67</v>
@@ -3654,22 +3658,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="13">
-        <v>44377</v>
+        <v>8</v>
+      </c>
+      <c r="B125" s="22">
+        <v>44406</v>
       </c>
       <c r="C125" s="27">
-        <v>1234</v>
+        <v>1362</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>1267.5</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F125">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G125" s="36">
         <v>65</v>
@@ -3677,91 +3681,91 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B126" s="24">
-        <v>44102</v>
+        <v>44096</v>
       </c>
       <c r="C126" s="27">
-        <v>1451</v>
+        <v>386</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E126">
-        <v>1452.0761212537798</v>
+        <v>1524.5252</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G126" s="24">
         <v>66.003460056989994</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" s="24">
-        <v>44088</v>
+      <c r="A127" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="13">
+        <v>44154</v>
       </c>
       <c r="C127" s="27">
-        <v>2001</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>6</v>
+        <v>213</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E127">
-        <v>1453.6722371773139</v>
+        <v>1570.5350387132164</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G127" s="24">
         <v>66.076010780787001</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" s="24">
-        <v>44109</v>
+      <c r="A128" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="13">
+        <v>44303</v>
       </c>
       <c r="C128" s="27">
-        <v>714</v>
+        <v>36</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E128">
-        <v>1484.6612000144341</v>
+        <v>1519.6239314884629</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G128" s="24">
         <v>67.484600000656101</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="37" t="s">
+      <c r="A129" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B129" s="24">
-        <v>44097</v>
+        <v>44404</v>
       </c>
       <c r="C129" s="27">
-        <v>1369</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>6</v>
+        <v>959</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E129">
-        <v>1556.5985255104306</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G129" s="24">
         <v>70.754478432292302</v>
@@ -3769,91 +3773,91 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B130" s="24">
-        <v>44123</v>
+        <v>44096</v>
       </c>
       <c r="C130" s="27">
-        <v>141</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>1454.3430004096688</v>
+        <v>1559.3529220619967</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G130" s="24">
         <v>66.106500018621304</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B131" s="13">
-        <v>111111</v>
+      <c r="A131" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="24">
+        <v>44154</v>
       </c>
       <c r="C131" s="27">
-        <v>28</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E131">
-        <v>1452</v>
+        <v>1575.121526175549</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G131" s="24">
         <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="24">
-        <v>44114</v>
+      <c r="A132" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="22">
+        <v>44405</v>
       </c>
       <c r="C132" s="27">
-        <v>4259</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E132">
-        <v>1479.1496742984655</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G132" s="24">
         <v>67.234076104475704</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="24">
-        <v>44108</v>
+      <c r="A133" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="22">
+        <v>44405</v>
       </c>
       <c r="C133" s="27">
-        <v>1062</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E133">
-        <v>1462.7184000128327</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G133" s="24">
         <v>66.4872000005833</v>
@@ -3861,43 +3865,45 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="24">
-        <v>44119</v>
+        <v>20</v>
+      </c>
+      <c r="B134" s="38">
+        <v>44123</v>
       </c>
       <c r="C134" s="27">
-        <v>221</v>
-      </c>
-      <c r="D134" s="24" t="s">
-        <v>6</v>
+        <v>275</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E134">
-        <v>1451.6611999138217</v>
+        <v>1234.3430002003165</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G134" s="24">
         <v>65.984599996082807</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" s="24"/>
+      <c r="A135" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="39">
+        <v>44213</v>
+      </c>
       <c r="C135" s="27">
-        <v>173</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>6</v>
+        <v>507</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E135">
-        <v>1506.6611998313986</v>
+        <v>1190.3429999999998</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G135" s="24">
         <v>68.4845999923363</v>
@@ -3905,68 +3911,68 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="37" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B136" s="24">
-        <v>44082</v>
+        <v>44123</v>
       </c>
       <c r="C136" s="27">
-        <v>3220</v>
-      </c>
-      <c r="D136" s="24" t="s">
-        <v>6</v>
+        <v>477</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>1462.6611999885708</v>
+        <v>1269.5767501204143</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G136" s="24">
         <v>66.484599999480494</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="24">
-        <v>44105</v>
+      <c r="A137" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="13">
+        <v>44213</v>
       </c>
       <c r="C137" s="27">
-        <v>1534</v>
+        <v>528</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>1453.0295999728255</v>
+        <v>1191.5767499999999</v>
       </c>
       <c r="F137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G137" s="24">
         <v>66.046799998764797</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="23" t="s">
-        <v>37</v>
+      <c r="A138" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="B138" s="24">
-        <v>44192</v>
+        <v>44123</v>
       </c>
       <c r="C138" s="27">
-        <v>1909</v>
-      </c>
-      <c r="D138" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E138">
-        <v>1352.0357563145797</v>
+        <v>1454.3430004096688</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G138" s="24">
         <v>61.456170741571803</v>
@@ -3974,45 +3980,45 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B139" s="13">
-        <v>44191</v>
+        <v>44213</v>
       </c>
       <c r="C139" s="27">
-        <v>740</v>
+        <v>84</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E139">
-        <v>1354.0295999999998</v>
+        <v>1355.3429999999998</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G139" s="24">
         <v>61.546799999999998</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="13">
-        <v>44196</v>
+      <c r="A140" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="24">
+        <v>44123</v>
       </c>
       <c r="C140" s="27">
-        <v>1436</v>
-      </c>
-      <c r="D140" s="24" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>1365.6368000172458</v>
+        <v>1140.8105</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G140" s="24">
         <v>62.074400000783903</v>
@@ -4020,19 +4026,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B141" s="13">
-        <v>44292</v>
+        <v>44213</v>
       </c>
       <c r="C141" s="27">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>1352.6611797235021</v>
+        <v>1072.8105028117761</v>
       </c>
       <c r="F141">
         <v>10</v>
@@ -4042,23 +4048,23 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="13">
-        <v>44152</v>
+      <c r="A142" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="24">
+        <v>44123</v>
       </c>
       <c r="C142" s="27">
-        <v>1192</v>
+        <v>1</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>1548.1212592739828</v>
+        <v>1452</v>
       </c>
       <c r="F142">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G142" s="24">
         <v>70.369148148817402</v>
@@ -4066,45 +4072,45 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" s="13">
-        <v>44213</v>
+        <v>17</v>
+      </c>
+      <c r="B143" s="38">
+        <v>44226</v>
       </c>
       <c r="C143" s="27">
-        <v>84</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>6</v>
+        <v>200</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E143">
-        <v>1355.3429999999998</v>
+        <v>1495.098</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143" s="24">
         <v>61.606499999999997</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B144" s="13">
-        <v>44224</v>
+      <c r="B144" s="24">
+        <v>44124</v>
       </c>
       <c r="C144" s="27">
-        <v>1107</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>6</v>
+        <v>1005</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>1433.8536172906856</v>
+        <v>1345.5</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G144" s="24">
         <v>65.175164422303894</v>
@@ -4112,22 +4118,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B145" s="24">
-        <v>44181</v>
+        <v>17</v>
+      </c>
+      <c r="B145" s="13">
+        <v>44224</v>
       </c>
       <c r="C145" s="27">
-        <v>2013</v>
-      </c>
-      <c r="D145" s="24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D145" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E145">
-        <v>1433.1112132184539</v>
+        <v>1433.8536172906856</v>
       </c>
       <c r="F145">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G145" s="24">
         <v>65.141418782656999</v>
@@ -4135,22 +4141,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B146" s="13">
-        <v>44223</v>
+        <v>17</v>
+      </c>
+      <c r="B146" s="24">
+        <v>44348</v>
       </c>
       <c r="C146" s="27">
-        <v>432</v>
-      </c>
-      <c r="D146" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="D146" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E146">
-        <v>1422.0305525021704</v>
+        <v>1517.2390583217868</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G146" s="24">
         <v>64.637752386462296</v>
@@ -4158,377 +4164,377 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B147" s="13">
-        <v>44228</v>
+        <v>44215</v>
       </c>
       <c r="C147" s="27">
-        <v>432</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>6</v>
+        <v>874</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>1430.4246001163094</v>
+        <v>1119.8744033040578</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147" s="24">
         <v>65.019300005286794</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" s="13">
-        <v>44206</v>
+      <c r="A148" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B148" s="39">
+        <v>111111</v>
       </c>
       <c r="C148" s="27">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E148">
-        <v>1352.0694000236126</v>
+        <v>1100</v>
       </c>
       <c r="F148">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G148" s="24">
         <v>61.457700001073299</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B149" s="13">
-        <v>44176</v>
+      <c r="A149" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="39">
+        <v>111111</v>
       </c>
       <c r="C149" s="27">
-        <v>1505</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E149">
-        <v>1433.0074000312884</v>
+        <v>1276</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G149" s="24">
         <v>65.136700001422199</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" s="24">
-        <v>44175</v>
+      <c r="A150" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="13">
+        <v>111111</v>
       </c>
       <c r="C150" s="27">
-        <v>3333</v>
+        <v>65</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>1352.661199985469</v>
+        <v>1267.5</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G150" s="24">
         <v>61.484599999339501</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="23" t="s">
-        <v>11</v>
+      <c r="A151" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="B151" s="13">
-        <v>44208</v>
+        <v>111111</v>
       </c>
       <c r="C151" s="27">
-        <v>1278</v>
+        <v>28</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E151">
-        <v>1376.0296000153494</v>
+        <v>1452</v>
       </c>
       <c r="F151">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G151" s="24">
         <v>62.546800000697701</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" s="24">
-        <v>44285</v>
+      <c r="A152" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="13">
+        <v>111111</v>
       </c>
       <c r="C152" s="27">
-        <v>1598</v>
+        <v>257</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>1484.7184000124298</v>
+        <v>1156</v>
       </c>
       <c r="F152">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G152" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A152,'Helping Sheet - Prices'!$K$3:$K$85,D152)</f>
-        <v>67.487200000564997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="24">
-        <v>44282</v>
+      <c r="A153" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="13">
+        <v>111111</v>
       </c>
       <c r="C153" s="27">
-        <v>1212</v>
+        <v>71</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E153">
-        <v>1464.029600030666</v>
+        <v>1540</v>
       </c>
       <c r="F153">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G153" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A153,'Helping Sheet - Prices'!$K$3:$K$85,D153)</f>
-        <v>66.546800001393905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154" s="24">
-        <v>44307</v>
+        <v>5</v>
+      </c>
+      <c r="B154" s="39">
+        <v>44269</v>
       </c>
       <c r="C154" s="27">
-        <v>2032</v>
+        <v>1</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E154">
-        <v>1475.3855233515972</v>
+        <v>1189.9230033613451</v>
       </c>
       <c r="F154">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G154" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A154,'Helping Sheet - Prices'!$K$3:$K$85,D154)</f>
-        <v>67.062978334163503</v>
+        <v>54.0874092436975</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" s="24">
-        <v>44369</v>
+        <v>5</v>
+      </c>
+      <c r="B155" s="39">
+        <v>44417</v>
       </c>
       <c r="C155" s="27">
-        <v>8</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E155">
-        <v>1462.6612001810972</v>
+        <v>1166</v>
       </c>
       <c r="F155">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G155" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A155,'Helping Sheet - Prices'!$K$3:$K$85,D155)</f>
-        <v>66.484600008231695</v>
+        <v>54.0874092436975</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="13">
-        <v>44304</v>
+      <c r="A156" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="38">
+        <v>44118</v>
       </c>
       <c r="C156" s="27">
-        <v>1346</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>6</v>
+        <v>211</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E156">
-        <v>1585.023500528235</v>
+        <v>1320</v>
       </c>
       <c r="F156">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G156" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A156,'Helping Sheet - Prices'!$K$3:$K$85,D156)</f>
-        <v>72.046522751283405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="24">
+        <v>44269</v>
+      </c>
+      <c r="C157" s="27">
+        <v>191</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157">
+        <v>1364</v>
+      </c>
+      <c r="F157">
         <v>17</v>
-      </c>
-      <c r="B157" s="24">
-        <v>44348</v>
-      </c>
-      <c r="C157" s="27">
-        <v>891</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E157">
-        <v>1517.2390583217868</v>
-      </c>
-      <c r="F157">
-        <v>15</v>
       </c>
       <c r="G157" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A157,'Helping Sheet - Prices'!$K$3:$K$85,D157)</f>
-        <v>68.965411741899402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="24">
-        <v>44273</v>
+      <c r="B158" s="13">
+        <v>44422</v>
       </c>
       <c r="C158" s="27">
-        <v>7231</v>
-      </c>
-      <c r="D158" s="24" t="s">
-        <v>6</v>
+        <v>1698</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E158">
-        <v>1497.3278216471563</v>
+        <v>1320</v>
       </c>
       <c r="F158">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G158" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A158,'Helping Sheet - Prices'!$K$3:$K$85,D158)</f>
-        <v>68.060355529416199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="23" t="s">
-        <v>41</v>
+      <c r="A159" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B159" s="24">
-        <v>44315</v>
+        <v>44115</v>
       </c>
       <c r="C159" s="27">
-        <v>135</v>
+        <v>2037</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E159">
-        <v>1561.4896000936938</v>
+        <v>1281.5822521170201</v>
       </c>
       <c r="F159">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G159" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A159,'Helping Sheet - Prices'!$K$3:$K$85,D159)</f>
-        <v>70.976800004258806</v>
+        <v>66.810770678146497</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" s="13">
-        <v>44287</v>
+        <v>5</v>
+      </c>
+      <c r="B160" s="24">
+        <v>44268</v>
       </c>
       <c r="C160" s="27">
-        <v>1840</v>
+        <v>2955</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>1484.069399976273</v>
+        <v>1302.8100282238568</v>
       </c>
       <c r="F160">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G160" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A160,'Helping Sheet - Prices'!$K$3:$K$85,D160)</f>
-        <v>67.457699998921498</v>
+        <v>66.810770678146497</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B161" s="13">
-        <v>44277</v>
+        <v>44411</v>
       </c>
       <c r="C161" s="27">
-        <v>3587</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>6</v>
+        <v>2004</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>1484.6612000168191</v>
+        <v>1267.5</v>
       </c>
       <c r="F161">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G161" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A161,'Helping Sheet - Prices'!$K$3:$K$85,D161)</f>
-        <v>67.484600000764502</v>
+        <v>66.810770678146497</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B162" s="32">
-        <v>44345</v>
+      <c r="A162" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="24">
+        <v>44114</v>
       </c>
       <c r="C162" s="27">
-        <v>355</v>
-      </c>
-      <c r="D162" s="25" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D162" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E162">
-        <v>1452</v>
+        <v>1479.1496742984655</v>
       </c>
       <c r="F162">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G162" s="32">
         <v>66</v>
@@ -4536,22 +4542,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B163" s="22">
-        <v>44408</v>
+        <v>5</v>
+      </c>
+      <c r="B163" s="24">
+        <v>44273</v>
       </c>
       <c r="C163" s="27">
-        <v>473</v>
-      </c>
-      <c r="D163" s="25" t="s">
+        <v>7231</v>
+      </c>
+      <c r="D163" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E163">
-        <v>1479.5</v>
+        <v>1497.3278216471563</v>
       </c>
       <c r="F163">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G163" s="24">
         <v>67.25</v>
@@ -4559,45 +4565,45 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B164" s="22">
-        <v>44390</v>
+        <v>5</v>
+      </c>
+      <c r="B164" s="13">
+        <v>44411</v>
       </c>
       <c r="C164" s="27">
-        <v>4038</v>
+        <v>1143</v>
       </c>
       <c r="D164" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E164">
-        <v>1430</v>
+        <v>1452</v>
       </c>
       <c r="F164">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G164" s="13">
         <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="23" t="s">
-        <v>19</v>
+      <c r="A165" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B165" s="24">
-        <v>44381</v>
+        <v>44117</v>
       </c>
       <c r="C165" s="27">
-        <v>998</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>6</v>
+        <v>4401</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>1474</v>
+        <v>1151.7303037585609</v>
       </c>
       <c r="F165">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G165" s="13">
         <v>67</v>
@@ -4605,22 +4611,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="13">
+        <v>33445</v>
+      </c>
+      <c r="C166" s="27">
+        <v>173</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>1071</v>
+      </c>
+      <c r="F166">
         <v>8</v>
-      </c>
-      <c r="B166" s="24">
-        <v>44404</v>
-      </c>
-      <c r="C166" s="27">
-        <v>757</v>
-      </c>
-      <c r="D166" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166">
-        <v>1433.7089799999999</v>
-      </c>
-      <c r="F166">
-        <v>22</v>
       </c>
       <c r="G166" s="13">
         <v>65.168589999999995</v>
@@ -4630,20 +4636,20 @@
       <c r="A167" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="13">
-        <v>44411</v>
+      <c r="B167" s="24">
+        <v>44276</v>
       </c>
       <c r="C167" s="27">
-        <v>1143</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>6</v>
+        <v>9063</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E167">
-        <v>1452</v>
+        <v>1170.7607892982999</v>
       </c>
       <c r="F167">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G167" s="24">
         <v>66</v>
@@ -4651,45 +4657,45 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B168" s="13">
-        <v>44371</v>
+        <v>44409</v>
       </c>
       <c r="C168" s="27">
-        <v>2504</v>
+        <v>460</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168">
-        <v>1496</v>
+        <v>1139</v>
       </c>
       <c r="F168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G168" s="13">
         <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" s="13">
-        <v>44395</v>
+      <c r="A169" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="24">
+        <v>44116</v>
       </c>
       <c r="C169" s="27">
-        <v>1105</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>6</v>
+        <v>1327</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E169">
-        <v>1452</v>
+        <v>1435.4122976854519</v>
       </c>
       <c r="F169">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G169" s="36">
         <v>66</v>
@@ -4697,22 +4703,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B170" s="13">
-        <v>44375</v>
+        <v>33445</v>
       </c>
       <c r="C170" s="27">
-        <v>1553</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E170">
-        <v>1496</v>
+        <v>1584</v>
       </c>
       <c r="F170">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G170" s="36">
         <v>68</v>
@@ -4720,45 +4726,45 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="13">
-        <v>44377</v>
+        <v>5</v>
+      </c>
+      <c r="B171" s="24">
+        <v>44267</v>
       </c>
       <c r="C171" s="27">
-        <v>3441</v>
-      </c>
-      <c r="D171" s="25" t="s">
-        <v>6</v>
+        <v>3993</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>1452</v>
+        <v>1492.0474203391855</v>
       </c>
       <c r="F171">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G171" s="36">
         <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="24">
-        <v>44101</v>
+      <c r="A172" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="13">
+        <v>44417</v>
       </c>
       <c r="C172" s="27">
-        <v>735</v>
-      </c>
-      <c r="D172" s="24" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>1134.6410967640254</v>
+        <v>1474</v>
       </c>
       <c r="F172">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G172" s="24">
         <v>66.743593927295606</v>
@@ -4766,68 +4772,68 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B173" s="24">
-        <v>44089</v>
+        <v>44204</v>
       </c>
       <c r="C173" s="27">
-        <v>1039</v>
+        <v>361</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E173">
-        <v>1140.2814138248398</v>
+        <v>1441.7571705226844</v>
       </c>
       <c r="F173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G173" s="24">
         <v>67.075377283814106</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B174" s="24">
-        <v>44109</v>
+      <c r="A174" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="13">
+        <v>33445</v>
       </c>
       <c r="C174" s="27">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>1164.2381996866543</v>
+        <v>1562</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G174" s="24">
         <v>68.484599981567897</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="37" t="s">
-        <v>8</v>
+      <c r="A175" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B175" s="24">
-        <v>44098</v>
+        <v>44268</v>
       </c>
       <c r="C175" s="27">
-        <v>2691</v>
+        <v>1229</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E175">
-        <v>1204.5879026222876</v>
+        <v>1464.349743625294</v>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G175" s="24">
         <v>70.858111918958102</v>
@@ -4835,19 +4841,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B176" s="24">
-        <v>44123</v>
+        <v>44204</v>
       </c>
       <c r="C176" s="27">
-        <v>31</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>1140.8105</v>
+        <v>1378.8505024233962</v>
       </c>
       <c r="F176">
         <v>4</v>
@@ -4857,159 +4863,161 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B177" s="13">
-        <v>111111</v>
+      <c r="A177" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="24">
+        <v>44269</v>
       </c>
       <c r="C177" s="27">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E177">
-        <v>1156</v>
+        <v>1450.3817668482625</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G177" s="24">
         <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="37" t="s">
+      <c r="A178" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="24">
-        <v>44117</v>
+      <c r="B178" s="13">
+        <v>44273</v>
       </c>
       <c r="C178" s="27">
-        <v>4401</v>
+        <v>2</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E178">
-        <v>1151.7303037585609</v>
+        <v>1375.8799999999999</v>
       </c>
       <c r="F178">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G178" s="24">
         <v>67.748841397562401</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="37" t="s">
-        <v>15</v>
+      <c r="A179" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B179" s="24">
-        <v>44108</v>
+        <v>44410</v>
       </c>
       <c r="C179" s="27">
-        <v>604</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E179">
-        <v>1164.2823999536834</v>
+        <v>1474</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G179" s="24">
         <v>68.487199997275496</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B180" s="24">
-        <v>44119</v>
+      <c r="A180" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" s="38">
+        <v>44181</v>
       </c>
       <c r="C180" s="27">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E180">
-        <v>1138.738199023039</v>
+        <v>1128.0874018628278</v>
       </c>
       <c r="F180">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G180" s="24">
         <v>66.984599942531702</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" s="24"/>
+      <c r="A181" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B181" s="39">
+        <v>44371</v>
+      </c>
       <c r="C181" s="27">
-        <v>302</v>
-      </c>
-      <c r="D181" s="24" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E181">
-        <v>1198.2382000737887</v>
+        <v>1254</v>
       </c>
       <c r="F181">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G181" s="24">
         <v>70.484600004340507</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B182" s="24">
-        <v>44107</v>
+      <c r="A182" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B182" s="38">
+        <v>44180</v>
       </c>
       <c r="C182" s="27">
-        <v>3052</v>
-      </c>
-      <c r="D182" s="24" t="s">
-        <v>7</v>
+        <v>695</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E182">
-        <v>1147.238200007808</v>
+        <v>1253.4873999824131</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G182" s="24">
         <v>67.484600000459295</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B183" s="24">
-        <v>44104</v>
+      <c r="A183" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B183" s="13">
+        <v>44371</v>
       </c>
       <c r="C183" s="27">
-        <v>569</v>
-      </c>
-      <c r="D183" s="24" t="s">
-        <v>7</v>
+        <v>884</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E183">
-        <v>1139.7955999752801</v>
+        <v>1386</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G183" s="24">
         <v>67.046799998545893</v>
@@ -5017,22 +5025,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B184" s="24">
-        <v>44192</v>
+        <v>44181</v>
       </c>
       <c r="C184" s="27">
-        <v>353</v>
+        <v>2267</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>1062.2823999584537</v>
+        <v>1241.4016147031168</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G184" s="24">
         <v>62.487199997556097</v>
@@ -5040,22 +5048,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" s="24">
-        <v>44221</v>
+        <v>36</v>
+      </c>
+      <c r="B185" s="13">
+        <v>44371</v>
       </c>
       <c r="C185" s="27">
-        <v>381</v>
-      </c>
-      <c r="D185" s="24" t="s">
-        <v>7</v>
+        <v>2825</v>
+      </c>
+      <c r="D185" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>1063.2956000191402</v>
+        <v>1306.5</v>
       </c>
       <c r="F185">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G185" s="24">
         <v>62.546800001125902</v>
@@ -5063,19 +5071,19 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B186" s="13">
-        <v>44197</v>
+        <v>36</v>
+      </c>
+      <c r="B186" s="24">
+        <v>44181</v>
       </c>
       <c r="C186" s="27">
-        <v>1202</v>
+        <v>2013</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>1072.2647999804126</v>
+        <v>1433.1112132184539</v>
       </c>
       <c r="F186">
         <v>11</v>
@@ -5086,22 +5094,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B187" s="13">
-        <v>44292</v>
+        <v>44371</v>
       </c>
       <c r="C187" s="27">
-        <v>59</v>
-      </c>
-      <c r="D187" s="24" t="s">
-        <v>7</v>
+        <v>2504</v>
+      </c>
+      <c r="D187" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>1037</v>
+        <v>1496</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G187" s="24">
         <v>61</v>
@@ -5109,22 +5117,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" s="13">
-        <v>44153</v>
+        <v>36</v>
+      </c>
+      <c r="B188" s="24">
+        <v>44180</v>
       </c>
       <c r="C188" s="27">
-        <v>1836</v>
-      </c>
-      <c r="D188" s="25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D188" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E188">
-        <v>1208.1312869691017</v>
+        <v>1124.6563698847121</v>
       </c>
       <c r="F188">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G188" s="24">
         <v>71.066546292300103</v>
@@ -5132,22 +5140,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189" s="13">
+        <v>44371</v>
+      </c>
+      <c r="C189" s="27">
+        <v>1477</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189">
+        <v>1173</v>
+      </c>
+      <c r="F189">
         <v>20</v>
-      </c>
-      <c r="B189" s="13">
-        <v>44213</v>
-      </c>
-      <c r="C189" s="27">
-        <v>6</v>
-      </c>
-      <c r="D189" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189">
-        <v>1072.8105028117761</v>
-      </c>
-      <c r="F189">
-        <v>10</v>
       </c>
       <c r="G189" s="24">
         <v>63.1065001653986</v>
@@ -5155,43 +5163,45 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B190" s="13">
-        <v>44215</v>
+        <v>36</v>
+      </c>
+      <c r="B190" s="24">
+        <v>44180</v>
       </c>
       <c r="C190" s="27">
-        <v>874</v>
-      </c>
-      <c r="D190" s="25" t="s">
-        <v>7</v>
+        <v>179</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E190">
-        <v>1119.8744033040578</v>
+        <v>1461.7634089257781</v>
       </c>
       <c r="F190">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G190" s="24">
         <v>65.874964900238695</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="24"/>
+      <c r="A191" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" s="13">
+        <v>44371</v>
+      </c>
       <c r="C191" s="27">
-        <v>173</v>
-      </c>
-      <c r="D191" s="24" t="s">
-        <v>7</v>
+        <v>258</v>
+      </c>
+      <c r="D191" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>1071</v>
+        <v>1518</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G191" s="24">
         <v>63</v>
@@ -5202,16 +5212,16 @@
         <v>36</v>
       </c>
       <c r="B192" s="24">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="C192" s="27">
-        <v>1122</v>
+        <v>16</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E192">
-        <v>1124.6563698847121</v>
+        <v>1443.567401975457</v>
       </c>
       <c r="F192">
         <v>11</v>
@@ -5222,352 +5232,352 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B193" s="13">
-        <v>44223</v>
+        <v>36</v>
+      </c>
+      <c r="B193" s="24">
+        <v>44181</v>
       </c>
       <c r="C193" s="27">
-        <v>559</v>
-      </c>
-      <c r="D193" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E193">
-        <v>1113.5</v>
+        <v>1436.0873905579408</v>
       </c>
       <c r="F193">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G193" s="24">
         <v>65.5</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" s="13">
-        <v>44228</v>
+      <c r="A194" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="38">
+        <v>44108</v>
       </c>
       <c r="C194" s="27">
-        <v>559</v>
+        <v>9</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E194">
-        <v>1122.3280999812678</v>
+        <v>1110.7184014286493</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G194" s="24">
         <v>66.019299998898106</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B195" s="24">
-        <v>44206</v>
+      <c r="A195" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="38">
+        <v>44108</v>
       </c>
       <c r="C195" s="27">
-        <v>32</v>
-      </c>
-      <c r="D195" s="24" t="s">
-        <v>7</v>
+        <v>165</v>
+      </c>
+      <c r="D195" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E195">
-        <v>1061.7809002819297</v>
+        <v>1308.7183997020188</v>
       </c>
       <c r="F195">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G195" s="24">
         <v>62.457700016584099</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B196" s="13">
-        <v>44176</v>
+      <c r="A196" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="24">
+        <v>44108</v>
       </c>
       <c r="C196" s="27">
-        <v>187</v>
+        <v>889</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>1123.8139001016925</v>
+        <v>1277.0003999947019</v>
       </c>
       <c r="F196">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G196" s="24">
         <v>66.106700005981907</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="23" t="s">
-        <v>9</v>
+      <c r="A197" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="B197" s="24">
-        <v>44174</v>
+        <v>44108</v>
       </c>
       <c r="C197" s="27">
-        <v>3705</v>
+        <v>1062</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>1062.2382000179434</v>
+        <v>1462.7184000128327</v>
       </c>
       <c r="F197">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G197" s="24">
         <v>62.484600001055497</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B198" s="13">
-        <v>44208</v>
+      <c r="A198" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="24">
+        <v>44108</v>
       </c>
       <c r="C198" s="27">
-        <v>335</v>
+        <v>604</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E198">
-        <v>1071.7956000495974</v>
+        <v>1164.2823999536834</v>
       </c>
       <c r="F198">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G198" s="24">
         <v>63.0468000029175</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="23" t="s">
-        <v>37</v>
+      <c r="A199" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="B199" s="24">
-        <v>44285</v>
+        <v>44108</v>
       </c>
       <c r="C199" s="27">
-        <v>935</v>
+        <v>88</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>1164.2824000354349</v>
+        <v>1550.7184003658203</v>
       </c>
       <c r="F199">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G199" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A199,'Helping Sheet - Prices'!$K$3:$K$85,D199)</f>
-        <v>68.487200002084407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="23" t="s">
-        <v>14</v>
+      <c r="A200" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="B200" s="24">
-        <v>44131</v>
+        <v>44108</v>
       </c>
       <c r="C200" s="27">
-        <v>1073</v>
+        <v>13</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E200">
-        <v>1139.7956000000001</v>
+        <v>1550.718400548526</v>
       </c>
       <c r="F200">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G200" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A200,'Helping Sheet - Prices'!$K$3:$K$85,D200)</f>
-        <v>67.046800000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" s="24">
-        <v>44369</v>
+        <v>28</v>
+      </c>
+      <c r="B201" s="38">
+        <v>44222</v>
       </c>
       <c r="C201" s="27">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E201">
-        <v>1147.238198390151</v>
+        <v>1145.0295996483937</v>
       </c>
       <c r="F201">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G201" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A201,'Helping Sheet - Prices'!$K$3:$K$85,D201)</f>
-        <v>67.484599905303</v>
+        <v>57.046800003702899</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="13">
-        <v>44303</v>
+        <v>28</v>
+      </c>
+      <c r="B202" s="38">
+        <v>44321</v>
       </c>
       <c r="C202" s="27">
-        <v>1271</v>
+        <v>81</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E202">
-        <v>1236.7054612818426</v>
+        <v>1255.0296000814637</v>
       </c>
       <c r="F202">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G202" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A202,'Helping Sheet - Prices'!$K$3:$K$85,D202)</f>
-        <v>72.747380075402504</v>
+        <v>57.046800003702899</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="24">
-        <v>44276</v>
+        <v>28</v>
+      </c>
+      <c r="B203" s="39">
+        <v>44222</v>
       </c>
       <c r="C203" s="27">
-        <v>9063</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>7</v>
+        <v>1011</v>
+      </c>
+      <c r="D203" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E203">
-        <v>1170.7607892982999</v>
+        <v>1266.0296000088463</v>
       </c>
       <c r="F203">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G203" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A203,'Helping Sheet - Prices'!$K$3:$K$85,D203)</f>
-        <v>68.868281723429405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204" s="13">
+        <v>44311</v>
+      </c>
+      <c r="C204" s="27">
+        <v>1377</v>
+      </c>
+      <c r="D204" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E204">
+        <v>1320</v>
+      </c>
+      <c r="F204">
         <v>16</v>
-      </c>
-      <c r="B204" s="24">
-        <v>44341</v>
-      </c>
-      <c r="C204" s="27">
-        <v>1118</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204">
-        <v>1209.3263658607832</v>
-      </c>
-      <c r="F204">
-        <v>19</v>
       </c>
       <c r="G204" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A204,'Helping Sheet - Prices'!$K$3:$K$85,D204)</f>
-        <v>71.136845050634307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="23" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B205" s="13">
-        <v>44299</v>
+        <v>44321</v>
       </c>
       <c r="C205" s="27">
-        <v>872</v>
+        <v>368</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>1163.7809000156792</v>
+        <v>1313.6465237551208</v>
       </c>
       <c r="F205">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G205" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A205,'Helping Sheet - Prices'!$K$3:$K$85,D205)</f>
-        <v>68.457700000922301</v>
+        <v>67.366488397698504</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="38">
+        <v>44263</v>
+      </c>
+      <c r="C206" s="27">
+        <v>200</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E206">
+        <v>1166</v>
+      </c>
+      <c r="F206">
         <v>9</v>
-      </c>
-      <c r="B206" s="13">
-        <v>44278</v>
-      </c>
-      <c r="C206" s="27">
-        <v>4871</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206">
-        <v>1164.238200012483</v>
-      </c>
-      <c r="F206">
-        <v>17</v>
       </c>
       <c r="G206" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A206,'Helping Sheet - Prices'!$K$3:$K$85,D206)</f>
-        <v>68.484600000734304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B207" s="32">
-        <v>44345</v>
+        <v>30</v>
+      </c>
+      <c r="B207" s="24">
+        <v>44418</v>
       </c>
       <c r="C207" s="27">
-        <v>306</v>
+        <v>1005</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>1156</v>
+        <v>1296.75</v>
       </c>
       <c r="F207">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G207" s="32">
         <v>68</v>
@@ -5575,22 +5585,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B208" s="22">
-        <v>44408</v>
+        <v>30</v>
+      </c>
+      <c r="B208" s="13">
+        <v>44223</v>
       </c>
       <c r="C208" s="27">
-        <v>609</v>
+        <v>432</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>1160.25</v>
+        <v>1422.0305525021704</v>
       </c>
       <c r="F208">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G208" s="24">
         <v>68.25</v>
@@ -5598,22 +5608,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" s="22">
-        <v>44391</v>
+        <v>30</v>
+      </c>
+      <c r="B209" s="13">
+        <v>44223</v>
       </c>
       <c r="C209" s="27">
-        <v>1017</v>
+        <v>559</v>
       </c>
       <c r="D209" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E209">
-        <v>1122</v>
+        <v>1113.5</v>
       </c>
       <c r="F209">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G209" s="13">
         <v>66</v>
@@ -5621,22 +5631,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B210" s="22">
-        <v>44415</v>
+        <v>41</v>
+      </c>
+      <c r="B210" s="39">
+        <v>44315</v>
       </c>
       <c r="C210" s="27">
-        <v>1282</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>7</v>
+        <v>72</v>
+      </c>
+      <c r="D210" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E210">
-        <v>1156</v>
+        <v>1299.0296008470771</v>
       </c>
       <c r="F210">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G210" s="13">
         <v>68</v>
@@ -5644,22 +5654,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B211" s="24">
-        <v>44405</v>
+        <v>41</v>
+      </c>
+      <c r="B211" s="13">
+        <v>44329</v>
       </c>
       <c r="C211" s="27">
-        <v>1698</v>
+        <v>495</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E211">
-        <v>1107.8660299999999</v>
+        <v>1320</v>
       </c>
       <c r="F211">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G211" s="13">
         <v>65.168589999999995</v>
@@ -5667,22 +5677,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="13">
-        <v>44409</v>
+        <v>41</v>
+      </c>
+      <c r="B212" s="24">
+        <v>44315</v>
       </c>
       <c r="C212" s="27">
-        <v>460</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="D212" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>1139</v>
+        <v>1357.5276000747804</v>
       </c>
       <c r="F212">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G212" s="24">
         <v>67</v>
@@ -5690,22 +5700,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B213" s="13">
-        <v>44371</v>
+        <v>41</v>
+      </c>
+      <c r="B213" s="24">
+        <v>44315</v>
       </c>
       <c r="C213" s="27">
-        <v>1477</v>
-      </c>
-      <c r="D213" s="25" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D213" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>1173</v>
+        <v>1561.4896000936938</v>
       </c>
       <c r="F213">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G213" s="13">
         <v>69</v>
@@ -5713,22 +5723,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B214" s="13">
-        <v>44395</v>
+        <v>16</v>
+      </c>
+      <c r="B214" s="39">
+        <v>44228</v>
       </c>
       <c r="C214" s="27">
-        <v>673</v>
+        <v>200</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E214">
-        <v>1139</v>
+        <v>1430.4246001163094</v>
       </c>
       <c r="F214">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G214" s="36">
         <v>67</v>
@@ -5736,22 +5746,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="23" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B215" s="13">
-        <v>44375</v>
+        <v>44228</v>
       </c>
       <c r="C215" s="27">
-        <v>881</v>
-      </c>
-      <c r="D215" s="25" t="s">
-        <v>7</v>
+        <v>432</v>
+      </c>
+      <c r="D215" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>1173</v>
+        <v>1430.4246001163094</v>
       </c>
       <c r="F215">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G215" s="36">
         <v>69</v>
@@ -5759,45 +5769,45 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B216" s="13">
-        <v>44378</v>
+        <v>44228</v>
       </c>
       <c r="C216" s="27">
-        <v>4547</v>
-      </c>
-      <c r="D216" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D216" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E216">
-        <v>1139</v>
+        <v>1122.3280999812678</v>
       </c>
       <c r="F216">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G216" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="37" t="s">
-        <v>14</v>
+      <c r="A217" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="B217" s="24">
-        <v>44102</v>
+        <v>44341</v>
       </c>
       <c r="C217" s="27">
-        <v>94</v>
+        <v>1118</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>1481.6255782647111</v>
+        <v>1209.3263658607832</v>
       </c>
       <c r="F217">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G217" s="24">
         <v>67.346617193850506</v>
@@ -5805,68 +5815,68 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218" s="24">
-        <v>44090</v>
+        <v>13</v>
+      </c>
+      <c r="B218" s="38">
+        <v>44119</v>
       </c>
       <c r="C218" s="27">
-        <v>887</v>
+        <v>123</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E218">
-        <v>1571.7233307888355</v>
+        <v>1110.6611988119889</v>
       </c>
       <c r="F218">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G218" s="24">
         <v>71.441969581310701</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B219" s="24">
-        <v>44109</v>
+      <c r="A219" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="39">
+        <v>44261</v>
       </c>
       <c r="C219" s="27">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E219">
-        <v>1528.6612000417142</v>
+        <v>1088.0693989035508</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G219" s="24">
         <v>69.484600001896098</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B220" s="24">
-        <v>44099</v>
+      <c r="A220" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="39">
+        <v>44299</v>
       </c>
       <c r="C220" s="27">
-        <v>1161</v>
+        <v>26</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E220">
-        <v>1524.5252</v>
+        <v>1220.0693986208134</v>
       </c>
       <c r="F220">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G220" s="24">
         <v>69.296599999999998</v>
@@ -5874,89 +5884,91 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B221" s="13">
-        <v>111111</v>
+        <v>13</v>
+      </c>
+      <c r="B221" s="38">
+        <v>44119</v>
       </c>
       <c r="C221" s="27">
-        <v>71</v>
-      </c>
-      <c r="D221" s="24" t="s">
-        <v>10</v>
+        <v>1031</v>
+      </c>
+      <c r="D221" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E221">
-        <v>1540</v>
+        <v>1286.6611999452575</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G221" s="24">
         <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="24">
-        <v>44116</v>
+      <c r="A222" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="39">
+        <v>44261</v>
       </c>
       <c r="C222" s="27">
-        <v>1327</v>
-      </c>
-      <c r="D222" s="24" t="s">
-        <v>10</v>
+        <v>1231</v>
+      </c>
+      <c r="D222" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E222">
-        <v>1435.4122976854519</v>
+        <v>1198.0694000953501</v>
       </c>
       <c r="F222">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G222" s="24">
         <v>65.246013531156905</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="24">
-        <v>44108</v>
+      <c r="A223" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="13">
+        <v>44299</v>
       </c>
       <c r="C223" s="27">
-        <v>88</v>
-      </c>
-      <c r="D223" s="24" t="s">
-        <v>10</v>
+        <v>346</v>
+      </c>
+      <c r="D223" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E223">
-        <v>1550.7184003658203</v>
+        <v>1320</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G223" s="24">
         <v>70.487200016628194</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B224" s="24"/>
+      <c r="A224" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="13">
+        <v>44395</v>
+      </c>
       <c r="C224" s="27">
-        <v>233</v>
-      </c>
-      <c r="D224" s="24" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="D224" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E224">
-        <v>1572.661199903662</v>
+        <v>1320</v>
       </c>
       <c r="F224">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G224" s="24">
         <v>71.484599995620997</v>
@@ -5964,68 +5976,68 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B225" s="24">
-        <v>44082</v>
+        <v>44119</v>
       </c>
       <c r="C225" s="27">
-        <v>841</v>
+        <v>1191</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>1506.6611999324753</v>
+        <v>1267.1997000098806</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G225" s="24">
         <v>68.484599996930697</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" s="24">
-        <v>44104</v>
+      <c r="A226" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="13">
+        <v>44261</v>
       </c>
       <c r="C226" s="27">
-        <v>73</v>
+        <v>1191</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>1519.0295998151187</v>
+        <v>1178.9251500606781</v>
       </c>
       <c r="F226">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G226" s="24">
         <v>69.046799991596302</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227" s="24">
-        <v>44123</v>
+      <c r="A227" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="13">
+        <v>44287</v>
       </c>
       <c r="C227" s="27">
-        <v>1</v>
-      </c>
-      <c r="D227" s="25" t="s">
-        <v>10</v>
+        <v>1540</v>
+      </c>
+      <c r="D227" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>1452</v>
+        <v>1295.9251500266644</v>
       </c>
       <c r="F227">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G227" s="24">
         <v>66</v>
@@ -6033,45 +6045,45 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B228" s="24">
-        <v>44192</v>
+        <v>13</v>
+      </c>
+      <c r="B228" s="13">
+        <v>44395</v>
       </c>
       <c r="C228" s="27">
-        <v>23</v>
-      </c>
-      <c r="D228" s="24" t="s">
-        <v>10</v>
+        <v>728</v>
+      </c>
+      <c r="D228" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>1396.7184008195197</v>
+        <v>1267.5</v>
       </c>
       <c r="F228">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G228" s="24">
         <v>63.487200037250901</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="23" t="s">
-        <v>14</v>
+      <c r="A229" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="B229" s="24">
-        <v>44191</v>
+        <v>44119</v>
       </c>
       <c r="C229" s="27">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>1409.0296000000001</v>
+        <v>1451.6611999138217</v>
       </c>
       <c r="F229">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G229" s="24">
         <v>64.046800000000005</v>
@@ -6079,19 +6091,19 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="23" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B230" s="13">
-        <v>44198</v>
+        <v>44206</v>
       </c>
       <c r="C230" s="27">
-        <v>523</v>
+        <v>221</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>1469.3553688672364</v>
+        <v>1352.0694000236126</v>
       </c>
       <c r="F230">
         <v>11</v>
@@ -6102,22 +6114,22 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B231" s="13">
-        <v>44292</v>
+        <v>44287</v>
       </c>
       <c r="C231" s="27">
-        <v>14</v>
+        <v>1840</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>1342</v>
+        <v>1484.069399976273</v>
       </c>
       <c r="F231">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G231" s="24">
         <v>61</v>
@@ -6125,43 +6137,45 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B232" s="13">
-        <v>44154</v>
+        <v>44395</v>
       </c>
       <c r="C232" s="27">
-        <v>797</v>
+        <v>1105</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>1602.4471819220655</v>
+        <v>1452</v>
       </c>
       <c r="F232">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G232" s="24">
         <v>72.8385082691848</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="23" t="s">
+      <c r="A233" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="24">
+        <v>44119</v>
+      </c>
+      <c r="C233" s="27">
+        <v>32</v>
+      </c>
+      <c r="D233" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233">
+        <v>1138.738199023039</v>
+      </c>
+      <c r="F233">
         <v>5</v>
-      </c>
-      <c r="B233" s="24"/>
-      <c r="C233" s="27">
-        <v>96</v>
-      </c>
-      <c r="D233" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E233">
-        <v>1584</v>
-      </c>
-      <c r="F233">
-        <v>8</v>
       </c>
       <c r="G233" s="24">
         <v>72</v>
@@ -6169,19 +6183,19 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="23" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B234" s="24">
-        <v>44180</v>
+        <v>44206</v>
       </c>
       <c r="C234" s="27">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E234">
-        <v>1461.7634089257781</v>
+        <v>1061.7809002819297</v>
       </c>
       <c r="F234">
         <v>11</v>
@@ -6192,22 +6206,22 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" s="24">
-        <v>44175</v>
+        <v>13</v>
+      </c>
+      <c r="B235" s="13">
+        <v>44299</v>
       </c>
       <c r="C235" s="27">
-        <v>1460</v>
+        <v>872</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>1396.6611999911472</v>
+        <v>1163.7809000156792</v>
       </c>
       <c r="F235">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G235" s="24">
         <v>63.484599999597599</v>
@@ -6215,22 +6229,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B236" s="13">
-        <v>44208</v>
+        <v>44395</v>
       </c>
       <c r="C236" s="27">
-        <v>17</v>
-      </c>
-      <c r="D236" s="24" t="s">
-        <v>10</v>
+        <v>673</v>
+      </c>
+      <c r="D236" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>1387.0296001257477</v>
+        <v>1139</v>
       </c>
       <c r="F236">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G236" s="24">
         <v>63.046800005715802</v>
@@ -6238,70 +6252,70 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B237" s="24">
-        <v>44285</v>
+        <v>13</v>
+      </c>
+      <c r="B237" s="13">
+        <v>44299</v>
       </c>
       <c r="C237" s="27">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D237" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E237">
-        <v>1550.7183998628541</v>
+        <v>1550.0694005588023</v>
       </c>
       <c r="F237">
         <v>13</v>
       </c>
       <c r="G237" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A237,'Helping Sheet - Prices'!$K$3:$K$85,D237)</f>
-        <v>70.487199993766097</v>
+        <v>70.457700025400101</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B238" s="24">
-        <v>44282</v>
+        <v>13</v>
+      </c>
+      <c r="B238" s="13">
+        <v>44395</v>
       </c>
       <c r="C238" s="27">
-        <v>348</v>
-      </c>
-      <c r="D238" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D238" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E238">
-        <v>1497.02960019956</v>
+        <v>1474</v>
       </c>
       <c r="F238">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G238" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A238,'Helping Sheet - Prices'!$K$3:$K$85,D238)</f>
-        <v>68.046800009070907</v>
+        <v>70.457700025400101</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B239" s="24">
-        <v>44370</v>
+        <v>13</v>
+      </c>
+      <c r="B239" s="13">
+        <v>44395</v>
       </c>
       <c r="C239" s="27">
-        <v>55</v>
-      </c>
-      <c r="D239" s="24" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D239" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E239">
         <v>1474</v>
       </c>
       <c r="F239">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G239" s="24">
         <v>67</v>
@@ -6309,118 +6323,118 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B240" s="13">
-        <v>44303</v>
+        <v>38</v>
+      </c>
+      <c r="B240" s="39">
+        <v>44176</v>
       </c>
       <c r="C240" s="27">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E240">
-        <v>1607.9405989281647</v>
+        <v>1126.3912126436771</v>
       </c>
       <c r="F240">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G240" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A240,'Helping Sheet - Prices'!$K$3:$K$85,D240)</f>
-        <v>73.088209042189305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="24">
-        <v>44267</v>
+        <v>38</v>
+      </c>
+      <c r="B241" s="39">
+        <v>44375</v>
       </c>
       <c r="C241" s="27">
-        <v>3993</v>
-      </c>
-      <c r="D241" s="24" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D241" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E241">
-        <v>1492.0474203391855</v>
+        <v>1254</v>
       </c>
       <c r="F241">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G241" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A241,'Helping Sheet - Prices'!$K$3:$K$85,D241)</f>
-        <v>67.820337288144799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B242" s="13">
-        <v>44299</v>
+        <v>38</v>
+      </c>
+      <c r="B242" s="39">
+        <v>44176</v>
       </c>
       <c r="C242" s="27">
-        <v>69</v>
-      </c>
-      <c r="D242" s="24" t="s">
-        <v>10</v>
+        <v>918</v>
+      </c>
+      <c r="D242" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E242">
-        <v>1550.0694005588023</v>
+        <v>1253.4874000486839</v>
       </c>
       <c r="F242">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G242" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A242,'Helping Sheet - Prices'!$K$3:$K$85,D242)</f>
-        <v>70.457700025400101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="23" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B243" s="13">
-        <v>44278</v>
+        <v>44375</v>
       </c>
       <c r="C243" s="27">
-        <v>1897</v>
-      </c>
-      <c r="D243" s="24" t="s">
-        <v>10</v>
+        <v>340</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E243">
-        <v>1550.6611999781078</v>
+        <v>1386</v>
       </c>
       <c r="F243">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G243" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A243,'Helping Sheet - Prices'!$K$3:$K$85,D243)</f>
-        <v>70.484599999004899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B244" s="32">
-        <v>44413</v>
+        <v>38</v>
+      </c>
+      <c r="B244" s="13">
+        <v>44176</v>
       </c>
       <c r="C244" s="27">
-        <v>47</v>
-      </c>
-      <c r="D244" s="25" t="s">
-        <v>10</v>
+        <v>3882</v>
+      </c>
+      <c r="D244" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>1540</v>
+        <v>1238.9763520231579</v>
       </c>
       <c r="F244">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G244" s="32">
         <v>70</v>
@@ -6428,22 +6442,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B245" s="22">
-        <v>44408</v>
+        <v>38</v>
+      </c>
+      <c r="B245" s="13">
+        <v>44375</v>
       </c>
       <c r="C245" s="27">
-        <v>265</v>
+        <v>1680</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>1512.5</v>
+        <v>1306.5</v>
       </c>
       <c r="F245">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G245" s="24">
         <v>68.75</v>
@@ -6451,22 +6465,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B246" s="24">
-        <v>44392</v>
+        <v>38</v>
+      </c>
+      <c r="B246" s="13">
+        <v>44176</v>
       </c>
       <c r="C246" s="27">
-        <v>131</v>
-      </c>
-      <c r="D246" s="25" t="s">
-        <v>10</v>
+        <v>1505</v>
+      </c>
+      <c r="D246" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E246">
-        <v>1419</v>
+        <v>1433.0074000312884</v>
       </c>
       <c r="F246">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G246" s="13">
         <v>64.5</v>
@@ -6474,22 +6488,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B247" s="22">
-        <v>44464</v>
+        <v>38</v>
+      </c>
+      <c r="B247" s="13">
+        <v>44375</v>
       </c>
       <c r="C247" s="27">
-        <v>321</v>
+        <v>1553</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E247">
         <v>1496</v>
       </c>
       <c r="F247">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G247" s="13">
         <v>68</v>
@@ -6497,22 +6511,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B248" s="22">
-        <v>44406</v>
+        <v>38</v>
+      </c>
+      <c r="B248" s="13">
+        <v>44176</v>
       </c>
       <c r="C248" s="27">
-        <v>1362</v>
-      </c>
-      <c r="D248" s="25" t="s">
-        <v>10</v>
+        <v>187</v>
+      </c>
+      <c r="D248" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>1433.7089799999999</v>
+        <v>1123.8139001016925</v>
       </c>
       <c r="F248">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G248" s="13">
         <v>65.168589999999995</v>
@@ -6520,19 +6534,19 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B249" s="13">
-        <v>44417</v>
+        <v>44375</v>
       </c>
       <c r="C249" s="27">
-        <v>46</v>
+        <v>881</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E249">
-        <v>1474</v>
+        <v>1173</v>
       </c>
       <c r="F249">
         <v>24</v>
@@ -6542,92 +6556,92 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="28" t="s">
-        <v>36</v>
+      <c r="A250" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="B250" s="13">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="C250" s="27">
-        <v>258</v>
-      </c>
-      <c r="D250" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D250" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E250">
         <v>1518</v>
       </c>
       <c r="F250">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G250" s="35">
         <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="23" t="s">
-        <v>13</v>
+      <c r="A251" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B251" s="13">
-        <v>44395</v>
+        <v>123123</v>
       </c>
       <c r="C251" s="27">
-        <v>91</v>
-      </c>
-      <c r="D251" s="25" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D251" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>1474</v>
+        <v>1296.4496989232471</v>
       </c>
       <c r="F251">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G251" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="23" t="s">
-        <v>38</v>
+      <c r="A252" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B252" s="13">
-        <v>44375</v>
+        <v>123123</v>
       </c>
       <c r="C252" s="27">
-        <v>170</v>
-      </c>
-      <c r="D252" s="25" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>1518</v>
+        <v>1506.6611998313986</v>
       </c>
       <c r="F252">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G252" s="36">
         <v>69</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="23" t="s">
-        <v>9</v>
+      <c r="A253" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B253" s="13">
-        <v>44378</v>
+        <v>123123</v>
       </c>
       <c r="C253" s="27">
-        <v>1728</v>
-      </c>
-      <c r="D253" s="25" t="s">
-        <v>10</v>
+        <v>302</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>1474</v>
+        <v>1198.2382000737887</v>
       </c>
       <c r="F253">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G253" s="36">
         <v>67</v>
@@ -6635,22 +6649,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254" s="24">
-        <v>44102</v>
+        <v>21</v>
+      </c>
+      <c r="B254" s="13">
+        <v>123123</v>
       </c>
       <c r="C254" s="27">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E254">
-        <v>1519.0295981308404</v>
+        <v>1572.661199903662</v>
       </c>
       <c r="F254">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G254" s="24">
         <v>69.046799915038207</v>
@@ -6658,22 +6672,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B255" s="24">
-        <v>44086</v>
+        <v>21</v>
+      </c>
+      <c r="B255" s="13">
+        <v>123123</v>
       </c>
       <c r="C255" s="27">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D255" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E255">
-        <v>1572.2238242496501</v>
+        <v>1572.6611998311391</v>
       </c>
       <c r="F255">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G255" s="24">
         <v>71.464719284075002</v>
@@ -6681,22 +6695,22 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B256" s="24">
-        <v>44109</v>
+        <v>21</v>
+      </c>
+      <c r="B256" s="13">
+        <v>123123</v>
       </c>
       <c r="C256" s="27">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>1528.6611989053372</v>
+        <v>1572.6612004374633</v>
       </c>
       <c r="F256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G256" s="24">
         <v>69.484599950242597</v>
@@ -6704,22 +6718,22 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B257" s="24">
-        <v>44096</v>
+        <v>21</v>
+      </c>
+      <c r="B257" s="13">
+        <v>123123</v>
       </c>
       <c r="C257" s="27">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E257">
-        <v>1524.5252</v>
+        <v>1572.6612022160666</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G257" s="24">
         <v>69.296599999999998</v>
@@ -6727,89 +6741,91 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="38">
+        <v>44083</v>
+      </c>
+      <c r="C258" s="27">
+        <v>146</v>
+      </c>
+      <c r="D258" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E258">
+        <v>1286.6611998164299</v>
+      </c>
+      <c r="F258">
         <v>5</v>
-      </c>
-      <c r="B258" s="24">
-        <v>44204</v>
-      </c>
-      <c r="C258" s="27">
-        <v>361</v>
-      </c>
-      <c r="D258" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258">
-        <v>1441.7571705226844</v>
-      </c>
-      <c r="F258">
-        <v>4</v>
       </c>
       <c r="G258" s="24">
         <v>65.5344168419402</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="24">
-        <v>44108</v>
+      <c r="A259" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B259" s="39">
+        <v>44175</v>
       </c>
       <c r="C259" s="27">
-        <v>13</v>
-      </c>
-      <c r="D259" s="24" t="s">
-        <v>18</v>
+        <v>503</v>
+      </c>
+      <c r="D259" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E259">
-        <v>1550.718400548526</v>
+        <v>1198.6611998098497</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G259" s="24">
         <v>70.487200024933003</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B260" s="24"/>
+      <c r="A260" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="13">
+        <v>44277</v>
+      </c>
       <c r="C260" s="27">
-        <v>112</v>
-      </c>
-      <c r="D260" s="24" t="s">
-        <v>18</v>
+        <v>186</v>
+      </c>
+      <c r="D260" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E260">
-        <v>1572.6611998311391</v>
+        <v>1320</v>
       </c>
       <c r="F260">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G260" s="24">
         <v>71.484599992324505</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" s="37" t="s">
+      <c r="A261" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B261" s="24">
-        <v>44083</v>
+        <v>44377</v>
       </c>
       <c r="C261" s="27">
-        <v>132</v>
-      </c>
-      <c r="D261" s="24" t="s">
-        <v>18</v>
+        <v>125</v>
+      </c>
+      <c r="D261" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E261">
-        <v>1506.6611996593365</v>
+        <v>1320</v>
       </c>
       <c r="F261">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G261" s="24">
         <v>68.484599984515299</v>
@@ -6817,22 +6833,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B262" s="24">
-        <v>44104</v>
+        <v>44083</v>
       </c>
       <c r="C262" s="27">
-        <v>2</v>
+        <v>1891</v>
       </c>
       <c r="D262" s="24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>1519.0296020174221</v>
+        <v>1276.9496999831538</v>
       </c>
       <c r="F262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G262" s="24">
         <v>69.046800091701002</v>
@@ -6840,22 +6856,22 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B263" s="24">
-        <v>44191</v>
+        <v>9</v>
+      </c>
+      <c r="B263" s="13">
+        <v>44174</v>
       </c>
       <c r="C263" s="27">
-        <v>8</v>
+        <v>1933</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>1409.0296003550977</v>
+        <v>1173.8074793282331</v>
       </c>
       <c r="F263">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G263" s="24">
         <v>64.046800016140807</v>
@@ -6863,22 +6879,22 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B264" s="24">
-        <v>44198</v>
+        <v>9</v>
+      </c>
+      <c r="B264" s="13">
+        <v>44277</v>
       </c>
       <c r="C264" s="27">
-        <v>157</v>
+        <v>1280</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E264">
-        <v>1467.2273849907124</v>
+        <v>1296.4497000155941</v>
       </c>
       <c r="F264">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G264" s="24">
         <v>66.692153863214202</v>
@@ -6886,43 +6902,45 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B265" s="13">
-        <v>44154</v>
+        <v>44377</v>
       </c>
       <c r="C265" s="27">
-        <v>213</v>
+        <v>1234</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>1570.5350387132164</v>
+        <v>1267.5</v>
       </c>
       <c r="F265">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G265" s="24">
         <v>71.387956305146204</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="24"/>
+      <c r="A266" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="24">
+        <v>44082</v>
+      </c>
       <c r="C266" s="27">
-        <v>54</v>
+        <v>3220</v>
       </c>
       <c r="D266" s="24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>1562</v>
+        <v>1462.6611999885708</v>
       </c>
       <c r="F266">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G266" s="24">
         <v>71</v>
@@ -6930,22 +6948,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="23" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B267" s="24">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="C267" s="27">
-        <v>16</v>
+        <v>3333</v>
       </c>
       <c r="D267" s="24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>1443.567401975457</v>
+        <v>1352.661199985469</v>
       </c>
       <c r="F267">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G267" s="24">
         <v>65.616700089793497</v>
@@ -6955,20 +6973,20 @@
       <c r="A268" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B268" s="24">
-        <v>44174</v>
+      <c r="B268" s="13">
+        <v>44277</v>
       </c>
       <c r="C268" s="27">
-        <v>309</v>
+        <v>3587</v>
       </c>
       <c r="D268" s="24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E268">
-        <v>1396.6611998849553</v>
+        <v>1484.6612000168191</v>
       </c>
       <c r="F268">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G268" s="24">
         <v>63.484599994770697</v>
@@ -6976,141 +6994,141 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B269" s="24">
-        <v>44282</v>
+        <v>9</v>
+      </c>
+      <c r="B269" s="13">
+        <v>44377</v>
       </c>
       <c r="C269" s="27">
-        <v>55</v>
-      </c>
-      <c r="D269" s="24" t="s">
-        <v>18</v>
+        <v>3441</v>
+      </c>
+      <c r="D269" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E269">
-        <v>1497.0295984939239</v>
+        <v>1452</v>
       </c>
       <c r="F269">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G269" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A269,'Helping Sheet - Prices'!$K$3:$K$85,D269)</f>
-        <v>68.046799931541997</v>
+        <v>67.484600000764502</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B270" s="13">
-        <v>44303</v>
+      <c r="A270" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" s="24">
+        <v>44107</v>
       </c>
       <c r="C270" s="27">
-        <v>36</v>
+        <v>3052</v>
       </c>
       <c r="D270" s="24" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E270">
-        <v>1519.6239314884629</v>
+        <v>1147.238200007808</v>
       </c>
       <c r="F270">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G270" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A270,'Helping Sheet - Prices'!$K$3:$K$85,D270)</f>
-        <v>69.073815067657407</v>
+        <v>68.484600000734304</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B271" s="24">
-        <v>44268</v>
+        <v>44174</v>
       </c>
       <c r="C271" s="27">
-        <v>1229</v>
+        <v>3705</v>
       </c>
       <c r="D271" s="24" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>1464.349743625294</v>
+        <v>1062.2382000179434</v>
       </c>
       <c r="F271">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G271" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A271,'Helping Sheet - Prices'!$K$3:$K$85,D271)</f>
-        <v>66.561351982967906</v>
+        <v>68.484600000734304</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B272" s="24">
-        <v>44277</v>
+      <c r="B272" s="13">
+        <v>44278</v>
       </c>
       <c r="C272" s="27">
-        <v>589</v>
+        <v>4871</v>
       </c>
       <c r="D272" s="24" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E272">
-        <v>1550.6611999637903</v>
+        <v>1164.238200012483</v>
       </c>
       <c r="F272">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G272" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A272,'Helping Sheet - Prices'!$K$3:$K$85,D272)</f>
-        <v>70.484599998354099</v>
+        <v>68.484600000734304</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B273" s="32">
-        <v>44413</v>
+        <v>9</v>
+      </c>
+      <c r="B273" s="13">
+        <v>44378</v>
       </c>
       <c r="C273" s="27">
-        <v>10</v>
+        <v>4547</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E273">
-        <v>1540</v>
+        <v>1139</v>
       </c>
       <c r="F273">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G273" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B274" s="22">
-        <v>44408</v>
+      <c r="A274" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="24">
+        <v>44082</v>
       </c>
       <c r="C274" s="27">
-        <v>89</v>
-      </c>
-      <c r="D274" s="25" t="s">
-        <v>18</v>
+        <v>841</v>
+      </c>
+      <c r="D274" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>1512.5</v>
+        <v>1506.6611999324753</v>
       </c>
       <c r="F274">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G274" s="24">
         <v>68.75</v>
@@ -7118,22 +7136,22 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B275" s="24">
-        <v>44424</v>
+        <v>44175</v>
       </c>
       <c r="C275" s="27">
-        <v>28</v>
-      </c>
-      <c r="D275" s="25" t="s">
-        <v>18</v>
+        <v>1460</v>
+      </c>
+      <c r="D275" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E275">
-        <v>1496</v>
+        <v>1396.6611999911472</v>
       </c>
       <c r="F275">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G275" s="13">
         <v>68</v>
@@ -7141,22 +7159,22 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" s="24">
-        <v>44404</v>
+        <v>9</v>
+      </c>
+      <c r="B276" s="13">
+        <v>44278</v>
       </c>
       <c r="C276" s="27">
-        <v>959</v>
-      </c>
-      <c r="D276" s="25" t="s">
-        <v>18</v>
+        <v>1897</v>
+      </c>
+      <c r="D276" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E276">
-        <v>1433.7089799999999</v>
+        <v>1550.6611999781078</v>
       </c>
       <c r="F276">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G276" s="13">
         <v>65.168589999999995</v>
@@ -7164,114 +7182,114 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B277" s="13">
-        <v>44395</v>
+        <v>44378</v>
       </c>
       <c r="C277" s="27">
-        <v>5</v>
+        <v>1728</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E277">
         <v>1474</v>
       </c>
       <c r="F277">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G277" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="23" t="s">
+      <c r="A278" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B278" s="24">
-        <v>44377</v>
+        <v>44083</v>
       </c>
       <c r="C278" s="27">
-        <v>690</v>
-      </c>
-      <c r="D278" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D278" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E278">
-        <v>1474</v>
+        <v>1506.6611996593365</v>
       </c>
       <c r="F278">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G278" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="37" t="s">
-        <v>3</v>
+      <c r="A279" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B279" s="24">
-        <v>44086</v>
+        <v>44174</v>
       </c>
       <c r="C279" s="27">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E279">
-        <v>1555.8572185410562</v>
+        <v>1396.6611998849553</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G279" s="24">
         <v>70.720782660957099</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="37" t="s">
-        <v>19</v>
+      <c r="A280" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B280" s="24">
-        <v>44109</v>
+        <v>44277</v>
       </c>
       <c r="C280" s="27">
-        <v>4</v>
+        <v>589</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E280">
-        <v>1528.6612068347467</v>
+        <v>1550.6611999637903</v>
       </c>
       <c r="F280">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G280" s="24">
         <v>69.484600310670302</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="37" t="s">
-        <v>8</v>
+      <c r="A281" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B281" s="24">
-        <v>44096</v>
+        <v>44377</v>
       </c>
       <c r="C281" s="27">
-        <v>26</v>
-      </c>
-      <c r="D281" s="24" t="s">
-        <v>26</v>
+        <v>690</v>
+      </c>
+      <c r="D281" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E281">
-        <v>1559.3529220619967</v>
+        <v>1474</v>
       </c>
       <c r="F281">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G281" s="24">
         <v>70.879678275545302</v>
@@ -7279,66 +7297,68 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="37" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B282" s="24">
-        <v>44204</v>
+        <v>44083</v>
       </c>
       <c r="C282" s="27">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D282" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E282">
-        <v>1378.8505024233962</v>
+        <v>1506.6612072033588</v>
       </c>
       <c r="F282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G282" s="24">
         <v>62.6750228374271</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B283" s="24"/>
+      <c r="A283" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="24">
+        <v>44174</v>
+      </c>
       <c r="C283" s="27">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D283" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E283">
-        <v>1572.6612004374633</v>
+        <v>1396.6611996141596</v>
       </c>
       <c r="F283">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G283" s="24">
         <v>71.484600019884695</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="37" t="s">
+      <c r="A284" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B284" s="24">
-        <v>44083</v>
+        <v>44278</v>
       </c>
       <c r="C284" s="27">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D284" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E284">
-        <v>1506.6612072033588</v>
+        <v>1550.661199572507</v>
       </c>
       <c r="F284">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G284" s="24">
         <v>68.484600327425397</v>
@@ -7346,22 +7366,22 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B285" s="24">
-        <v>44191</v>
+        <v>44378</v>
       </c>
       <c r="C285" s="27">
-        <v>2</v>
-      </c>
-      <c r="D285" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D285" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E285">
-        <v>1409.0296086956516</v>
+        <v>1474</v>
       </c>
       <c r="F285">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G285" s="24">
         <v>64.046800395256895</v>
@@ -7369,45 +7389,45 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="23" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B286" s="24">
-        <v>44154</v>
+        <v>12345</v>
       </c>
       <c r="C286" s="27">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E286">
-        <v>1575.121526175549</v>
+        <v>1199</v>
       </c>
       <c r="F286">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G286" s="24">
         <v>71.596433007979499</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B287" s="24">
-        <v>44181</v>
+      <c r="A287" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" s="38">
+        <v>44104</v>
       </c>
       <c r="C287" s="27">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E287">
-        <v>1436.0873905579408</v>
+        <v>1123.0295975162287</v>
       </c>
       <c r="F287">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G287" s="24">
         <v>65.276699570815495</v>
@@ -7415,140 +7435,140 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B288" s="24">
-        <v>44174</v>
+        <v>11</v>
+      </c>
+      <c r="B288" s="39">
+        <v>44208</v>
       </c>
       <c r="C288" s="27">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E288">
-        <v>1396.6611996141596</v>
+        <v>1057.0296034415326</v>
       </c>
       <c r="F288">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G288" s="24">
         <v>63.484599982461802</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B289" s="24">
-        <v>44282</v>
+      <c r="A289" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" s="38">
+        <v>44105</v>
       </c>
       <c r="C289" s="27">
+        <v>202</v>
+      </c>
+      <c r="D289" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E289">
+        <v>1299.0295999999998</v>
+      </c>
+      <c r="F289">
         <v>5</v>
-      </c>
-      <c r="D289" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E289">
-        <v>1497.0295637860088</v>
-      </c>
-      <c r="F289">
-        <v>18</v>
       </c>
       <c r="G289" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A289,'Helping Sheet - Prices'!$K$3:$K$85,D289)</f>
-        <v>68.046798353909494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B290" s="24">
-        <v>44269</v>
+        <v>11</v>
+      </c>
+      <c r="B290" s="13">
+        <v>44208</v>
       </c>
       <c r="C290" s="27">
-        <v>141</v>
-      </c>
-      <c r="D290" s="24" t="s">
-        <v>26</v>
+        <v>546</v>
+      </c>
+      <c r="D290" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E290">
-        <v>1450.3817668482625</v>
+        <v>1189.0295998292361</v>
       </c>
       <c r="F290">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G290" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A290,'Helping Sheet - Prices'!$K$3:$K$85,D290)</f>
-        <v>65.926443947648295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="23" t="s">
-        <v>9</v>
+      <c r="A291" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B291" s="24">
-        <v>44278</v>
+        <v>44104</v>
       </c>
       <c r="C291" s="27">
-        <v>153</v>
+        <v>1340</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E291">
-        <v>1550.661199572507</v>
+        <v>1278.1625999626615</v>
       </c>
       <c r="F291">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G291" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A291,'Helping Sheet - Prices'!$K$3:$K$85,D291)</f>
-        <v>70.484599980568504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B292" s="22">
-        <v>44405</v>
+        <v>11</v>
+      </c>
+      <c r="B292" s="13">
+        <v>44208</v>
       </c>
       <c r="C292" s="27">
-        <v>151</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>26</v>
+        <v>1715</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>1433.7089799999999</v>
+        <v>1190.4125999629384</v>
       </c>
       <c r="F292">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G292" s="13">
         <v>65.168589999999995</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="23" t="s">
-        <v>46</v>
+      <c r="A293" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B293" s="24">
-        <v>44408</v>
+        <v>44105</v>
       </c>
       <c r="C293" s="27">
-        <v>17</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>26</v>
+        <v>1534</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E293">
-        <v>1512.5</v>
+        <v>1453.0295999728255</v>
       </c>
       <c r="F293">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G293" s="36">
         <v>68.75</v>
@@ -7556,22 +7576,22 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="24">
-        <v>44378</v>
+        <v>11</v>
+      </c>
+      <c r="B294" s="13">
+        <v>44208</v>
       </c>
       <c r="C294" s="27">
-        <v>91</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>26</v>
+        <v>1278</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E294">
-        <v>1474</v>
+        <v>1376.0296000153494</v>
       </c>
       <c r="F294">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G294" s="36">
         <v>67</v>
@@ -7579,20 +7599,22 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B295" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B295" s="24">
+        <v>44104</v>
+      </c>
       <c r="C295" s="27">
-        <v>17</v>
+        <v>569</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E295">
-        <v>1572.6612022160666</v>
+        <v>1139.7955999752801</v>
       </c>
       <c r="F295">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G295" s="24">
         <v>71.484600100730304</v>
@@ -7600,45 +7622,45 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B296" s="13">
-        <v>44273</v>
+        <v>44208</v>
       </c>
       <c r="C296" s="27">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E296">
-        <v>1375.8799999999999</v>
+        <v>1071.7956000495974</v>
       </c>
       <c r="F296">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G296" s="24">
         <v>62.54</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B297" s="22">
-        <v>44408</v>
+      <c r="A297" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" s="24">
+        <v>44104</v>
       </c>
       <c r="C297" s="27">
+        <v>73</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297">
+        <v>1519.0295998151187</v>
+      </c>
+      <c r="F297">
         <v>4</v>
-      </c>
-      <c r="D297" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E297">
-        <v>1512.5</v>
-      </c>
-      <c r="F297">
-        <v>22</v>
       </c>
       <c r="G297" s="24">
         <v>68.75</v>
@@ -7646,52 +7668,56 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B298" s="22">
-        <v>44405</v>
+        <v>11</v>
+      </c>
+      <c r="B298" s="13">
+        <v>44208</v>
       </c>
       <c r="C298" s="27">
-        <v>101</v>
-      </c>
-      <c r="D298" s="25" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E298">
-        <v>1433.7089799999999</v>
+        <v>1387.0296001257477</v>
       </c>
       <c r="F298">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G298" s="13">
         <v>65.168589999999995</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="23" t="s">
-        <v>5</v>
+      <c r="A299" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B299" s="24">
-        <v>44410</v>
+        <v>44104</v>
       </c>
       <c r="C299" s="27">
-        <v>1</v>
-      </c>
-      <c r="D299" s="25" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E299">
-        <v>1474</v>
+        <v>1519.0296020174221</v>
       </c>
       <c r="F299">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G299" s="24">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F299"/>
+  <autoFilter ref="A1:F299">
+    <sortState ref="A2:F299">
+      <sortCondition ref="A1:A299"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/input_data/deliveries.xlsx
+++ b/input_data/deliveries.xlsx
@@ -22,6 +22,7 @@
     <sheet name="Helping Sheet - Prices" sheetId="5" r:id="rId8"/>
     <sheet name="Ark1" sheetId="10" r:id="rId9"/>
     <sheet name="Ark2" sheetId="11" r:id="rId10"/>
+    <sheet name="Ark3" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Delivery!$A$1:$F$299</definedName>
@@ -772,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,509 +812,509 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="40">
-        <v>44344</v>
+      <c r="A2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="38">
+        <v>44108</v>
       </c>
       <c r="C2" s="27">
-        <v>38</v>
-      </c>
-      <c r="D2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1298</v>
+        <v>1110.7184014286493</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G2" s="24">
         <v>51.046799974215197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="40">
-        <v>44344</v>
+      <c r="A3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38">
+        <v>44108</v>
       </c>
       <c r="C3" s="27">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E3">
-        <v>1408</v>
+        <v>1308.7183997020188</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G3" s="24">
         <v>51.076899918053201</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="32">
-        <v>44344</v>
+      <c r="A4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="24">
+        <v>44108</v>
       </c>
       <c r="C4" s="27">
-        <v>360</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1267.5</v>
+        <v>1277.0003999947019</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G4" s="24">
         <v>51.484599879523699</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="32">
-        <v>44345</v>
+      <c r="A5" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44108</v>
       </c>
       <c r="C5" s="27">
-        <v>355</v>
-      </c>
-      <c r="D5" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>1452</v>
+        <v>1462.7184000128327</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G5" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="32">
-        <v>44345</v>
+      <c r="A6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44108</v>
       </c>
       <c r="C6" s="27">
-        <v>306</v>
-      </c>
-      <c r="D6" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>1156</v>
+        <v>1164.2823999536834</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G6" s="24">
         <v>50.487200064938598</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="32">
-        <v>44413</v>
+      <c r="A7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="24">
+        <v>44108</v>
       </c>
       <c r="C7" s="27">
-        <v>47</v>
-      </c>
-      <c r="D7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>1540</v>
+        <v>1550.7184003658203</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G7" s="24">
         <v>50.484599945999499</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="32">
-        <v>44413</v>
+      <c r="A8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24">
+        <v>44108</v>
       </c>
       <c r="C8" s="27">
-        <v>10</v>
-      </c>
-      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>1540</v>
+        <v>1550.718400548526</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G8" s="24">
         <v>51.046799887101301</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="38">
-        <v>44233</v>
+      <c r="A9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24">
+        <v>44082</v>
       </c>
       <c r="C9" s="27">
-        <v>40</v>
+        <v>3220</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>1170.2595153355612</v>
+        <v>1462.6611999885708</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G9" s="24">
         <v>53.193614333434603</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="38">
-        <v>44192</v>
+      <c r="A10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>44082</v>
       </c>
       <c r="C10" s="27">
-        <v>23</v>
+        <v>841</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>1066.718431528662</v>
+        <v>1506.6611999324753</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="24">
         <v>48.487201433121001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>37</v>
+      <c r="A11" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="38">
-        <v>44285</v>
+        <v>44086</v>
       </c>
       <c r="C11" s="27">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1220.7183967188671</v>
+        <v>1123.6917981971703</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G11" s="24">
         <v>47.484600034337497</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="38">
-        <v>44192</v>
+      <c r="A12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="24">
+        <v>44086</v>
       </c>
       <c r="C12" s="27">
-        <v>518</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>68</v>
+        <v>312</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>1176.7183997319939</v>
+        <v>1572.2238242496501</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="24">
         <v>72.950733697408495</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>37</v>
+      <c r="A13" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="B13" s="24">
-        <v>44285</v>
+        <v>44086</v>
       </c>
       <c r="C13" s="27">
-        <v>510</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1320</v>
+        <v>1555.8572185410562</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G13" s="24">
         <v>51.276700084673998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="24">
-        <v>44192</v>
+      <c r="A14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="38">
+        <v>44096</v>
       </c>
       <c r="C14" s="27">
-        <v>2256</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E14">
-        <v>1179.2195176041266</v>
+        <v>1551.6077929576818</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="24">
         <v>52.046799984017902</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>37</v>
+      <c r="A15" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="24">
-        <v>44286</v>
+        <v>44096</v>
       </c>
       <c r="C15" s="27">
-        <v>3746</v>
+        <v>568</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>1296.5004000069616</v>
+        <v>1379.7730033722044</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G15" s="24">
         <v>49.457699950161398</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>37</v>
+      <c r="A16" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="24">
-        <v>44192</v>
+        <v>44096</v>
       </c>
       <c r="C16" s="27">
-        <v>1909</v>
+        <v>386</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>1352.0357563145797</v>
+        <v>1524.5252</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G16" s="24">
         <v>51.199600574712598</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>37</v>
+      <c r="A17" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="24">
-        <v>44285</v>
+        <v>44096</v>
       </c>
       <c r="C17" s="27">
-        <v>1598</v>
+        <v>26</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>1484.7184000124298</v>
+        <v>1559.3529220619967</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G17" s="24">
         <v>48.046800156433299</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>37</v>
+      <c r="A18" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="24">
-        <v>44192</v>
+        <v>44124</v>
       </c>
       <c r="C18" s="27">
-        <v>353</v>
+        <v>1005</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>1062.2823999584537</v>
+        <v>1345.5</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A18,'Helping Sheet - Prices'!$K$3:$K$85,D18)</f>
-        <v>68.487200002084407</v>
+        <v>67.634314920812798</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="24">
-        <v>44285</v>
+      <c r="A19" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="39">
+        <v>111111</v>
       </c>
       <c r="C19" s="27">
-        <v>935</v>
+        <v>1</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1164.2824000354349</v>
+        <v>1100</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G19" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A19,'Helping Sheet - Prices'!$K$3:$K$85,D19)</f>
-        <v>68.487200002084407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="24">
-        <v>44192</v>
+      <c r="A20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="39">
+        <v>111111</v>
       </c>
       <c r="C20" s="27">
-        <v>23</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>1396.7184008195197</v>
+        <v>1276</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20" s="24">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="24">
-        <v>44285</v>
+      <c r="A21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13">
+        <v>111111</v>
       </c>
       <c r="C21" s="27">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>1550.7183998628541</v>
+        <v>1267.5</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G21" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A21,'Helping Sheet - Prices'!$K$3:$K$85,D21)</f>
-        <v>70.487199993766097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="41">
-        <v>44408</v>
+      <c r="A22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13">
+        <v>111111</v>
       </c>
       <c r="C22" s="27">
-        <v>14</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>1232</v>
+        <v>1452</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G22" s="24">
         <v>48.771329999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="22">
-        <v>44408</v>
+      <c r="A23" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13">
+        <v>111111</v>
       </c>
       <c r="C23" s="27">
-        <v>106</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>68</v>
+        <v>257</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>132</v>
+        <v>1156</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G23" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A23,'Helping Sheet - Prices'!$K$3:$K$85,D23)</f>
@@ -1321,23 +1322,23 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="22">
-        <v>44408</v>
+      <c r="A24" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13">
+        <v>111111</v>
       </c>
       <c r="C24" s="27">
-        <v>351</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>1291.875</v>
+        <v>1540</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G24" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A24,'Helping Sheet - Prices'!$K$3:$K$85,D24)</f>
@@ -1345,23 +1346,23 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="22">
-        <v>44408</v>
+      <c r="A25" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="38">
+        <v>44087</v>
       </c>
       <c r="C25" s="27">
-        <v>473</v>
+        <v>1845</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>1479.5</v>
+        <v>1277.6866135083644</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G25" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A25,'Helping Sheet - Prices'!$K$3:$K$85,D25)</f>
@@ -1369,116 +1370,116 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="22">
-        <v>44408</v>
+      <c r="A26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="24">
+        <v>44085</v>
       </c>
       <c r="C26" s="27">
-        <v>609</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>7</v>
+        <v>5508</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>1160.25</v>
+        <v>1268.9896898190389</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G26" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A26,'Helping Sheet - Prices'!$K$3:$K$85,D26)</f>
-        <v>0</v>
+        <v>66.060518353638798</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="22">
-        <v>44408</v>
+      <c r="A27" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="38">
+        <v>44109</v>
       </c>
       <c r="C27" s="27">
-        <v>265</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>1512.5</v>
+        <v>1132.6611973495214</v>
       </c>
       <c r="F27">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G27" s="32">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44408</v>
+      <c r="A28" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="38">
+        <v>44109</v>
       </c>
       <c r="C28" s="27">
-        <v>89</v>
+        <v>573</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>1512.5</v>
+        <v>1330.661199952777</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G28" s="24">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>46</v>
+      <c r="A29" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="24">
-        <v>44408</v>
+        <v>44109</v>
       </c>
       <c r="C29" s="27">
-        <v>17</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>26</v>
+        <v>1374</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1512.5</v>
+        <v>1296.4497000000001</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="22">
-        <v>44408</v>
+      <c r="A30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="24">
+        <v>44109</v>
       </c>
       <c r="C30" s="27">
-        <v>4</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>31</v>
+        <v>714</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>1512.5</v>
+        <v>1484.6612000144341</v>
       </c>
       <c r="F30">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G30" s="13">
         <v>56</v>
@@ -1486,45 +1487,45 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="38">
-        <v>44102</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="24">
+        <v>44109</v>
       </c>
       <c r="C31" s="27">
+        <v>377</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>1123.0295994327344</v>
+        <v>1164.2381996866543</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="39">
-        <v>44282</v>
+      <c r="A32" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="24">
+        <v>44109</v>
       </c>
       <c r="C32" s="27">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>1189.0295999999998</v>
+        <v>1528.6612000417142</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13">
         <v>57</v>
@@ -1532,68 +1533,68 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="38">
-        <v>44101</v>
+        <v>19</v>
+      </c>
+      <c r="B33" s="24">
+        <v>44109</v>
       </c>
       <c r="C33" s="27">
-        <v>187</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>1297.5015324196113</v>
+        <v>1528.6611989053372</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="36">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="39">
-        <v>44221</v>
+      <c r="A34" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="24">
+        <v>44109</v>
       </c>
       <c r="C34" s="27">
-        <v>259</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>1181.8308751919735</v>
+        <v>1528.6612068347467</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G34" s="24">
         <v>67.959000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>14</v>
+      <c r="A35" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B35" s="24">
-        <v>44282</v>
+        <v>44097</v>
       </c>
       <c r="C35" s="27">
-        <v>118</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>68</v>
+        <v>1369</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>1342</v>
+        <v>1556.5985255104306</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G35" s="24">
         <v>53</v>
@@ -1601,68 +1602,68 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B36" s="24">
-        <v>44101</v>
+        <v>44117</v>
       </c>
       <c r="C36" s="27">
-        <v>1290</v>
+        <v>4401</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>1278.1625999684295</v>
+        <v>1151.7303037585609</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="24">
         <v>65.019300005286794</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="13">
-        <v>44221</v>
+      <c r="A37" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="24">
+        <v>44088</v>
       </c>
       <c r="C37" s="27">
-        <v>579</v>
+        <v>2001</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>1180.6625999801588</v>
+        <v>1453.6722371773139</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G37" s="32">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>14</v>
+      <c r="A38" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="B38" s="24">
-        <v>44131</v>
+        <v>44098</v>
       </c>
       <c r="C38" s="27">
-        <v>963</v>
+        <v>2691</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>1278.1626000000001</v>
+        <v>1204.5879026222876</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13">
         <v>48.771329999999999</v>
@@ -1670,68 +1671,68 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="24">
-        <v>44102</v>
+        <v>20</v>
+      </c>
+      <c r="B39" s="38">
+        <v>44123</v>
       </c>
       <c r="C39" s="27">
-        <v>1451</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>6</v>
+        <v>275</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E39">
-        <v>1452.0761212537798</v>
+        <v>1234.3430002003165</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G39" s="24">
         <v>58.977342382709601</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="13">
-        <v>44191</v>
+      <c r="A40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="24">
+        <v>44123</v>
       </c>
       <c r="C40" s="27">
-        <v>740</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>6</v>
+        <v>477</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>1354.0295999999998</v>
+        <v>1269.5767501204143</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G40" s="24">
         <v>58.076664250380198</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>14</v>
+      <c r="A41" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="B41" s="24">
-        <v>44282</v>
+        <v>44123</v>
       </c>
       <c r="C41" s="27">
-        <v>1212</v>
-      </c>
-      <c r="D41" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>1464.029600030666</v>
+        <v>1454.3430004096688</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G41" s="24">
         <v>60.4845999978535</v>
@@ -1739,68 +1740,68 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B42" s="24">
-        <v>44101</v>
+        <v>44123</v>
       </c>
       <c r="C42" s="27">
-        <v>735</v>
-      </c>
-      <c r="D42" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>1134.6410967640254</v>
+        <v>1140.8105</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42" s="24">
         <v>70.527626952621901</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>14</v>
+      <c r="A43" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="B43" s="24">
-        <v>44221</v>
+        <v>44123</v>
       </c>
       <c r="C43" s="27">
-        <v>381</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>1063.2956000191402</v>
+        <v>1452</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G43" s="24">
         <v>56.106500009105297</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>14</v>
+      <c r="A44" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B44" s="24">
-        <v>44131</v>
+        <v>44115</v>
       </c>
       <c r="C44" s="27">
-        <v>1073</v>
+        <v>2037</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>1139.7956000000001</v>
+        <v>1281.5822521170201</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G44" s="24">
         <v>58</v>
@@ -1808,68 +1809,68 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B45" s="24">
-        <v>44102</v>
+        <v>44114</v>
       </c>
       <c r="C45" s="27">
-        <v>94</v>
+        <v>4259</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>1481.6255782647111</v>
+        <v>1479.1496742984655</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G45" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>14</v>
+      <c r="A46" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B46" s="24">
-        <v>44191</v>
+        <v>44204</v>
       </c>
       <c r="C46" s="27">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>1409.0296000000001</v>
+        <v>1441.7571705226844</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G46" s="24">
         <v>59.487199986455401</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>14</v>
+      <c r="A47" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B47" s="24">
-        <v>44282</v>
+        <v>44204</v>
       </c>
       <c r="C47" s="27">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>1497.02960019956</v>
+        <v>1378.8505024233962</v>
       </c>
       <c r="F47">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G47" s="24">
         <v>58.484599997511701</v>
@@ -1877,114 +1878,114 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B48" s="24">
-        <v>44102</v>
+        <v>44107</v>
       </c>
       <c r="C48" s="27">
-        <v>4</v>
+        <v>3052</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>1519.0295981308404</v>
+        <v>1147.238200007808</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G48" s="24">
         <v>58.484599991655898</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="24">
-        <v>44191</v>
+      <c r="A49" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="38">
+        <v>44104</v>
       </c>
       <c r="C49" s="27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>1409.0296003550977</v>
+        <v>1123.0295975162287</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G49" s="24">
         <v>59.046799999999998</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
-        <v>14</v>
+      <c r="A50" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B50" s="24">
-        <v>44282</v>
+        <v>44104</v>
       </c>
       <c r="C50" s="27">
-        <v>55</v>
+        <v>1340</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>1497.0295984939239</v>
+        <v>1278.1625999626615</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G50" s="24">
         <v>53.487199987817903</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
-        <v>14</v>
+      <c r="A51" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B51" s="24">
-        <v>44191</v>
+        <v>44104</v>
       </c>
       <c r="C51" s="27">
-        <v>2</v>
+        <v>569</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>1409.0296086956516</v>
+        <v>1139.7955999752801</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G51" s="24">
         <v>53.7195852359988</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>14</v>
+      <c r="A52" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B52" s="24">
-        <v>44282</v>
+        <v>44104</v>
       </c>
       <c r="C52" s="27">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>1497.0295637860088</v>
+        <v>1519.0295998151187</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G52" s="24">
         <v>54.662746656080103</v>
@@ -1992,68 +1993,68 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="38">
-        <v>44086</v>
+        <v>11</v>
+      </c>
+      <c r="B53" s="24">
+        <v>44104</v>
       </c>
       <c r="C53" s="27">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>1123.6917981971703</v>
+        <v>1519.0296020174221</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="24">
         <v>53.984599981101098</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="39">
-        <v>44305</v>
+      <c r="A54" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="38">
+        <v>44101</v>
       </c>
       <c r="C54" s="27">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E54">
-        <v>1144</v>
+        <v>1297.5015324196113</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G54" s="24">
         <v>72.950733697408495</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="41">
-        <v>44388</v>
+      <c r="A55" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="24">
+        <v>44101</v>
       </c>
       <c r="C55" s="27">
-        <v>290</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>25</v>
+        <v>1290</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>1122</v>
+        <v>1278.1625999684295</v>
       </c>
       <c r="F55">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G55" s="24">
         <v>54.106499999999997</v>
@@ -2061,91 +2062,91 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="38">
-        <v>44087</v>
+        <v>14</v>
+      </c>
+      <c r="B56" s="24">
+        <v>44101</v>
       </c>
       <c r="C56" s="27">
-        <v>1845</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>68</v>
+        <v>735</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>1277.6866135083644</v>
+        <v>1134.6410967640254</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" s="24">
         <v>56.976699999200598</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="39">
-        <v>44194</v>
+      <c r="B57" s="24">
+        <v>44089</v>
       </c>
       <c r="C57" s="27">
-        <v>286</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>68</v>
+        <v>1039</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>1202.5804264337623</v>
+        <v>1140.2814138248398</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57" s="24">
         <v>57.546800000402101</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="13">
-        <v>44306</v>
+      <c r="A58" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="24">
+        <v>44099</v>
       </c>
       <c r="C58" s="27">
-        <v>864</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>68</v>
+        <v>1161</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>1342</v>
+        <v>1524.5252</v>
       </c>
       <c r="F58">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G58" s="24">
         <v>54.4577000043341</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="22">
-        <v>44389</v>
+      <c r="A59" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="38">
+        <v>44118</v>
       </c>
       <c r="C59" s="27">
-        <v>2312</v>
+        <v>211</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E59">
-        <v>1276</v>
+        <v>1320</v>
       </c>
       <c r="F59">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G59" s="24">
         <v>56.976700002212901</v>
@@ -2153,91 +2154,91 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" s="24">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="C60" s="27">
-        <v>5508</v>
+        <v>1327</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>1268.9896898190389</v>
+        <v>1435.4122976854519</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="24">
         <v>54.484599991356802</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="13">
-        <v>44195</v>
+      <c r="A61" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="38">
+        <v>44119</v>
       </c>
       <c r="C61" s="27">
-        <v>1364</v>
+        <v>123</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>1190.9507999725497</v>
+        <v>1110.6611988119889</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G61" s="24">
         <v>54.5</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="24">
-        <v>44310</v>
+      <c r="A62" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="38">
+        <v>44119</v>
       </c>
       <c r="C62" s="27">
-        <v>4180</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>4</v>
+        <v>1031</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E62">
-        <v>1288.1801078959566</v>
+        <v>1286.6611999452575</v>
       </c>
       <c r="F62">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G62" s="24">
         <v>54.046799992238</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="22">
-        <v>44379</v>
+      <c r="A63" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="24">
+        <v>44119</v>
       </c>
       <c r="C63" s="27">
-        <v>6655</v>
-      </c>
-      <c r="D63" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E63">
-        <v>1248</v>
+        <v>1267.1997000098806</v>
       </c>
       <c r="F63">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G63" s="24">
         <v>60</v>
@@ -2245,91 +2246,91 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="37" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B64" s="24">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="C64" s="27">
-        <v>2001</v>
+        <v>221</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E64">
-        <v>1453.6722371773139</v>
+        <v>1451.6611999138217</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64" s="24">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="13">
-        <v>44196</v>
+      <c r="A65" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="24">
+        <v>44119</v>
       </c>
       <c r="C65" s="27">
-        <v>1436</v>
+        <v>32</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>1365.6368000172458</v>
+        <v>1138.738199023039</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G65" s="24">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="24">
-        <v>44307</v>
+      <c r="A66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="13">
+        <v>123123</v>
       </c>
       <c r="C66" s="27">
-        <v>2032</v>
+        <v>49</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>1475.3855233515972</v>
+        <v>1296.4496989232471</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G66" s="24">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="22">
-        <v>44390</v>
+      <c r="A67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="13">
+        <v>123123</v>
       </c>
       <c r="C67" s="27">
-        <v>4038</v>
-      </c>
-      <c r="D67" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E67">
-        <v>1430</v>
+        <v>1506.6611998313986</v>
       </c>
       <c r="F67">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G67" s="24">
         <v>62</v>
@@ -2337,68 +2338,68 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="24">
-        <v>44089</v>
+        <v>21</v>
+      </c>
+      <c r="B68" s="13">
+        <v>123123</v>
       </c>
       <c r="C68" s="27">
-        <v>1039</v>
+        <v>302</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E68">
-        <v>1140.2814138248398</v>
+        <v>1198.2382000737887</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G68" s="24">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
-        <v>3</v>
+      <c r="A69" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B69" s="13">
-        <v>44197</v>
+        <v>123123</v>
       </c>
       <c r="C69" s="27">
-        <v>1202</v>
+        <v>233</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>1072.2647999804126</v>
+        <v>1572.661199903662</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G69" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="22">
-        <v>44391</v>
+      <c r="A70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="13">
+        <v>123123</v>
       </c>
       <c r="C70" s="27">
-        <v>1017</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>7</v>
+        <v>112</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>1122</v>
+        <v>1572.6611998311391</v>
       </c>
       <c r="F70">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G70" s="24">
         <v>60</v>
@@ -2406,68 +2407,68 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="24">
-        <v>44090</v>
+        <v>21</v>
+      </c>
+      <c r="B71" s="13">
+        <v>123123</v>
       </c>
       <c r="C71" s="27">
-        <v>887</v>
+        <v>52</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>1571.7233307888355</v>
+        <v>1572.6612004374633</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G71" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
-        <v>3</v>
+      <c r="A72" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B72" s="13">
-        <v>44198</v>
+        <v>123123</v>
       </c>
       <c r="C72" s="27">
-        <v>523</v>
+        <v>17</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>1469.3553688672364</v>
+        <v>1572.6612022160666</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G72" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="24">
-        <v>44392</v>
+      <c r="A73" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="38">
+        <v>44083</v>
       </c>
       <c r="C73" s="27">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E73">
-        <v>1419</v>
+        <v>1286.6611998164299</v>
       </c>
       <c r="F73">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G73" s="24">
         <v>6</v>
@@ -2475,45 +2476,45 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="37" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B74" s="24">
-        <v>44086</v>
+        <v>44083</v>
       </c>
       <c r="C74" s="27">
-        <v>312</v>
+        <v>1891</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>1572.2238242496501</v>
+        <v>1276.9496999831538</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="13">
         <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
-        <v>3</v>
+      <c r="A75" s="37" t="s">
+        <v>9</v>
       </c>
       <c r="B75" s="24">
-        <v>44198</v>
+        <v>44083</v>
       </c>
       <c r="C75" s="27">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>1467.2273849907124</v>
+        <v>1506.6611996593365</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G75" s="13">
         <v>62</v>
@@ -2521,22 +2522,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B76" s="24">
-        <v>44086</v>
+        <v>44083</v>
       </c>
       <c r="C76" s="27">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E76">
-        <v>1555.8572185410562</v>
+        <v>1506.6612072033588</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="24">
         <v>60</v>
@@ -2544,91 +2545,91 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B77" s="38">
-        <v>44109</v>
+        <v>44105</v>
       </c>
       <c r="C77" s="27">
-        <v>23</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>25</v>
+        <v>202</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E77">
-        <v>1132.6611973495214</v>
+        <v>1299.0295999999998</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13">
         <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="39">
-        <v>44292</v>
+      <c r="A78" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="24">
+        <v>44105</v>
       </c>
       <c r="C78" s="27">
-        <v>18</v>
+        <v>1534</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <v>1044.6612007554249</v>
+        <v>1453.0295999728255</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G78" s="36">
         <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="39">
-        <v>44370</v>
+      <c r="A79" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="38">
+        <v>44102</v>
       </c>
       <c r="C79" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E79">
-        <v>1220.6611981945018</v>
+        <v>1123.0295994327344</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G79" s="36">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="41">
-        <v>44425</v>
+      <c r="A80" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="24">
+        <v>44102</v>
       </c>
       <c r="C80" s="27">
-        <v>96</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>25</v>
+        <v>1451</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>1232</v>
+        <v>1452.0761212537798</v>
       </c>
       <c r="F80">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G80" s="36">
         <v>60</v>
@@ -2636,68 +2637,68 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="38">
-        <v>44109</v>
+        <v>14</v>
+      </c>
+      <c r="B81" s="24">
+        <v>44102</v>
       </c>
       <c r="C81" s="27">
-        <v>573</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>68</v>
+        <v>94</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>1330.661199952777</v>
+        <v>1481.6255782647111</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" s="24">
         <v>65.546799998381005</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="39">
-        <v>44292</v>
+      <c r="A82" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="24">
+        <v>44102</v>
       </c>
       <c r="C82" s="27">
-        <v>782</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>1187.6611995842241</v>
+        <v>1519.0295981308404</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G82" s="24">
         <v>65.076394349694297</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
-        <v>19</v>
+      <c r="A83" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="B83" s="24">
-        <v>44294</v>
+        <v>44090</v>
       </c>
       <c r="C83" s="27">
-        <v>239</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>68</v>
+        <v>887</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>1364</v>
+        <v>1571.7233307888355</v>
       </c>
       <c r="F83">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G83" s="24">
         <v>66.4846</v>
@@ -2705,45 +2706,45 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="22">
-        <v>44414</v>
+        <v>17</v>
+      </c>
+      <c r="B84" s="13">
+        <v>44224</v>
       </c>
       <c r="C84" s="27">
-        <v>903</v>
+        <v>1107</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>1364</v>
+        <v>1433.8536172906856</v>
       </c>
       <c r="F84">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G84" s="24">
         <v>70.757589916523301</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="24">
-        <v>44109</v>
+      <c r="A85" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="13">
+        <v>44215</v>
       </c>
       <c r="C85" s="27">
-        <v>1374</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>4</v>
+        <v>874</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>1296.4497000000001</v>
+        <v>1119.8744033040578</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85" s="24">
         <v>65.106500006175096</v>
@@ -2751,22 +2752,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="13">
-        <v>44292</v>
+        <v>38</v>
+      </c>
+      <c r="B86" s="39">
+        <v>44176</v>
       </c>
       <c r="C86" s="27">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E86">
-        <v>1179.4496988262599</v>
+        <v>1126.3912126436771</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G86" s="24">
         <v>69</v>
@@ -2774,22 +2775,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="24">
-        <v>44293</v>
+        <v>38</v>
+      </c>
+      <c r="B87" s="39">
+        <v>44176</v>
       </c>
       <c r="C87" s="27">
-        <v>669</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>4</v>
+        <v>918</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E87">
-        <v>1276.9496996488888</v>
+        <v>1253.4874000486839</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G87" s="24">
         <v>65</v>
@@ -2797,45 +2798,45 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" s="22">
-        <v>44380</v>
+        <v>38</v>
+      </c>
+      <c r="B88" s="13">
+        <v>44176</v>
       </c>
       <c r="C88" s="27">
-        <v>2170</v>
-      </c>
-      <c r="D88" s="25" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D88" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E88">
-        <v>1287</v>
+        <v>1238.9763520231579</v>
       </c>
       <c r="F88">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G88" s="24">
         <v>65.722166775231798</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B89" s="24">
-        <v>44109</v>
+      <c r="A89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="13">
+        <v>44176</v>
       </c>
       <c r="C89" s="27">
-        <v>714</v>
+        <v>1505</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E89">
-        <v>1484.6612000144341</v>
+        <v>1433.0074000312884</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89" s="24">
         <v>65.487199999728304</v>
@@ -2843,22 +2844,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B90" s="13">
-        <v>44292</v>
+        <v>44176</v>
       </c>
       <c r="C90" s="27">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>1352.6611797235021</v>
+        <v>1123.8139001016925</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G90" s="24">
         <v>64.984600000506703</v>
@@ -2866,22 +2867,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="24">
-        <v>44369</v>
+        <v>9</v>
+      </c>
+      <c r="B91" s="13">
+        <v>44174</v>
       </c>
       <c r="C91" s="27">
-        <v>8</v>
+        <v>1933</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E91">
-        <v>1462.6612001810972</v>
+        <v>1173.8074793282331</v>
       </c>
       <c r="F91">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G91" s="24">
         <v>66.484599944781905</v>
@@ -2889,45 +2890,45 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B92" s="24">
-        <v>44381</v>
+        <v>44174</v>
       </c>
       <c r="C92" s="27">
-        <v>998</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>6</v>
+        <v>3705</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E92">
-        <v>1474</v>
+        <v>1062.2382000179434</v>
       </c>
       <c r="F92">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G92" s="24">
         <v>65.484599999136094</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
-        <v>19</v>
+      <c r="A93" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B93" s="24">
-        <v>44109</v>
+        <v>44174</v>
       </c>
       <c r="C93" s="27">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E93">
-        <v>1164.2381996866543</v>
+        <v>1396.6611998849553</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" s="24">
         <v>65.546799998085206</v>
@@ -2935,22 +2936,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="24">
+        <v>44174</v>
+      </c>
+      <c r="C94" s="27">
         <v>19</v>
       </c>
-      <c r="B94" s="13">
-        <v>44292</v>
-      </c>
-      <c r="C94" s="27">
-        <v>59</v>
-      </c>
       <c r="D94" s="24" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>1037</v>
+        <v>1396.6611996141596</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G94" s="24">
         <v>60.472795774570599</v>
@@ -2958,22 +2959,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B95" s="24">
-        <v>44369</v>
+        <v>12345</v>
       </c>
       <c r="C95" s="27">
-        <v>72</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>7</v>
+        <v>202</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E95">
-        <v>1147.238198390151</v>
+        <v>1199</v>
       </c>
       <c r="F95">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G95" s="24">
         <v>60.5467999989825</v>
@@ -2981,42 +2982,42 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="22">
-        <v>44415</v>
+        <v>23</v>
+      </c>
+      <c r="B96" s="38">
+        <v>44233</v>
       </c>
       <c r="C96" s="27">
-        <v>1282</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E96">
-        <v>1156</v>
+        <v>1170.2595153355612</v>
       </c>
       <c r="F96">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G96" s="24">
         <v>61.074399998592298</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B97" s="24">
-        <v>44109</v>
+      <c r="A97" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="39">
+        <v>44194</v>
       </c>
       <c r="C97" s="27">
-        <v>136</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>10</v>
+        <v>286</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E97">
-        <v>1528.6612000417142</v>
+        <v>1202.5804264337623</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -3027,22 +3028,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="13">
-        <v>44292</v>
+        <v>8</v>
+      </c>
+      <c r="B98" s="39">
+        <v>44151</v>
       </c>
       <c r="C98" s="27">
-        <v>14</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E98">
-        <v>1342</v>
+        <v>1604.916141342987</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G98" s="24">
         <v>72.0368642025431</v>
@@ -3050,22 +3051,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" s="24">
-        <v>44370</v>
+        <v>8</v>
+      </c>
+      <c r="B99" s="39">
+        <v>44151</v>
       </c>
       <c r="C99" s="27">
-        <v>55</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>10</v>
+        <v>388</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E99">
-        <v>1474</v>
+        <v>1604.916141342987</v>
       </c>
       <c r="F99">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G99" s="24">
         <v>61.106499999999997</v>
@@ -3073,42 +3074,42 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="22">
-        <v>44464</v>
+        <v>8</v>
+      </c>
+      <c r="B100" s="13">
+        <v>44151</v>
       </c>
       <c r="C100" s="27">
-        <v>321</v>
+        <v>724</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>1496</v>
+        <v>1404.7188519495905</v>
       </c>
       <c r="F100">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G100" s="24">
         <v>63.661621266826501</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" s="24">
-        <v>44109</v>
+      <c r="A101" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="38">
+        <v>44226</v>
       </c>
       <c r="C101" s="27">
-        <v>23</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E101">
-        <v>1528.6611989053372</v>
+        <v>1495.098</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -3119,42 +3120,42 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="24">
-        <v>44424</v>
+        <v>5</v>
+      </c>
+      <c r="B102" s="13">
+        <v>33445</v>
       </c>
       <c r="C102" s="27">
-        <v>28</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>18</v>
+        <v>173</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>1496</v>
+        <v>1071</v>
       </c>
       <c r="F102">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G102" s="24">
         <v>63.537248821700402</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B103" s="24">
-        <v>44109</v>
+      <c r="A103" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="13">
+        <v>33445</v>
       </c>
       <c r="C103" s="27">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>1528.6612068347467</v>
+        <v>1584</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -3165,22 +3166,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="39">
-        <v>44151</v>
+        <v>5</v>
+      </c>
+      <c r="B104" s="13">
+        <v>33445</v>
       </c>
       <c r="C104" s="27">
-        <v>34</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E104">
-        <v>1604.916141342987</v>
+        <v>1562</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G104" s="24">
         <v>61.046799998099402</v>
@@ -3188,22 +3189,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="39">
-        <v>44302</v>
+        <v>30</v>
+      </c>
+      <c r="B105" s="13">
+        <v>44223</v>
       </c>
       <c r="C105" s="27">
-        <v>73</v>
+        <v>432</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>1072.9692600000001</v>
+        <v>1422.0305525021704</v>
       </c>
       <c r="F105">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G105" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A105,'Helping Sheet - Prices'!$K$3:$K$85,D105)</f>
@@ -3212,22 +3213,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="41">
-        <v>44405</v>
+        <v>30</v>
+      </c>
+      <c r="B106" s="13">
+        <v>44223</v>
       </c>
       <c r="C106" s="27">
-        <v>101</v>
+        <v>559</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>1072.9692600000001</v>
+        <v>1113.5</v>
       </c>
       <c r="F106">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G106" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A106,'Helping Sheet - Prices'!$K$3:$K$85,D106)</f>
@@ -3235,47 +3236,47 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="38">
-        <v>44096</v>
+      <c r="A107" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="39">
+        <v>44261</v>
       </c>
       <c r="C107" s="27">
-        <v>98</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>68</v>
+        <v>123</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E107">
-        <v>1551.6077929576818</v>
+        <v>1088.0693989035508</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A107,'Helping Sheet - Prices'!$K$3:$K$85,D107)</f>
-        <v>0</v>
+        <v>55.457699937309698</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B108" s="39">
-        <v>44151</v>
+        <v>44261</v>
       </c>
       <c r="C108" s="27">
-        <v>388</v>
+        <v>1231</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E108">
-        <v>1604.916141342987</v>
+        <v>1198.0694000953501</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G108" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A108,'Helping Sheet - Prices'!$K$3:$K$85,D108)</f>
@@ -3284,166 +3285,166 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B109" s="13">
-        <v>44302</v>
+        <v>44261</v>
       </c>
       <c r="C109" s="27">
-        <v>255</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>68</v>
+        <v>1191</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>1364</v>
+        <v>1178.9251500606781</v>
       </c>
       <c r="F109">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G109" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A109,'Helping Sheet - Prices'!$K$3:$K$85,D109)</f>
-        <v>0</v>
+        <v>66.4577000013674</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="24">
-        <v>44096</v>
+      <c r="A110" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="39">
+        <v>44221</v>
       </c>
       <c r="C110" s="27">
-        <v>568</v>
-      </c>
-      <c r="D110" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110">
+        <v>1181.8308751919735</v>
+      </c>
+      <c r="F110">
         <v>4</v>
-      </c>
-      <c r="E110">
-        <v>1379.7730033722044</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
       </c>
       <c r="G110" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A110,'Helping Sheet - Prices'!$K$3:$K$85,D110)</f>
-        <v>72.533433284094698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B111" s="13">
-        <v>44151</v>
+        <v>44221</v>
       </c>
       <c r="C111" s="27">
-        <v>724</v>
-      </c>
-      <c r="D111" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D111" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E111">
-        <v>1404.7188519495905</v>
+        <v>1180.6625999801588</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G111" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A111,'Helping Sheet - Prices'!$K$3:$K$85,D111)</f>
-        <v>72.533433284094698</v>
+        <v>65.546800000000005</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B112" s="13">
-        <v>44302</v>
+        <v>44191</v>
       </c>
       <c r="C112" s="27">
-        <v>821</v>
+        <v>740</v>
       </c>
       <c r="D112" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>1354.0295999999998</v>
+      </c>
+      <c r="F112">
         <v>4</v>
-      </c>
-      <c r="E112">
-        <v>1414.4019490398466</v>
-      </c>
-      <c r="F112">
-        <v>14</v>
       </c>
       <c r="G112" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A112,'Helping Sheet - Prices'!$K$3:$K$85,D112)</f>
-        <v>72.533433284094698</v>
+        <v>66.546800001393905</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="22">
-        <v>44406</v>
+        <v>14</v>
+      </c>
+      <c r="B113" s="24">
+        <v>44221</v>
       </c>
       <c r="C113" s="27">
-        <v>342</v>
-      </c>
-      <c r="D113" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>1063.2956000191402</v>
+      </c>
+      <c r="F113">
         <v>4</v>
-      </c>
-      <c r="E113">
-        <v>1270.7875049999998</v>
-      </c>
-      <c r="F113">
-        <v>24</v>
       </c>
       <c r="G113" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A113,'Helping Sheet - Prices'!$K$3:$K$85,D113)</f>
-        <v>72.533433284094698</v>
+        <v>67.046800000000005</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="37" t="s">
-        <v>8</v>
+      <c r="A114" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="B114" s="24">
-        <v>44097</v>
+        <v>44191</v>
       </c>
       <c r="C114" s="27">
-        <v>1369</v>
+        <v>67</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>1556.5985255104306</v>
+        <v>1409.0296000000001</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G114" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A114,'Helping Sheet - Prices'!$K$3:$K$85,D114)</f>
-        <v>72.046522751283405</v>
+        <v>68.046800009070907</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="24">
+        <v>44191</v>
+      </c>
+      <c r="C115" s="27">
         <v>8</v>
       </c>
-      <c r="B115" s="13">
-        <v>44152</v>
-      </c>
-      <c r="C115" s="27">
-        <v>1192</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>6</v>
+      <c r="D115" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>1548.1212592739828</v>
+        <v>1409.0296003550977</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G115" s="32">
         <v>65</v>
@@ -3451,22 +3452,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="13">
-        <v>44304</v>
+        <v>14</v>
+      </c>
+      <c r="B116" s="24">
+        <v>44191</v>
       </c>
       <c r="C116" s="27">
-        <v>1346</v>
+        <v>2</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>1585.023500528235</v>
+        <v>1409.0296086956516</v>
       </c>
       <c r="F116">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G116" s="24">
         <v>66.25</v>
@@ -3474,42 +3475,42 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="24">
-        <v>44404</v>
+        <v>3</v>
+      </c>
+      <c r="B117" s="13">
+        <v>44195</v>
       </c>
       <c r="C117" s="27">
-        <v>757</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>6</v>
+        <v>1364</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>1433.7089799999999</v>
+        <v>1190.9507999725497</v>
       </c>
       <c r="F117">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G117" s="13">
         <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="24">
-        <v>44098</v>
+      <c r="B118" s="13">
+        <v>44152</v>
       </c>
       <c r="C118" s="27">
-        <v>2691</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>7</v>
+        <v>1192</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E118">
-        <v>1204.5879026222876</v>
+        <v>1548.1212592739828</v>
       </c>
       <c r="F118">
         <v>4</v>
@@ -3520,22 +3521,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="13">
-        <v>44153</v>
+        <v>30</v>
+      </c>
+      <c r="B119" s="38">
+        <v>44263</v>
       </c>
       <c r="C119" s="27">
-        <v>1836</v>
+        <v>200</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E119">
-        <v>1208.1312869691017</v>
+        <v>1166</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G119" s="13">
         <v>65.168589999999995</v>
@@ -3543,22 +3544,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="13">
-        <v>44303</v>
+        <v>37</v>
+      </c>
+      <c r="B120" s="38">
+        <v>44192</v>
       </c>
       <c r="C120" s="27">
-        <v>1271</v>
+        <v>23</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E120">
-        <v>1236.7054612818426</v>
+        <v>1066.718431528662</v>
       </c>
       <c r="F120">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G120" s="24">
         <v>65</v>
@@ -3566,42 +3567,42 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="24">
-        <v>44405</v>
+        <v>37</v>
+      </c>
+      <c r="B121" s="38">
+        <v>44192</v>
       </c>
       <c r="C121" s="27">
-        <v>1698</v>
+        <v>518</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E121">
-        <v>1107.8660299999999</v>
+        <v>1176.7183997319939</v>
       </c>
       <c r="F121">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G121" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="37" t="s">
-        <v>8</v>
+      <c r="A122" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B122" s="24">
-        <v>44099</v>
+        <v>44192</v>
       </c>
       <c r="C122" s="27">
-        <v>1161</v>
+        <v>2256</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>1524.5252</v>
+        <v>1179.2195176041266</v>
       </c>
       <c r="F122">
         <v>5</v>
@@ -3612,22 +3613,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="13">
-        <v>44154</v>
+        <v>37</v>
+      </c>
+      <c r="B123" s="24">
+        <v>44192</v>
       </c>
       <c r="C123" s="27">
-        <v>797</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>10</v>
+        <v>1909</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E123">
-        <v>1602.4471819220655</v>
+        <v>1352.0357563145797</v>
       </c>
       <c r="F123">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G123" s="36">
         <v>65</v>
@@ -3635,22 +3636,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="13">
-        <v>44303</v>
+        <v>37</v>
+      </c>
+      <c r="B124" s="24">
+        <v>44192</v>
       </c>
       <c r="C124" s="27">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>1607.9405989281647</v>
+        <v>1062.2823999584537</v>
       </c>
       <c r="F124">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G124" s="36">
         <v>67</v>
@@ -3658,45 +3659,45 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="22">
-        <v>44406</v>
+        <v>37</v>
+      </c>
+      <c r="B125" s="24">
+        <v>44192</v>
       </c>
       <c r="C125" s="27">
-        <v>1362</v>
-      </c>
-      <c r="D125" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E125">
-        <v>1433.7089799999999</v>
+        <v>1396.7184008195197</v>
       </c>
       <c r="F125">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G125" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="24">
-        <v>44096</v>
+      <c r="A126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="13">
+        <v>44196</v>
       </c>
       <c r="C126" s="27">
-        <v>386</v>
+        <v>1436</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E126">
-        <v>1524.5252</v>
+        <v>1365.6368000172458</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G126" s="24">
         <v>66.003460056989994</v>
@@ -3704,22 +3705,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="13">
-        <v>44154</v>
+        <v>19</v>
+      </c>
+      <c r="B127" s="39">
+        <v>44292</v>
       </c>
       <c r="C127" s="27">
-        <v>213</v>
-      </c>
-      <c r="D127" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="D127" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E127">
-        <v>1570.5350387132164</v>
+        <v>1044.6612007554249</v>
       </c>
       <c r="F127">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G127" s="24">
         <v>66.076010780787001</v>
@@ -3727,22 +3728,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="13">
-        <v>44303</v>
+        <v>19</v>
+      </c>
+      <c r="B128" s="39">
+        <v>44292</v>
       </c>
       <c r="C128" s="27">
-        <v>36</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>18</v>
+        <v>782</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E128">
-        <v>1519.6239314884629</v>
+        <v>1187.6611995842241</v>
       </c>
       <c r="F128">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G128" s="24">
         <v>67.484600000656101</v>
@@ -3750,45 +3751,45 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="24">
-        <v>44404</v>
+        <v>19</v>
+      </c>
+      <c r="B129" s="13">
+        <v>44292</v>
       </c>
       <c r="C129" s="27">
-        <v>959</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>18</v>
+        <v>385</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>1433.7089799999999</v>
+        <v>1179.4496988262599</v>
       </c>
       <c r="F129">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G129" s="24">
         <v>70.754478432292302</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="24">
-        <v>44096</v>
+      <c r="A130" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="13">
+        <v>44292</v>
       </c>
       <c r="C130" s="27">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>1559.3529220619967</v>
+        <v>1352.6611797235021</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G130" s="24">
         <v>66.106500018621304</v>
@@ -3796,22 +3797,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="24">
-        <v>44154</v>
+        <v>19</v>
+      </c>
+      <c r="B131" s="13">
+        <v>44292</v>
       </c>
       <c r="C131" s="27">
-        <v>12</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>1575.121526175549</v>
+        <v>1037</v>
       </c>
       <c r="F131">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G131" s="24">
         <v>66</v>
@@ -3819,22 +3820,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="22">
-        <v>44405</v>
+        <v>19</v>
+      </c>
+      <c r="B132" s="13">
+        <v>44292</v>
       </c>
       <c r="C132" s="27">
-        <v>151</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>1433.7089799999999</v>
+        <v>1342</v>
       </c>
       <c r="F132">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G132" s="24">
         <v>67.234076104475704</v>
@@ -3844,43 +3845,43 @@
       <c r="A133" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="22">
-        <v>44405</v>
+      <c r="B133" s="13">
+        <v>44153</v>
       </c>
       <c r="C133" s="27">
-        <v>101</v>
+        <v>1836</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>1433.7089799999999</v>
+        <v>1208.1312869691017</v>
       </c>
       <c r="F133">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G133" s="24">
         <v>66.4872000005833</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="38">
-        <v>44123</v>
+      <c r="B134" s="39">
+        <v>44213</v>
       </c>
       <c r="C134" s="27">
-        <v>275</v>
+        <v>507</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E134">
-        <v>1234.3430002003165</v>
+        <v>1190.3429999999998</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G134" s="24">
         <v>65.984599996082807</v>
@@ -3890,43 +3891,43 @@
       <c r="A135" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B135" s="39">
+      <c r="B135" s="13">
         <v>44213</v>
       </c>
       <c r="C135" s="27">
-        <v>507</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>68</v>
+        <v>528</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>1190.3429999999998</v>
+        <v>1191.5767499999999</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G135" s="24">
         <v>68.4845999923363</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="24">
-        <v>44123</v>
+      <c r="B136" s="13">
+        <v>44213</v>
       </c>
       <c r="C136" s="27">
-        <v>477</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E136">
-        <v>1269.5767501204143</v>
+        <v>1355.3429999999998</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G136" s="24">
         <v>66.484599999480494</v>
@@ -3940,39 +3941,39 @@
         <v>44213</v>
       </c>
       <c r="C137" s="27">
-        <v>528</v>
+        <v>6</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>1191.5767499999999</v>
+        <v>1072.8105028117761</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G137" s="24">
         <v>66.046799998764797</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" s="24">
-        <v>44123</v>
+      <c r="A138" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="38">
+        <v>44222</v>
       </c>
       <c r="C138" s="27">
-        <v>141</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E138">
-        <v>1454.3430004096688</v>
+        <v>1145.0295996483937</v>
       </c>
       <c r="F138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G138" s="24">
         <v>61.456170741571803</v>
@@ -3980,45 +3981,45 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="13">
-        <v>44213</v>
+        <v>28</v>
+      </c>
+      <c r="B139" s="39">
+        <v>44222</v>
       </c>
       <c r="C139" s="27">
-        <v>84</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>6</v>
+        <v>1011</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E139">
-        <v>1355.3429999999998</v>
+        <v>1266.0296000088463</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G139" s="24">
         <v>61.546799999999998</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="24">
-        <v>44123</v>
+      <c r="A140" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="39">
+        <v>44228</v>
       </c>
       <c r="C140" s="27">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E140">
-        <v>1140.8105</v>
+        <v>1430.4246001163094</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G140" s="24">
         <v>62.074400000783903</v>
@@ -4026,45 +4027,45 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B141" s="13">
-        <v>44213</v>
+        <v>44228</v>
       </c>
       <c r="C141" s="27">
+        <v>432</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="E141">
-        <v>1072.8105028117761</v>
+        <v>1430.4246001163094</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G141" s="24">
         <v>61.484599078340999</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" s="24">
-        <v>44123</v>
+      <c r="A142" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="13">
+        <v>44228</v>
       </c>
       <c r="C142" s="27">
-        <v>1</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>10</v>
+        <v>559</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>1452</v>
+        <v>1122.3280999812678</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G142" s="24">
         <v>70.369148148817402</v>
@@ -4072,45 +4073,45 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="38">
-        <v>44226</v>
+        <v>9</v>
+      </c>
+      <c r="B143" s="39">
+        <v>44175</v>
       </c>
       <c r="C143" s="27">
-        <v>200</v>
+        <v>503</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E143">
-        <v>1495.098</v>
+        <v>1198.6611998098497</v>
       </c>
       <c r="F143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G143" s="24">
         <v>61.606499999999997</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="37" t="s">
-        <v>17</v>
+      <c r="A144" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B144" s="24">
-        <v>44124</v>
+        <v>44175</v>
       </c>
       <c r="C144" s="27">
-        <v>1005</v>
+        <v>3333</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>1345.5</v>
+        <v>1352.661199985469</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G144" s="24">
         <v>65.175164422303894</v>
@@ -4118,22 +4119,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" s="13">
-        <v>44224</v>
+        <v>9</v>
+      </c>
+      <c r="B145" s="24">
+        <v>44175</v>
       </c>
       <c r="C145" s="27">
-        <v>1107</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>6</v>
+        <v>1460</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E145">
-        <v>1433.8536172906856</v>
+        <v>1396.6611999911472</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G145" s="24">
         <v>65.141418782656999</v>
@@ -4141,22 +4142,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" s="24">
-        <v>44348</v>
+        <v>3</v>
+      </c>
+      <c r="B146" s="13">
+        <v>44197</v>
       </c>
       <c r="C146" s="27">
-        <v>891</v>
+        <v>1202</v>
       </c>
       <c r="D146" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <v>1072.2647999804126</v>
+      </c>
+      <c r="F146">
         <v>6</v>
-      </c>
-      <c r="E146">
-        <v>1517.2390583217868</v>
-      </c>
-      <c r="F146">
-        <v>15</v>
       </c>
       <c r="G146" s="24">
         <v>64.637752386462296</v>
@@ -4164,137 +4165,137 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B147" s="13">
-        <v>44215</v>
+        <v>44198</v>
       </c>
       <c r="C147" s="27">
-        <v>874</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>7</v>
+        <v>523</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>1119.8744033040578</v>
+        <v>1469.3553688672364</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G147" s="24">
         <v>65.019300005286794</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B148" s="39">
-        <v>111111</v>
+      <c r="A148" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="13">
+        <v>44154</v>
       </c>
       <c r="C148" s="27">
-        <v>1</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>25</v>
+        <v>797</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>1100</v>
+        <v>1602.4471819220655</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G148" s="24">
         <v>61.457700001073299</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B149" s="39">
-        <v>111111</v>
+      <c r="A149" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="13">
+        <v>44154</v>
       </c>
       <c r="C149" s="27">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E149">
-        <v>1276</v>
+        <v>1570.5350387132164</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G149" s="24">
         <v>65.136700001422199</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" s="13">
-        <v>111111</v>
+      <c r="A150" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="24">
+        <v>44154</v>
       </c>
       <c r="C150" s="27">
-        <v>65</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E150">
-        <v>1267.5</v>
+        <v>1575.121526175549</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G150" s="24">
         <v>61.484599999339501</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" s="13">
-        <v>111111</v>
+      <c r="A151" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" s="38">
+        <v>44181</v>
       </c>
       <c r="C151" s="27">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D151" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>1128.0874018628278</v>
+      </c>
+      <c r="F151">
         <v>6</v>
-      </c>
-      <c r="E151">
-        <v>1452</v>
-      </c>
-      <c r="F151">
-        <v>2</v>
       </c>
       <c r="G151" s="24">
         <v>62.546800000697701</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B152" s="13">
-        <v>111111</v>
+      <c r="A152" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B152" s="38">
+        <v>44180</v>
       </c>
       <c r="C152" s="27">
-        <v>257</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>7</v>
+        <v>695</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E152">
-        <v>1156</v>
+        <v>1253.4873999824131</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G152" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A152,'Helping Sheet - Prices'!$K$3:$K$85,D152)</f>
@@ -4302,23 +4303,23 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" s="13">
-        <v>111111</v>
+      <c r="A153" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" s="24">
+        <v>44181</v>
       </c>
       <c r="C153" s="27">
-        <v>71</v>
+        <v>2267</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>1540</v>
+        <v>1241.4016147031168</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G153" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A153,'Helping Sheet - Prices'!$K$3:$K$85,D153)</f>
@@ -4327,70 +4328,70 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="39">
-        <v>44269</v>
+        <v>36</v>
+      </c>
+      <c r="B154" s="24">
+        <v>44181</v>
       </c>
       <c r="C154" s="27">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>1189.9230033613451</v>
+        <v>1433.1112132184539</v>
       </c>
       <c r="F154">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G154" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A154,'Helping Sheet - Prices'!$K$3:$K$85,D154)</f>
-        <v>54.0874092436975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="39">
-        <v>44417</v>
+        <v>36</v>
+      </c>
+      <c r="B155" s="24">
+        <v>44180</v>
       </c>
       <c r="C155" s="27">
-        <v>91</v>
-      </c>
-      <c r="D155" s="25" t="s">
-        <v>25</v>
+        <v>1122</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>1166</v>
+        <v>1124.6563698847121</v>
       </c>
       <c r="F155">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G155" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A155,'Helping Sheet - Prices'!$K$3:$K$85,D155)</f>
-        <v>54.0874092436975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="38">
-        <v>44118</v>
+      <c r="A156" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="24">
+        <v>44180</v>
       </c>
       <c r="C156" s="27">
-        <v>211</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>68</v>
+        <v>179</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>1320</v>
+        <v>1461.7634089257781</v>
       </c>
       <c r="F156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G156" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A156,'Helping Sheet - Prices'!$K$3:$K$85,D156)</f>
@@ -4399,22 +4400,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B157" s="24">
-        <v>44269</v>
+        <v>44181</v>
       </c>
       <c r="C157" s="27">
-        <v>191</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E157">
-        <v>1364</v>
+        <v>1443.567401975457</v>
       </c>
       <c r="F157">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G157" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A157,'Helping Sheet - Prices'!$K$3:$K$85,D157)</f>
@@ -4423,22 +4424,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="13">
-        <v>44422</v>
+        <v>36</v>
+      </c>
+      <c r="B158" s="24">
+        <v>44181</v>
       </c>
       <c r="C158" s="27">
-        <v>1698</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>1320</v>
+        <v>1436.0873905579408</v>
       </c>
       <c r="F158">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G158" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A158,'Helping Sheet - Prices'!$K$3:$K$85,D158)</f>
@@ -4446,95 +4447,95 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="24">
-        <v>44115</v>
+      <c r="A159" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="13">
+        <v>44206</v>
       </c>
       <c r="C159" s="27">
-        <v>2037</v>
+        <v>221</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>1281.5822521170201</v>
+        <v>1352.0694000236126</v>
       </c>
       <c r="F159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G159" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A159,'Helping Sheet - Prices'!$K$3:$K$85,D159)</f>
-        <v>66.810770678146497</v>
+        <v>67.457699998921498</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B160" s="24">
-        <v>44268</v>
+        <v>44206</v>
       </c>
       <c r="C160" s="27">
-        <v>2955</v>
+        <v>32</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>1302.8100282238568</v>
+        <v>1061.7809002819297</v>
       </c>
       <c r="F160">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G160" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A160,'Helping Sheet - Prices'!$K$3:$K$85,D160)</f>
-        <v>66.810770678146497</v>
+        <v>68.457700000922301</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="13">
-        <v>44411</v>
+        <v>11</v>
+      </c>
+      <c r="B161" s="39">
+        <v>44208</v>
       </c>
       <c r="C161" s="27">
-        <v>2004</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E161">
-        <v>1267.5</v>
+        <v>1057.0296034415326</v>
       </c>
       <c r="F161">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G161" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A161,'Helping Sheet - Prices'!$K$3:$K$85,D161)</f>
-        <v>66.810770678146497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="24">
-        <v>44114</v>
+      <c r="A162" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="13">
+        <v>44208</v>
       </c>
       <c r="C162" s="27">
-        <v>4259</v>
-      </c>
-      <c r="D162" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162">
+        <v>1189.0295998292361</v>
+      </c>
+      <c r="F162">
         <v>6</v>
-      </c>
-      <c r="E162">
-        <v>1479.1496742984655</v>
-      </c>
-      <c r="F162">
-        <v>4</v>
       </c>
       <c r="G162" s="32">
         <v>66</v>
@@ -4542,22 +4543,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="24">
-        <v>44273</v>
+        <v>11</v>
+      </c>
+      <c r="B163" s="13">
+        <v>44208</v>
       </c>
       <c r="C163" s="27">
-        <v>7231</v>
+        <v>1715</v>
       </c>
       <c r="D163" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>1190.4125999629384</v>
+      </c>
+      <c r="F163">
         <v>6</v>
-      </c>
-      <c r="E163">
-        <v>1497.3278216471563</v>
-      </c>
-      <c r="F163">
-        <v>13</v>
       </c>
       <c r="G163" s="24">
         <v>67.25</v>
@@ -4565,45 +4566,45 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B164" s="13">
-        <v>44411</v>
+        <v>44208</v>
       </c>
       <c r="C164" s="27">
-        <v>1143</v>
-      </c>
-      <c r="D164" s="25" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D164" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E164">
-        <v>1452</v>
+        <v>1376.0296000153494</v>
       </c>
       <c r="F164">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G164" s="13">
         <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="24">
-        <v>44117</v>
+      <c r="A165" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="13">
+        <v>44208</v>
       </c>
       <c r="C165" s="27">
-        <v>4401</v>
+        <v>335</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E165">
-        <v>1151.7303037585609</v>
+        <v>1071.7956000495974</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G165" s="13">
         <v>67</v>
@@ -4611,22 +4612,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B166" s="13">
-        <v>33445</v>
+        <v>44208</v>
       </c>
       <c r="C166" s="27">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>1071</v>
+        <v>1387.0296001257477</v>
       </c>
       <c r="F166">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G166" s="13">
         <v>65.168589999999995</v>
@@ -4634,22 +4635,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="24">
-        <v>44276</v>
+        <v>37</v>
+      </c>
+      <c r="B167" s="38">
+        <v>44285</v>
       </c>
       <c r="C167" s="27">
-        <v>9063</v>
+        <v>38</v>
       </c>
       <c r="D167" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167">
+        <v>1220.7183967188671</v>
+      </c>
+      <c r="F167">
         <v>7</v>
-      </c>
-      <c r="E167">
-        <v>1170.7607892982999</v>
-      </c>
-      <c r="F167">
-        <v>14</v>
       </c>
       <c r="G167" s="24">
         <v>66</v>
@@ -4657,45 +4658,45 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="13">
-        <v>44409</v>
+        <v>37</v>
+      </c>
+      <c r="B168" s="24">
+        <v>44285</v>
       </c>
       <c r="C168" s="27">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="D168" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168">
+        <v>1320</v>
+      </c>
+      <c r="F168">
         <v>7</v>
-      </c>
-      <c r="E168">
-        <v>1139</v>
-      </c>
-      <c r="F168">
-        <v>23</v>
       </c>
       <c r="G168" s="13">
         <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="37" t="s">
-        <v>5</v>
+      <c r="A169" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B169" s="24">
-        <v>44116</v>
+        <v>44285</v>
       </c>
       <c r="C169" s="27">
-        <v>1327</v>
+        <v>1598</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>1435.4122976854519</v>
+        <v>1484.7184000124298</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G169" s="36">
         <v>66</v>
@@ -4703,22 +4704,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="13">
-        <v>33445</v>
+        <v>37</v>
+      </c>
+      <c r="B170" s="24">
+        <v>44285</v>
       </c>
       <c r="C170" s="27">
-        <v>96</v>
+        <v>935</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E170">
-        <v>1584</v>
+        <v>1164.2824000354349</v>
       </c>
       <c r="F170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G170" s="36">
         <v>68</v>
@@ -4726,22 +4727,22 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B171" s="24">
-        <v>44267</v>
+        <v>44285</v>
       </c>
       <c r="C171" s="27">
-        <v>3993</v>
+        <v>38</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E171">
-        <v>1492.0474203391855</v>
+        <v>1550.7183998628541</v>
       </c>
       <c r="F171">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G171" s="36">
         <v>66</v>
@@ -4749,45 +4750,45 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="13">
-        <v>44417</v>
+        <v>3</v>
+      </c>
+      <c r="B172" s="24">
+        <v>44198</v>
       </c>
       <c r="C172" s="27">
-        <v>46</v>
-      </c>
-      <c r="D172" s="25" t="s">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E172">
-        <v>1474</v>
+        <v>1467.2273849907124</v>
       </c>
       <c r="F172">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G172" s="24">
         <v>66.743593927295606</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="37" t="s">
-        <v>5</v>
+      <c r="A173" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B173" s="24">
-        <v>44204</v>
+        <v>44294</v>
       </c>
       <c r="C173" s="27">
-        <v>361</v>
-      </c>
-      <c r="D173" s="24" t="s">
-        <v>18</v>
+        <v>239</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E173">
-        <v>1441.7571705226844</v>
+        <v>1364</v>
       </c>
       <c r="F173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G173" s="24">
         <v>67.075377283814106</v>
@@ -4797,20 +4798,20 @@
       <c r="A174" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="13">
-        <v>33445</v>
+      <c r="B174" s="24">
+        <v>44273</v>
       </c>
       <c r="C174" s="27">
-        <v>54</v>
+        <v>7231</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>1562</v>
+        <v>1497.3278216471563</v>
       </c>
       <c r="F174">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G174" s="24">
         <v>68.484599981567897</v>
@@ -4820,43 +4821,43 @@
       <c r="A175" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="24">
-        <v>44268</v>
+      <c r="B175" s="13">
+        <v>44273</v>
       </c>
       <c r="C175" s="27">
-        <v>1229</v>
+        <v>2</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E175">
-        <v>1464.349743625294</v>
+        <v>1375.8799999999999</v>
       </c>
       <c r="F175">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G175" s="24">
         <v>70.858111918958102</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="24">
-        <v>44204</v>
+      <c r="A176" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="39">
+        <v>44315</v>
       </c>
       <c r="C176" s="27">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E176">
-        <v>1378.8505024233962</v>
+        <v>1299.0296008470771</v>
       </c>
       <c r="F176">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G176" s="24">
         <v>67.106499999999997</v>
@@ -4864,22 +4865,22 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B177" s="24">
-        <v>44269</v>
+        <v>44315</v>
       </c>
       <c r="C177" s="27">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>1450.3817668482625</v>
+        <v>1357.5276000747804</v>
       </c>
       <c r="F177">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G177" s="24">
         <v>68</v>
@@ -4887,22 +4888,22 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="13">
-        <v>44273</v>
+        <v>41</v>
+      </c>
+      <c r="B178" s="24">
+        <v>44315</v>
       </c>
       <c r="C178" s="27">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>1375.8799999999999</v>
+        <v>1561.4896000936938</v>
       </c>
       <c r="F178">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G178" s="24">
         <v>67.748841397562401</v>
@@ -4910,22 +4911,22 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="24">
-        <v>44410</v>
+        <v>13</v>
+      </c>
+      <c r="B179" s="39">
+        <v>44299</v>
       </c>
       <c r="C179" s="27">
-        <v>1</v>
-      </c>
-      <c r="D179" s="25" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E179">
-        <v>1474</v>
+        <v>1220.0693986208134</v>
       </c>
       <c r="F179">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G179" s="24">
         <v>68.487199997275496</v>
@@ -4933,22 +4934,22 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180" s="38">
-        <v>44181</v>
+        <v>13</v>
+      </c>
+      <c r="B180" s="13">
+        <v>44299</v>
       </c>
       <c r="C180" s="27">
-        <v>55</v>
-      </c>
-      <c r="D180" s="24" t="s">
-        <v>25</v>
+        <v>346</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E180">
-        <v>1128.0874018628278</v>
+        <v>1320</v>
       </c>
       <c r="F180">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G180" s="24">
         <v>66.984599942531702</v>
@@ -4956,22 +4957,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181" s="39">
-        <v>44371</v>
+        <v>13</v>
+      </c>
+      <c r="B181" s="13">
+        <v>44299</v>
       </c>
       <c r="C181" s="27">
-        <v>74</v>
-      </c>
-      <c r="D181" s="25" t="s">
-        <v>25</v>
+        <v>872</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>1254</v>
+        <v>1163.7809000156792</v>
       </c>
       <c r="F181">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G181" s="24">
         <v>70.484600004340507</v>
@@ -4979,22 +4980,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B182" s="38">
-        <v>44180</v>
+        <v>13</v>
+      </c>
+      <c r="B182" s="13">
+        <v>44299</v>
       </c>
       <c r="C182" s="27">
-        <v>695</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>1253.4873999824131</v>
+        <v>1550.0694005588023</v>
       </c>
       <c r="F182">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G182" s="24">
         <v>67.484600000459295</v>
@@ -5002,22 +5003,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183" s="13">
-        <v>44371</v>
+        <v>37</v>
+      </c>
+      <c r="B183" s="24">
+        <v>44286</v>
       </c>
       <c r="C183" s="27">
-        <v>884</v>
-      </c>
-      <c r="D183" s="25" t="s">
-        <v>68</v>
+        <v>3746</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>1386</v>
+        <v>1296.5004000069616</v>
       </c>
       <c r="F183">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G183" s="24">
         <v>67.046799998545893</v>
@@ -5025,22 +5026,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B184" s="24">
-        <v>44181</v>
+        <v>3</v>
+      </c>
+      <c r="B184" s="39">
+        <v>44305</v>
       </c>
       <c r="C184" s="27">
-        <v>2267</v>
-      </c>
-      <c r="D184" s="24" t="s">
-        <v>4</v>
+        <v>173</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E184">
-        <v>1241.4016147031168</v>
+        <v>1144</v>
       </c>
       <c r="F184">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G184" s="24">
         <v>62.487199997556097</v>
@@ -5048,22 +5049,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B185" s="13">
-        <v>44371</v>
+        <v>8</v>
+      </c>
+      <c r="B185" s="39">
+        <v>44302</v>
       </c>
       <c r="C185" s="27">
-        <v>2825</v>
+        <v>73</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E185">
-        <v>1306.5</v>
+        <v>1072.9692600000001</v>
       </c>
       <c r="F185">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G185" s="24">
         <v>62.546800001125902</v>
@@ -5071,22 +5072,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B186" s="24">
-        <v>44181</v>
+        <v>8</v>
+      </c>
+      <c r="B186" s="13">
+        <v>44302</v>
       </c>
       <c r="C186" s="27">
-        <v>2013</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>6</v>
+        <v>255</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E186">
-        <v>1433.1112132184539</v>
+        <v>1364</v>
       </c>
       <c r="F186">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G186" s="24">
         <v>63.074399998847802</v>
@@ -5094,22 +5095,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B187" s="13">
-        <v>44371</v>
+        <v>44302</v>
       </c>
       <c r="C187" s="27">
-        <v>2504</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>6</v>
+        <v>821</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>1496</v>
+        <v>1414.4019490398466</v>
       </c>
       <c r="F187">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G187" s="24">
         <v>61</v>
@@ -5117,22 +5118,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B188" s="24">
-        <v>44180</v>
+        <v>44276</v>
       </c>
       <c r="C188" s="27">
-        <v>1122</v>
+        <v>9063</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E188">
-        <v>1124.6563698847121</v>
+        <v>1170.7607892982999</v>
       </c>
       <c r="F188">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G188" s="24">
         <v>71.066546292300103</v>
@@ -5140,22 +5141,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B189" s="13">
-        <v>44371</v>
+        <v>14</v>
+      </c>
+      <c r="B189" s="24">
+        <v>44131</v>
       </c>
       <c r="C189" s="27">
-        <v>1477</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>7</v>
+        <v>963</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>1173</v>
+        <v>1278.1626000000001</v>
       </c>
       <c r="F189">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G189" s="24">
         <v>63.1065001653986</v>
@@ -5163,45 +5164,45 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B190" s="24">
-        <v>44180</v>
+        <v>44131</v>
       </c>
       <c r="C190" s="27">
-        <v>179</v>
+        <v>1073</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>1461.7634089257781</v>
+        <v>1139.7956000000001</v>
       </c>
       <c r="F190">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G190" s="24">
         <v>65.874964900238695</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="28" t="s">
-        <v>36</v>
+      <c r="A191" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="B191" s="13">
-        <v>44371</v>
+        <v>44306</v>
       </c>
       <c r="C191" s="27">
-        <v>258</v>
-      </c>
-      <c r="D191" s="31" t="s">
-        <v>10</v>
+        <v>864</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E191">
-        <v>1518</v>
+        <v>1342</v>
       </c>
       <c r="F191">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G191" s="24">
         <v>63</v>
@@ -5209,22 +5210,22 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="23" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B192" s="24">
-        <v>44181</v>
+        <v>44293</v>
       </c>
       <c r="C192" s="27">
-        <v>16</v>
+        <v>669</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>1443.567401975457</v>
+        <v>1276.9496996488888</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G192" s="24">
         <v>66.156257052041894</v>
@@ -5232,352 +5233,352 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B193" s="24">
-        <v>44181</v>
+        <v>8</v>
+      </c>
+      <c r="B193" s="13">
+        <v>44303</v>
       </c>
       <c r="C193" s="27">
-        <v>10</v>
+        <v>1271</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>1436.0873905579408</v>
+        <v>1236.7054612818426</v>
       </c>
       <c r="F193">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G193" s="24">
         <v>65.5</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="38">
-        <v>44108</v>
+      <c r="A194" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="13">
+        <v>44303</v>
       </c>
       <c r="C194" s="27">
+        <v>218</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>1607.9405989281647</v>
+      </c>
+      <c r="F194">
         <v>9</v>
-      </c>
-      <c r="D194" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E194">
-        <v>1110.7184014286493</v>
-      </c>
-      <c r="F194">
-        <v>1</v>
       </c>
       <c r="G194" s="24">
         <v>66.019299998898106</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="38">
-        <v>44108</v>
+      <c r="A195" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="13">
+        <v>44303</v>
       </c>
       <c r="C195" s="27">
-        <v>165</v>
-      </c>
-      <c r="D195" s="25" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E195">
-        <v>1308.7183997020188</v>
+        <v>1519.6239314884629</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G195" s="24">
         <v>62.457700016584099</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="37" t="s">
-        <v>15</v>
+      <c r="A196" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B196" s="24">
-        <v>44108</v>
+        <v>44348</v>
       </c>
       <c r="C196" s="27">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>1277.0003999947019</v>
+        <v>1517.2390583217868</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G196" s="24">
         <v>66.106700005981907</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="37" t="s">
-        <v>15</v>
+      <c r="A197" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B197" s="24">
-        <v>44108</v>
+        <v>44267</v>
       </c>
       <c r="C197" s="27">
-        <v>1062</v>
+        <v>3993</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E197">
-        <v>1462.7184000128327</v>
+        <v>1492.0474203391855</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G197" s="24">
         <v>62.484600001055497</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="24">
-        <v>44108</v>
+      <c r="A198" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B198" s="13">
+        <v>44329</v>
       </c>
       <c r="C198" s="27">
-        <v>604</v>
-      </c>
-      <c r="D198" s="24" t="s">
-        <v>7</v>
+        <v>495</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E198">
-        <v>1164.2823999536834</v>
+        <v>1320</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G198" s="24">
         <v>63.0468000029175</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="24">
-        <v>44108</v>
+      <c r="A199" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="13">
+        <v>44287</v>
       </c>
       <c r="C199" s="27">
-        <v>88</v>
+        <v>1540</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>1550.7184003658203</v>
+        <v>1295.9251500266644</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G199" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A199,'Helping Sheet - Prices'!$K$3:$K$85,D199)</f>
-        <v>0</v>
+        <v>66.4577000013674</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="24">
-        <v>44108</v>
+      <c r="A200" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="13">
+        <v>44287</v>
       </c>
       <c r="C200" s="27">
-        <v>13</v>
+        <v>1840</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>1550.718400548526</v>
+        <v>1484.069399976273</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G200" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A200,'Helping Sheet - Prices'!$K$3:$K$85,D200)</f>
-        <v>0</v>
+        <v>67.457699998921498</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B201" s="38">
-        <v>44222</v>
+        <v>3</v>
+      </c>
+      <c r="B201" s="24">
+        <v>44307</v>
       </c>
       <c r="C201" s="27">
-        <v>54</v>
+        <v>2032</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>1145.0295996483937</v>
+        <v>1475.3855233515972</v>
       </c>
       <c r="F201">
         <v>10</v>
       </c>
       <c r="G201" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A201,'Helping Sheet - Prices'!$K$3:$K$85,D201)</f>
-        <v>57.046800003702899</v>
+        <v>67.062978334163503</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B202" s="38">
-        <v>44321</v>
+        <v>19</v>
+      </c>
+      <c r="B202" s="24">
+        <v>44369</v>
       </c>
       <c r="C202" s="27">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>1255.0296000814637</v>
+        <v>1462.6612001810972</v>
       </c>
       <c r="F202">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G202" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A202,'Helping Sheet - Prices'!$K$3:$K$85,D202)</f>
-        <v>57.046800003702899</v>
+        <v>66.484600008231695</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B203" s="39">
-        <v>44222</v>
+        <v>19</v>
+      </c>
+      <c r="B203" s="24">
+        <v>44369</v>
       </c>
       <c r="C203" s="27">
-        <v>1011</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>1266.0296000088463</v>
+        <v>1147.238198390151</v>
       </c>
       <c r="F203">
         <v>10</v>
       </c>
       <c r="G203" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A203,'Helping Sheet - Prices'!$K$3:$K$85,D203)</f>
-        <v>0</v>
+        <v>67.484599905303</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B204" s="13">
-        <v>44311</v>
+        <v>44304</v>
       </c>
       <c r="C204" s="27">
-        <v>1377</v>
-      </c>
-      <c r="D204" s="25" t="s">
-        <v>68</v>
+        <v>1346</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>1320</v>
+        <v>1585.023500528235</v>
       </c>
       <c r="F204">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G204" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A204,'Helping Sheet - Prices'!$K$3:$K$85,D204)</f>
-        <v>0</v>
+        <v>72.046522751283405</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B205" s="13">
-        <v>44321</v>
+        <v>5</v>
+      </c>
+      <c r="B205" s="24">
+        <v>44268</v>
       </c>
       <c r="C205" s="27">
-        <v>368</v>
+        <v>2955</v>
       </c>
       <c r="D205" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E205">
-        <v>1313.6465237551208</v>
+        <v>1302.8100282238568</v>
       </c>
       <c r="F205">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G205" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A205,'Helping Sheet - Prices'!$K$3:$K$85,D205)</f>
-        <v>67.366488397698504</v>
+        <v>66.810770678146497</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B206" s="38">
-        <v>44263</v>
+        <v>5</v>
+      </c>
+      <c r="B206" s="24">
+        <v>44268</v>
       </c>
       <c r="C206" s="27">
-        <v>200</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>68</v>
+        <v>1229</v>
+      </c>
+      <c r="D206" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E206">
-        <v>1166</v>
+        <v>1464.349743625294</v>
       </c>
       <c r="F206">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G206" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A206,'Helping Sheet - Prices'!$K$3:$K$85,D206)</f>
-        <v>0</v>
+        <v>66.561351982967906</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B207" s="24">
-        <v>44418</v>
+        <v>28</v>
+      </c>
+      <c r="B207" s="38">
+        <v>44321</v>
       </c>
       <c r="C207" s="27">
-        <v>1005</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="D207" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E207">
-        <v>1296.75</v>
+        <v>1255.0296000814637</v>
       </c>
       <c r="F207">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G207" s="32">
         <v>68</v>
@@ -5585,22 +5586,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B208" s="13">
-        <v>44223</v>
+        <v>44311</v>
       </c>
       <c r="C208" s="27">
-        <v>432</v>
+        <v>1377</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E208">
-        <v>1422.0305525021704</v>
+        <v>1320</v>
       </c>
       <c r="F208">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G208" s="24">
         <v>68.25</v>
@@ -5608,22 +5609,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B209" s="13">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="C209" s="27">
-        <v>559</v>
-      </c>
-      <c r="D209" s="25" t="s">
-        <v>7</v>
+        <v>368</v>
+      </c>
+      <c r="D209" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>1113.5</v>
+        <v>1313.6465237551208</v>
       </c>
       <c r="F209">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G209" s="13">
         <v>66</v>
@@ -5631,22 +5632,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B210" s="39">
-        <v>44315</v>
+        <v>9</v>
+      </c>
+      <c r="B210" s="13">
+        <v>44277</v>
       </c>
       <c r="C210" s="27">
-        <v>72</v>
-      </c>
-      <c r="D210" s="24" t="s">
-        <v>25</v>
+        <v>186</v>
+      </c>
+      <c r="D210" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E210">
-        <v>1299.0296008470771</v>
+        <v>1320</v>
       </c>
       <c r="F210">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G210" s="13">
         <v>68</v>
@@ -5654,22 +5655,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B211" s="13">
-        <v>44329</v>
+        <v>44277</v>
       </c>
       <c r="C211" s="27">
-        <v>495</v>
-      </c>
-      <c r="D211" s="25" t="s">
-        <v>68</v>
+        <v>1280</v>
+      </c>
+      <c r="D211" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>1320</v>
+        <v>1296.4497000155941</v>
       </c>
       <c r="F211">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G211" s="13">
         <v>65.168589999999995</v>
@@ -5677,22 +5678,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B212" s="24">
-        <v>44315</v>
+        <v>9</v>
+      </c>
+      <c r="B212" s="13">
+        <v>44277</v>
       </c>
       <c r="C212" s="27">
-        <v>91</v>
+        <v>3587</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E212">
-        <v>1357.5276000747804</v>
+        <v>1484.6612000168191</v>
       </c>
       <c r="F212">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G212" s="24">
         <v>67</v>
@@ -5700,22 +5701,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B213" s="24">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="C213" s="27">
-        <v>135</v>
+        <v>589</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E213">
-        <v>1561.4896000936938</v>
+        <v>1550.6611999637903</v>
       </c>
       <c r="F213">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G213" s="13">
         <v>69</v>
@@ -5723,22 +5724,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B214" s="39">
-        <v>44228</v>
+        <v>44370</v>
       </c>
       <c r="C214" s="27">
-        <v>200</v>
-      </c>
-      <c r="D214" s="25" t="s">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="D214" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E214">
-        <v>1430.4246001163094</v>
+        <v>1220.6611981945018</v>
       </c>
       <c r="F214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G214" s="36">
         <v>67</v>
@@ -5746,22 +5747,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B215" s="13">
-        <v>44228</v>
+        <v>19</v>
+      </c>
+      <c r="B215" s="24">
+        <v>44370</v>
       </c>
       <c r="C215" s="27">
-        <v>432</v>
+        <v>55</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>1430.4246001163094</v>
+        <v>1474</v>
       </c>
       <c r="F215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G215" s="36">
         <v>69</v>
@@ -5769,22 +5770,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B216" s="13">
-        <v>44228</v>
+        <v>5</v>
+      </c>
+      <c r="B216" s="39">
+        <v>44269</v>
       </c>
       <c r="C216" s="27">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E216">
-        <v>1122.3280999812678</v>
+        <v>1189.9230033613451</v>
       </c>
       <c r="F216">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G216" s="36">
         <v>67</v>
@@ -5792,45 +5793,45 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B217" s="24">
-        <v>44341</v>
+        <v>44269</v>
       </c>
       <c r="C217" s="27">
-        <v>1118</v>
-      </c>
-      <c r="D217" s="24" t="s">
-        <v>7</v>
+        <v>191</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E217">
-        <v>1209.3263658607832</v>
+        <v>1364</v>
       </c>
       <c r="F217">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G217" s="24">
         <v>67.346617193850506</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B218" s="38">
-        <v>44119</v>
+      <c r="A218" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="24">
+        <v>44269</v>
       </c>
       <c r="C218" s="27">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E218">
-        <v>1110.6611988119889</v>
+        <v>1450.3817668482625</v>
       </c>
       <c r="F218">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G218" s="24">
         <v>71.441969581310701</v>
@@ -5838,22 +5839,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B219" s="39">
-        <v>44261</v>
+        <v>9</v>
+      </c>
+      <c r="B219" s="13">
+        <v>44278</v>
       </c>
       <c r="C219" s="27">
-        <v>123</v>
+        <v>4871</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>1088.0693989035508</v>
+        <v>1164.238200012483</v>
       </c>
       <c r="F219">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G219" s="24">
         <v>69.484600001896098</v>
@@ -5861,45 +5862,45 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B220" s="39">
-        <v>44299</v>
+        <v>9</v>
+      </c>
+      <c r="B220" s="13">
+        <v>44278</v>
       </c>
       <c r="C220" s="27">
-        <v>26</v>
+        <v>1897</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E220">
-        <v>1220.0693986208134</v>
+        <v>1550.6611999781078</v>
       </c>
       <c r="F220">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G220" s="24">
         <v>69.296599999999998</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B221" s="38">
-        <v>44119</v>
+      <c r="A221" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" s="24">
+        <v>44278</v>
       </c>
       <c r="C221" s="27">
-        <v>1031</v>
-      </c>
-      <c r="D221" s="25" t="s">
-        <v>68</v>
+        <v>153</v>
+      </c>
+      <c r="D221" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E221">
-        <v>1286.6611999452575</v>
+        <v>1550.661199572507</v>
       </c>
       <c r="F221">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G221" s="24">
         <v>70</v>
@@ -5907,22 +5908,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B222" s="39">
-        <v>44261</v>
+        <v>44282</v>
       </c>
       <c r="C222" s="27">
-        <v>1231</v>
-      </c>
-      <c r="D222" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="D222" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E222">
-        <v>1198.0694000953501</v>
+        <v>1189.0295999999998</v>
       </c>
       <c r="F222">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G222" s="24">
         <v>65.246013531156905</v>
@@ -5930,22 +5931,22 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B223" s="13">
-        <v>44299</v>
+        <v>14</v>
+      </c>
+      <c r="B223" s="24">
+        <v>44282</v>
       </c>
       <c r="C223" s="27">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="D223" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E223">
-        <v>1320</v>
+        <v>1342</v>
       </c>
       <c r="F223">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G223" s="24">
         <v>70.487200016628194</v>
@@ -5953,45 +5954,45 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" s="13">
-        <v>44395</v>
+        <v>14</v>
+      </c>
+      <c r="B224" s="24">
+        <v>44282</v>
       </c>
       <c r="C224" s="27">
-        <v>88</v>
-      </c>
-      <c r="D224" s="25" t="s">
-        <v>68</v>
+        <v>1212</v>
+      </c>
+      <c r="D224" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>1320</v>
+        <v>1464.029600030666</v>
       </c>
       <c r="F224">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G224" s="24">
         <v>71.484599995620997</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="37" t="s">
-        <v>13</v>
+      <c r="A225" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="B225" s="24">
-        <v>44119</v>
+        <v>44282</v>
       </c>
       <c r="C225" s="27">
-        <v>1191</v>
+        <v>348</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>1267.1997000098806</v>
+        <v>1497.02960019956</v>
       </c>
       <c r="F225">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G225" s="24">
         <v>68.484599996930697</v>
@@ -5999,22 +6000,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B226" s="13">
-        <v>44261</v>
+        <v>14</v>
+      </c>
+      <c r="B226" s="24">
+        <v>44282</v>
       </c>
       <c r="C226" s="27">
-        <v>1191</v>
+        <v>55</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E226">
-        <v>1178.9251500606781</v>
+        <v>1497.0295984939239</v>
       </c>
       <c r="F226">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G226" s="24">
         <v>69.046799991596302</v>
@@ -6022,22 +6023,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B227" s="13">
-        <v>44287</v>
+        <v>14</v>
+      </c>
+      <c r="B227" s="24">
+        <v>44282</v>
       </c>
       <c r="C227" s="27">
-        <v>1540</v>
+        <v>5</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E227">
-        <v>1295.9251500266644</v>
+        <v>1497.0295637860088</v>
       </c>
       <c r="F227">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G227" s="24">
         <v>66</v>
@@ -6045,45 +6046,45 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B228" s="13">
-        <v>44395</v>
+        <v>3</v>
+      </c>
+      <c r="B228" s="24">
+        <v>44310</v>
       </c>
       <c r="C228" s="27">
-        <v>728</v>
-      </c>
-      <c r="D228" s="25" t="s">
+        <v>4180</v>
+      </c>
+      <c r="D228" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E228">
-        <v>1267.5</v>
+        <v>1288.1801078959566</v>
       </c>
       <c r="F228">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G228" s="24">
         <v>63.487200037250901</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="37" t="s">
+      <c r="A229" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="24">
+        <v>44341</v>
+      </c>
+      <c r="C229" s="27">
+        <v>1118</v>
+      </c>
+      <c r="D229" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229">
+        <v>1209.3263658607832</v>
+      </c>
+      <c r="F229">
         <v>13</v>
-      </c>
-      <c r="B229" s="24">
-        <v>44119</v>
-      </c>
-      <c r="C229" s="27">
-        <v>221</v>
-      </c>
-      <c r="D229" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E229">
-        <v>1451.6611999138217</v>
-      </c>
-      <c r="F229">
-        <v>5</v>
       </c>
       <c r="G229" s="24">
         <v>64.046800000000005</v>
@@ -6091,22 +6092,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B230" s="13">
-        <v>44206</v>
+        <v>36</v>
+      </c>
+      <c r="B230" s="39">
+        <v>44371</v>
       </c>
       <c r="C230" s="27">
-        <v>221</v>
-      </c>
-      <c r="D230" s="24" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="D230" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E230">
-        <v>1352.0694000236126</v>
+        <v>1254</v>
       </c>
       <c r="F230">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G230" s="24">
         <v>66.788880403056197</v>
@@ -6114,22 +6115,22 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="23" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B231" s="13">
-        <v>44287</v>
+        <v>44371</v>
       </c>
       <c r="C231" s="27">
-        <v>1840</v>
-      </c>
-      <c r="D231" s="24" t="s">
-        <v>6</v>
+        <v>884</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E231">
-        <v>1484.069399976273</v>
+        <v>1386</v>
       </c>
       <c r="F231">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G231" s="24">
         <v>61</v>
@@ -6137,45 +6138,45 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="23" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B232" s="13">
-        <v>44395</v>
+        <v>44371</v>
       </c>
       <c r="C232" s="27">
-        <v>1105</v>
+        <v>2825</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>1452</v>
+        <v>1306.5</v>
       </c>
       <c r="F232">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G232" s="24">
         <v>72.8385082691848</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B233" s="24">
-        <v>44119</v>
+      <c r="A233" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233" s="13">
+        <v>44371</v>
       </c>
       <c r="C233" s="27">
-        <v>32</v>
-      </c>
-      <c r="D233" s="24" t="s">
-        <v>7</v>
+        <v>2504</v>
+      </c>
+      <c r="D233" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>1138.738199023039</v>
+        <v>1496</v>
       </c>
       <c r="F233">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G233" s="24">
         <v>72</v>
@@ -6183,45 +6184,45 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B234" s="24">
-        <v>44206</v>
+        <v>36</v>
+      </c>
+      <c r="B234" s="13">
+        <v>44371</v>
       </c>
       <c r="C234" s="27">
-        <v>32</v>
-      </c>
-      <c r="D234" s="24" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D234" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E234">
-        <v>1061.7809002819297</v>
+        <v>1173</v>
       </c>
       <c r="F234">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G234" s="24">
         <v>66.443791314808095</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="23" t="s">
-        <v>13</v>
+      <c r="A235" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="B235" s="13">
-        <v>44299</v>
+        <v>44371</v>
       </c>
       <c r="C235" s="27">
-        <v>872</v>
-      </c>
-      <c r="D235" s="24" t="s">
-        <v>7</v>
+        <v>258</v>
+      </c>
+      <c r="D235" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>1163.7809000156792</v>
+        <v>1518</v>
       </c>
       <c r="F235">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G235" s="24">
         <v>63.484599999597599</v>
@@ -6235,16 +6236,16 @@
         <v>44395</v>
       </c>
       <c r="C236" s="27">
-        <v>673</v>
+        <v>88</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E236">
-        <v>1139</v>
+        <v>1320</v>
       </c>
       <c r="F236">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G236" s="24">
         <v>63.046800005715802</v>
@@ -6255,23 +6256,23 @@
         <v>13</v>
       </c>
       <c r="B237" s="13">
-        <v>44299</v>
+        <v>44395</v>
       </c>
       <c r="C237" s="27">
-        <v>69</v>
-      </c>
-      <c r="D237" s="24" t="s">
-        <v>10</v>
+        <v>728</v>
+      </c>
+      <c r="D237" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>1550.0694005588023</v>
+        <v>1267.5</v>
       </c>
       <c r="F237">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G237" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A237,'Helping Sheet - Prices'!$K$3:$K$85,D237)</f>
-        <v>70.457700025400101</v>
+        <v>66.4577000013674</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -6282,20 +6283,20 @@
         <v>44395</v>
       </c>
       <c r="C238" s="27">
-        <v>91</v>
+        <v>1105</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E238">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="F238">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G238" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A238,'Helping Sheet - Prices'!$K$3:$K$85,D238)</f>
-        <v>70.457700025400101</v>
+        <v>67.457699998921498</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -6306,16 +6307,16 @@
         <v>44395</v>
       </c>
       <c r="C239" s="27">
-        <v>5</v>
+        <v>673</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E239">
-        <v>1474</v>
+        <v>1139</v>
       </c>
       <c r="F239">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G239" s="24">
         <v>67</v>
@@ -6323,70 +6324,70 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B240" s="39">
-        <v>44176</v>
+        <v>13</v>
+      </c>
+      <c r="B240" s="13">
+        <v>44395</v>
       </c>
       <c r="C240" s="27">
-        <v>11</v>
-      </c>
-      <c r="D240" s="24" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="D240" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>1126.3912126436771</v>
+        <v>1474</v>
       </c>
       <c r="F240">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G240" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A240,'Helping Sheet - Prices'!$K$3:$K$85,D240)</f>
-        <v>0</v>
+        <v>70.457700025400101</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B241" s="39">
-        <v>44375</v>
+        <v>13</v>
+      </c>
+      <c r="B241" s="13">
+        <v>44395</v>
       </c>
       <c r="C241" s="27">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E241">
-        <v>1254</v>
+        <v>1474</v>
       </c>
       <c r="F241">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G241" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A241,'Helping Sheet - Prices'!$K$3:$K$85,D241)</f>
-        <v>0</v>
+        <v>70.457699695122002</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B242" s="39">
-        <v>44176</v>
+        <v>9</v>
+      </c>
+      <c r="B242" s="24">
+        <v>44377</v>
       </c>
       <c r="C242" s="27">
-        <v>918</v>
+        <v>125</v>
       </c>
       <c r="D242" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E242">
-        <v>1253.4874000486839</v>
+        <v>1320</v>
       </c>
       <c r="F242">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G242" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A242,'Helping Sheet - Prices'!$K$3:$K$85,D242)</f>
@@ -6395,46 +6396,46 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="23" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B243" s="13">
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="C243" s="27">
-        <v>340</v>
+        <v>1234</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>1386</v>
+        <v>1267.5</v>
       </c>
       <c r="F243">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G243" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A243,'Helping Sheet - Prices'!$K$3:$K$85,D243)</f>
-        <v>0</v>
+        <v>66.484600000799702</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="23" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B244" s="13">
-        <v>44176</v>
+        <v>44377</v>
       </c>
       <c r="C244" s="27">
-        <v>3882</v>
-      </c>
-      <c r="D244" s="24" t="s">
-        <v>4</v>
+        <v>3441</v>
+      </c>
+      <c r="D244" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>1238.9763520231579</v>
+        <v>1452</v>
       </c>
       <c r="F244">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G244" s="32">
         <v>70</v>
@@ -6442,22 +6443,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B245" s="13">
-        <v>44375</v>
+        <v>9</v>
+      </c>
+      <c r="B245" s="24">
+        <v>44377</v>
       </c>
       <c r="C245" s="27">
-        <v>1680</v>
+        <v>690</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E245">
-        <v>1306.5</v>
+        <v>1474</v>
       </c>
       <c r="F245">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G245" s="24">
         <v>68.75</v>
@@ -6465,22 +6466,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B246" s="40">
+        <v>44344</v>
+      </c>
+      <c r="C246" s="27">
         <v>38</v>
       </c>
-      <c r="B246" s="13">
-        <v>44176</v>
-      </c>
-      <c r="C246" s="27">
-        <v>1505</v>
-      </c>
-      <c r="D246" s="24" t="s">
-        <v>6</v>
+      <c r="D246" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E246">
-        <v>1433.0074000312884</v>
+        <v>1298</v>
       </c>
       <c r="F246">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G246" s="13">
         <v>64.5</v>
@@ -6488,22 +6489,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B247" s="13">
-        <v>44375</v>
+        <v>70</v>
+      </c>
+      <c r="B247" s="40">
+        <v>44344</v>
       </c>
       <c r="C247" s="27">
-        <v>1553</v>
+        <v>177</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E247">
-        <v>1496</v>
+        <v>1408</v>
       </c>
       <c r="F247">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G247" s="13">
         <v>68</v>
@@ -6511,22 +6512,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B248" s="13">
-        <v>44176</v>
+        <v>70</v>
+      </c>
+      <c r="B248" s="32">
+        <v>44344</v>
       </c>
       <c r="C248" s="27">
-        <v>187</v>
-      </c>
-      <c r="D248" s="24" t="s">
-        <v>7</v>
+        <v>360</v>
+      </c>
+      <c r="D248" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>1123.8139001016925</v>
+        <v>1267.5</v>
       </c>
       <c r="F248">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G248" s="13">
         <v>65.168589999999995</v>
@@ -6534,22 +6535,22 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B249" s="13">
-        <v>44375</v>
+        <v>3</v>
+      </c>
+      <c r="B249" s="41">
+        <v>44388</v>
       </c>
       <c r="C249" s="27">
-        <v>881</v>
+        <v>290</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E249">
-        <v>1173</v>
+        <v>1122</v>
       </c>
       <c r="F249">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G249" s="24">
         <v>67</v>
@@ -6557,206 +6558,206 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B250" s="13">
-        <v>44375</v>
+        <v>19</v>
+      </c>
+      <c r="B250" s="22">
+        <v>44414</v>
       </c>
       <c r="C250" s="27">
-        <v>170</v>
+        <v>903</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E250">
-        <v>1518</v>
+        <v>1364</v>
       </c>
       <c r="F250">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G250" s="35">
         <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B251" s="13">
-        <v>123123</v>
+      <c r="A251" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B251" s="24">
+        <v>44424</v>
       </c>
       <c r="C251" s="27">
-        <v>49</v>
-      </c>
-      <c r="D251" s="24" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D251" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E251">
-        <v>1296.4496989232471</v>
+        <v>1496</v>
       </c>
       <c r="F251">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G251" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="37" t="s">
-        <v>21</v>
+      <c r="A252" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B252" s="13">
-        <v>123123</v>
+        <v>44422</v>
       </c>
       <c r="C252" s="27">
-        <v>173</v>
-      </c>
-      <c r="D252" s="24" t="s">
-        <v>6</v>
+        <v>1698</v>
+      </c>
+      <c r="D252" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E252">
-        <v>1506.6611998313986</v>
+        <v>1320</v>
       </c>
       <c r="F252">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G252" s="36">
         <v>69</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B253" s="13">
-        <v>123123</v>
+      <c r="A253" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" s="24">
+        <v>44418</v>
       </c>
       <c r="C253" s="27">
-        <v>302</v>
-      </c>
-      <c r="D253" s="24" t="s">
-        <v>7</v>
+        <v>1005</v>
+      </c>
+      <c r="D253" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>1198.2382000737887</v>
+        <v>1296.75</v>
       </c>
       <c r="F253">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G253" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B254" s="13">
-        <v>123123</v>
+      <c r="A254" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B254" s="32">
+        <v>44345</v>
       </c>
       <c r="C254" s="27">
-        <v>233</v>
-      </c>
-      <c r="D254" s="24" t="s">
-        <v>10</v>
+        <v>355</v>
+      </c>
+      <c r="D254" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>1572.661199903662</v>
+        <v>1452</v>
       </c>
       <c r="F254">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G254" s="24">
         <v>69.046799915038207</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B255" s="13">
-        <v>123123</v>
+      <c r="A255" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255" s="32">
+        <v>44345</v>
       </c>
       <c r="C255" s="27">
-        <v>112</v>
-      </c>
-      <c r="D255" s="24" t="s">
-        <v>18</v>
+        <v>306</v>
+      </c>
+      <c r="D255" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>1572.6611998311391</v>
+        <v>1156</v>
       </c>
       <c r="F255">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G255" s="24">
         <v>71.464719284075002</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B256" s="13">
-        <v>123123</v>
+      <c r="A256" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B256" s="41">
+        <v>44408</v>
       </c>
       <c r="C256" s="27">
-        <v>52</v>
-      </c>
-      <c r="D256" s="24" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D256" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E256">
-        <v>1572.6612004374633</v>
+        <v>1232</v>
       </c>
       <c r="F256">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G256" s="24">
         <v>69.484599950242597</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B257" s="13">
-        <v>123123</v>
+      <c r="A257" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B257" s="22">
+        <v>44408</v>
       </c>
       <c r="C257" s="27">
-        <v>17</v>
-      </c>
-      <c r="D257" s="24" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="D257" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E257">
-        <v>1572.6612022160666</v>
+        <v>132</v>
       </c>
       <c r="F257">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G257" s="24">
         <v>69.296599999999998</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B258" s="38">
-        <v>44083</v>
+      <c r="A258" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B258" s="22">
+        <v>44408</v>
       </c>
       <c r="C258" s="27">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E258">
-        <v>1286.6611998164299</v>
+        <v>1291.875</v>
       </c>
       <c r="F258">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G258" s="24">
         <v>65.5344168419402</v>
@@ -6764,22 +6765,22 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B259" s="39">
-        <v>44175</v>
+        <v>46</v>
+      </c>
+      <c r="B259" s="22">
+        <v>44408</v>
       </c>
       <c r="C259" s="27">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E259">
-        <v>1198.6611998098497</v>
+        <v>1479.5</v>
       </c>
       <c r="F259">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G259" s="24">
         <v>70.487200024933003</v>
@@ -6787,19 +6788,19 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B260" s="13">
-        <v>44277</v>
+        <v>46</v>
+      </c>
+      <c r="B260" s="22">
+        <v>44408</v>
       </c>
       <c r="C260" s="27">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E260">
-        <v>1320</v>
+        <v>1160.25</v>
       </c>
       <c r="F260">
         <v>16</v>
@@ -6810,45 +6811,45 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="24">
-        <v>44377</v>
+        <v>46</v>
+      </c>
+      <c r="B261" s="22">
+        <v>44408</v>
       </c>
       <c r="C261" s="27">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E261">
-        <v>1320</v>
+        <v>1512.5</v>
       </c>
       <c r="F261">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G261" s="24">
         <v>68.484599984515299</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="24">
-        <v>44083</v>
+      <c r="A262" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B262" s="22">
+        <v>44408</v>
       </c>
       <c r="C262" s="27">
-        <v>1891</v>
-      </c>
-      <c r="D262" s="24" t="s">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="D262" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E262">
-        <v>1276.9496999831538</v>
+        <v>1512.5</v>
       </c>
       <c r="F262">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G262" s="24">
         <v>69.046800091701002</v>
@@ -6856,22 +6857,22 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="13">
-        <v>44174</v>
+        <v>46</v>
+      </c>
+      <c r="B263" s="24">
+        <v>44408</v>
       </c>
       <c r="C263" s="27">
-        <v>1933</v>
-      </c>
-      <c r="D263" s="24" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D263" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E263">
-        <v>1173.8074793282331</v>
+        <v>1512.5</v>
       </c>
       <c r="F263">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G263" s="24">
         <v>64.046800016140807</v>
@@ -6879,19 +6880,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B264" s="13">
-        <v>44277</v>
+        <v>46</v>
+      </c>
+      <c r="B264" s="22">
+        <v>44408</v>
       </c>
       <c r="C264" s="27">
-        <v>1280</v>
-      </c>
-      <c r="D264" s="24" t="s">
         <v>4</v>
       </c>
+      <c r="D264" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="E264">
-        <v>1296.4497000155941</v>
+        <v>1512.5</v>
       </c>
       <c r="F264">
         <v>16</v>
@@ -6902,45 +6903,45 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265" s="13">
-        <v>44377</v>
+        <v>3</v>
+      </c>
+      <c r="B265" s="22">
+        <v>44389</v>
       </c>
       <c r="C265" s="27">
-        <v>1234</v>
+        <v>2312</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E265">
-        <v>1267.5</v>
+        <v>1276</v>
       </c>
       <c r="F265">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G265" s="24">
         <v>71.387956305146204</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B266" s="24">
-        <v>44082</v>
+      <c r="A266" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" s="22">
+        <v>44379</v>
       </c>
       <c r="C266" s="27">
-        <v>3220</v>
-      </c>
-      <c r="D266" s="24" t="s">
-        <v>6</v>
+        <v>6655</v>
+      </c>
+      <c r="D266" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>1462.6611999885708</v>
+        <v>1248</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G266" s="24">
         <v>71</v>
@@ -6948,22 +6949,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B267" s="24">
-        <v>44175</v>
+        <v>19</v>
+      </c>
+      <c r="B267" s="41">
+        <v>44425</v>
       </c>
       <c r="C267" s="27">
-        <v>3333</v>
-      </c>
-      <c r="D267" s="24" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="D267" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E267">
-        <v>1352.661199985469</v>
+        <v>1232</v>
       </c>
       <c r="F267">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G267" s="24">
         <v>65.616700089793497</v>
@@ -6971,19 +6972,19 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B268" s="13">
-        <v>44277</v>
+        <v>19</v>
+      </c>
+      <c r="B268" s="22">
+        <v>44380</v>
       </c>
       <c r="C268" s="27">
-        <v>3587</v>
-      </c>
-      <c r="D268" s="24" t="s">
-        <v>6</v>
+        <v>2170</v>
+      </c>
+      <c r="D268" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E268">
-        <v>1484.6612000168191</v>
+        <v>1287</v>
       </c>
       <c r="F268">
         <v>16</v>
@@ -6994,141 +6995,141 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B269" s="13">
-        <v>44377</v>
+        <v>19</v>
+      </c>
+      <c r="B269" s="22">
+        <v>44415</v>
       </c>
       <c r="C269" s="27">
-        <v>3441</v>
+        <v>1282</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E269">
-        <v>1452</v>
+        <v>1156</v>
       </c>
       <c r="F269">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G269" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A269,'Helping Sheet - Prices'!$K$3:$K$85,D269)</f>
-        <v>67.484600000764502</v>
+        <v>67.484599905303</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" s="37" t="s">
-        <v>9</v>
+      <c r="A270" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="B270" s="24">
-        <v>44107</v>
+        <v>44404</v>
       </c>
       <c r="C270" s="27">
-        <v>3052</v>
-      </c>
-      <c r="D270" s="24" t="s">
-        <v>7</v>
+        <v>757</v>
+      </c>
+      <c r="D270" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>1147.238200007808</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G270" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A270,'Helping Sheet - Prices'!$K$3:$K$85,D270)</f>
-        <v>68.484600000734304</v>
+        <v>72.046522751283405</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B271" s="24">
-        <v>44174</v>
+        <v>44404</v>
       </c>
       <c r="C271" s="27">
-        <v>3705</v>
-      </c>
-      <c r="D271" s="24" t="s">
-        <v>7</v>
+        <v>959</v>
+      </c>
+      <c r="D271" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E271">
-        <v>1062.2382000179434</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F271">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G271" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A271,'Helping Sheet - Prices'!$K$3:$K$85,D271)</f>
-        <v>68.484600000734304</v>
+        <v>69.073815067657407</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B272" s="13">
-        <v>44278</v>
+        <v>70</v>
+      </c>
+      <c r="B272" s="32">
+        <v>44413</v>
       </c>
       <c r="C272" s="27">
-        <v>4871</v>
-      </c>
-      <c r="D272" s="24" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D272" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>1164.238200012483</v>
+        <v>1540</v>
       </c>
       <c r="F272">
         <v>17</v>
       </c>
       <c r="G272" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A272,'Helping Sheet - Prices'!$K$3:$K$85,D272)</f>
-        <v>68.484600000734304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B273" s="13">
-        <v>44378</v>
+        <v>70</v>
+      </c>
+      <c r="B273" s="32">
+        <v>44413</v>
       </c>
       <c r="C273" s="27">
-        <v>4547</v>
+        <v>10</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E273">
-        <v>1139</v>
+        <v>1540</v>
       </c>
       <c r="F273">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G273" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B274" s="24">
-        <v>44082</v>
+      <c r="A274" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="22">
+        <v>44390</v>
       </c>
       <c r="C274" s="27">
-        <v>841</v>
-      </c>
-      <c r="D274" s="24" t="s">
-        <v>10</v>
+        <v>4038</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E274">
-        <v>1506.6611999324753</v>
+        <v>1430</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G274" s="24">
         <v>68.75</v>
@@ -7136,22 +7137,22 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="23" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B275" s="24">
-        <v>44175</v>
+        <v>44381</v>
       </c>
       <c r="C275" s="27">
-        <v>1460</v>
-      </c>
-      <c r="D275" s="24" t="s">
-        <v>10</v>
+        <v>998</v>
+      </c>
+      <c r="D275" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E275">
-        <v>1396.6611999911472</v>
+        <v>1474</v>
       </c>
       <c r="F275">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G275" s="13">
         <v>68</v>
@@ -7159,19 +7160,19 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B276" s="13">
-        <v>44278</v>
+        <v>19</v>
+      </c>
+      <c r="B276" s="22">
+        <v>44464</v>
       </c>
       <c r="C276" s="27">
-        <v>1897</v>
-      </c>
-      <c r="D276" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D276" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E276">
-        <v>1550.6611999781078</v>
+        <v>1496</v>
       </c>
       <c r="F276">
         <v>17</v>
@@ -7182,45 +7183,45 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" s="13">
-        <v>44378</v>
+        <v>8</v>
+      </c>
+      <c r="B277" s="41">
+        <v>44405</v>
       </c>
       <c r="C277" s="27">
-        <v>1728</v>
+        <v>101</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E277">
-        <v>1474</v>
+        <v>1072.9692600000001</v>
       </c>
       <c r="F277">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G277" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="37" t="s">
-        <v>9</v>
+      <c r="A278" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="B278" s="24">
-        <v>44083</v>
+        <v>44405</v>
       </c>
       <c r="C278" s="27">
-        <v>132</v>
-      </c>
-      <c r="D278" s="24" t="s">
-        <v>18</v>
+        <v>1698</v>
+      </c>
+      <c r="D278" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E278">
-        <v>1506.6611996593365</v>
+        <v>1107.8660299999999</v>
       </c>
       <c r="F278">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G278" s="36">
         <v>67</v>
@@ -7228,22 +7229,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B279" s="24">
-        <v>44174</v>
+        <v>8</v>
+      </c>
+      <c r="B279" s="22">
+        <v>44405</v>
       </c>
       <c r="C279" s="27">
-        <v>309</v>
-      </c>
-      <c r="D279" s="24" t="s">
-        <v>18</v>
+        <v>151</v>
+      </c>
+      <c r="D279" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E279">
-        <v>1396.6611998849553</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F279">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G279" s="24">
         <v>70.720782660957099</v>
@@ -7251,22 +7252,22 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="24">
-        <v>44277</v>
+        <v>8</v>
+      </c>
+      <c r="B280" s="22">
+        <v>44405</v>
       </c>
       <c r="C280" s="27">
-        <v>589</v>
-      </c>
-      <c r="D280" s="24" t="s">
-        <v>18</v>
+        <v>101</v>
+      </c>
+      <c r="D280" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E280">
-        <v>1550.6611999637903</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F280">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G280" s="24">
         <v>69.484600310670302</v>
@@ -7274,45 +7275,45 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B281" s="24">
-        <v>44377</v>
+        <v>5</v>
+      </c>
+      <c r="B281" s="13">
+        <v>44409</v>
       </c>
       <c r="C281" s="27">
-        <v>690</v>
+        <v>460</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>1474</v>
+        <v>1139</v>
       </c>
       <c r="F281">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G281" s="24">
         <v>70.879678275545302</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B282" s="24">
-        <v>44083</v>
+      <c r="A282" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282" s="22">
+        <v>44391</v>
       </c>
       <c r="C282" s="27">
-        <v>11</v>
-      </c>
-      <c r="D282" s="24" t="s">
-        <v>26</v>
+        <v>1017</v>
+      </c>
+      <c r="D282" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>1506.6612072033588</v>
+        <v>1122</v>
       </c>
       <c r="F282">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G282" s="24">
         <v>62.6750228374271</v>
@@ -7320,22 +7321,22 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B283" s="24">
-        <v>44174</v>
+        <v>8</v>
+      </c>
+      <c r="B283" s="22">
+        <v>44406</v>
       </c>
       <c r="C283" s="27">
-        <v>19</v>
-      </c>
-      <c r="D283" s="24" t="s">
-        <v>26</v>
+        <v>342</v>
+      </c>
+      <c r="D283" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>1396.6611996141596</v>
+        <v>1270.7875049999998</v>
       </c>
       <c r="F283">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G283" s="24">
         <v>71.484600019884695</v>
@@ -7343,22 +7344,22 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B284" s="24">
-        <v>44278</v>
+        <v>8</v>
+      </c>
+      <c r="B284" s="22">
+        <v>44406</v>
       </c>
       <c r="C284" s="27">
-        <v>153</v>
-      </c>
-      <c r="D284" s="24" t="s">
-        <v>26</v>
+        <v>1362</v>
+      </c>
+      <c r="D284" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>1550.661199572507</v>
+        <v>1433.7089799999999</v>
       </c>
       <c r="F284">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G284" s="24">
         <v>68.484600327425397</v>
@@ -7366,22 +7367,22 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B285" s="24">
-        <v>44378</v>
+        <v>5</v>
+      </c>
+      <c r="B285" s="39">
+        <v>44417</v>
       </c>
       <c r="C285" s="27">
         <v>91</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E285">
-        <v>1474</v>
+        <v>1166</v>
       </c>
       <c r="F285">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G285" s="24">
         <v>64.046800395256895</v>
@@ -7389,45 +7390,45 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B286" s="24">
-        <v>12345</v>
+        <v>5</v>
+      </c>
+      <c r="B286" s="13">
+        <v>44417</v>
       </c>
       <c r="C286" s="27">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E286">
-        <v>1199</v>
+        <v>1474</v>
       </c>
       <c r="F286">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G286" s="24">
         <v>71.596433007979499</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B287" s="38">
-        <v>44104</v>
+      <c r="A287" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B287" s="39">
+        <v>44375</v>
       </c>
       <c r="C287" s="27">
-        <v>17</v>
-      </c>
-      <c r="D287" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E287">
-        <v>1123.0295975162287</v>
+        <v>1254</v>
       </c>
       <c r="F287">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G287" s="24">
         <v>65.276699570815495</v>
@@ -7435,45 +7436,45 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" s="39">
-        <v>44208</v>
+        <v>38</v>
+      </c>
+      <c r="B288" s="13">
+        <v>44375</v>
       </c>
       <c r="C288" s="27">
-        <v>35</v>
-      </c>
-      <c r="D288" s="24" t="s">
-        <v>25</v>
+        <v>340</v>
+      </c>
+      <c r="D288" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E288">
-        <v>1057.0296034415326</v>
+        <v>1386</v>
       </c>
       <c r="F288">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G288" s="24">
         <v>63.484599982461802</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B289" s="38">
-        <v>44105</v>
+      <c r="A289" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B289" s="13">
+        <v>44375</v>
       </c>
       <c r="C289" s="27">
-        <v>202</v>
+        <v>1680</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E289">
-        <v>1299.0295999999998</v>
+        <v>1306.5</v>
       </c>
       <c r="F289">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G289" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A289,'Helping Sheet - Prices'!$K$3:$K$85,D289)</f>
@@ -7482,22 +7483,22 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="23" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B290" s="13">
-        <v>44208</v>
+        <v>44375</v>
       </c>
       <c r="C290" s="27">
-        <v>546</v>
+        <v>1553</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E290">
-        <v>1189.0295998292361</v>
+        <v>1496</v>
       </c>
       <c r="F290">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G290" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A290,'Helping Sheet - Prices'!$K$3:$K$85,D290)</f>
@@ -7505,23 +7506,23 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B291" s="24">
-        <v>44104</v>
+      <c r="A291" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B291" s="13">
+        <v>44375</v>
       </c>
       <c r="C291" s="27">
-        <v>1340</v>
-      </c>
-      <c r="D291" s="24" t="s">
-        <v>4</v>
+        <v>881</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E291">
-        <v>1278.1625999626615</v>
+        <v>1173</v>
       </c>
       <c r="F291">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G291" s="24">
         <f>SUMIFS('Helping Sheet - Prices'!$J$3:$J$85,'Helping Sheet - Prices'!$I$3:$I$85,A291,'Helping Sheet - Prices'!$K$3:$K$85,D291)</f>
@@ -7530,45 +7531,45 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B292" s="13">
-        <v>44208</v>
+        <v>44375</v>
       </c>
       <c r="C292" s="27">
-        <v>1715</v>
-      </c>
-      <c r="D292" s="24" t="s">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="D292" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E292">
-        <v>1190.4125999629384</v>
+        <v>1518</v>
       </c>
       <c r="F292">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G292" s="13">
         <v>65.168589999999995</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B293" s="24">
-        <v>44105</v>
+      <c r="A293" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="13">
+        <v>44378</v>
       </c>
       <c r="C293" s="27">
-        <v>1534</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>6</v>
+        <v>4547</v>
+      </c>
+      <c r="D293" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="E293">
-        <v>1453.0295999728255</v>
+        <v>1139</v>
       </c>
       <c r="F293">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G293" s="36">
         <v>68.75</v>
@@ -7576,45 +7577,45 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B294" s="13">
-        <v>44208</v>
+        <v>44378</v>
       </c>
       <c r="C294" s="27">
-        <v>1278</v>
-      </c>
-      <c r="D294" s="24" t="s">
-        <v>6</v>
+        <v>1728</v>
+      </c>
+      <c r="D294" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E294">
-        <v>1376.0296000153494</v>
+        <v>1474</v>
       </c>
       <c r="F294">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G294" s="36">
         <v>67</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="37" t="s">
-        <v>11</v>
+      <c r="A295" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B295" s="24">
-        <v>44104</v>
+        <v>44378</v>
       </c>
       <c r="C295" s="27">
-        <v>569</v>
-      </c>
-      <c r="D295" s="24" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="D295" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E295">
-        <v>1139.7955999752801</v>
+        <v>1474</v>
       </c>
       <c r="F295">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G295" s="24">
         <v>71.484600100730304</v>
@@ -7622,45 +7623,45 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B296" s="13">
-        <v>44208</v>
+        <v>3</v>
+      </c>
+      <c r="B296" s="24">
+        <v>44392</v>
       </c>
       <c r="C296" s="27">
-        <v>335</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>7</v>
+        <v>131</v>
+      </c>
+      <c r="D296" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="E296">
-        <v>1071.7956000495974</v>
+        <v>1419</v>
       </c>
       <c r="F296">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G296" s="24">
         <v>62.54</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B297" s="24">
-        <v>44104</v>
+      <c r="A297" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="13">
+        <v>44411</v>
       </c>
       <c r="C297" s="27">
-        <v>73</v>
-      </c>
-      <c r="D297" s="24" t="s">
-        <v>10</v>
+        <v>2004</v>
+      </c>
+      <c r="D297" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E297">
-        <v>1519.0295998151187</v>
+        <v>1267.5</v>
       </c>
       <c r="F297">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G297" s="24">
         <v>68.75</v>
@@ -7668,45 +7669,45 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B298" s="13">
-        <v>44208</v>
+        <v>44411</v>
       </c>
       <c r="C298" s="27">
-        <v>17</v>
-      </c>
-      <c r="D298" s="24" t="s">
-        <v>10</v>
+        <v>1143</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E298">
-        <v>1387.0296001257477</v>
+        <v>1452</v>
       </c>
       <c r="F298">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G298" s="13">
         <v>65.168589999999995</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="37" t="s">
-        <v>11</v>
+      <c r="A299" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B299" s="24">
-        <v>44104</v>
+        <v>44410</v>
       </c>
       <c r="C299" s="27">
-        <v>2</v>
-      </c>
-      <c r="D299" s="24" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D299" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E299">
-        <v>1519.0296020174221</v>
+        <v>1474</v>
       </c>
       <c r="F299">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G299" s="24">
         <v>67</v>
@@ -7715,7 +7716,7 @@
   </sheetData>
   <autoFilter ref="A1:F299">
     <sortState ref="A2:F299">
-      <sortCondition ref="A1:A299"/>
+      <sortCondition ref="F1:F299"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7812,6 +7813,213 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20421,9 +20629,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -20632,6 +20842,203 @@
         <v>25</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input_data/deliveries.xlsx
+++ b/input_data/deliveries.xlsx
@@ -772,10 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -812,7 +813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
@@ -820,7 +821,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="27">
-        <v>1107</v>
+        <v>107</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>6</v>
@@ -833,7 +834,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
@@ -854,7 +855,7 @@
       </c>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
@@ -875,7 +876,7 @@
       </c>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -896,7 +897,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>38</v>
       </c>
@@ -904,7 +905,7 @@
         <v>44176</v>
       </c>
       <c r="C6" s="27">
-        <v>3882</v>
+        <v>882</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>4</v>
@@ -917,7 +918,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
@@ -925,7 +926,7 @@
         <v>44176</v>
       </c>
       <c r="C7" s="27">
-        <v>1505</v>
+        <v>50</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>6</v>
@@ -938,7 +939,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>38</v>
       </c>
@@ -959,7 +960,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
@@ -967,7 +968,7 @@
         <v>44174</v>
       </c>
       <c r="C9" s="27">
-        <v>1933</v>
+        <v>93</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>4</v>
@@ -980,7 +981,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
@@ -988,7 +989,7 @@
         <v>44174</v>
       </c>
       <c r="C10" s="27">
-        <v>3705</v>
+        <v>70</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>7</v>
@@ -1001,7 +1002,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1023,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1044,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>39</v>
       </c>
@@ -1064,7 +1065,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1128,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>44151</v>
       </c>
       <c r="C18" s="27">
-        <v>724</v>
+        <v>124</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>4</v>
@@ -1169,7 +1170,7 @@
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1191,7 @@
       </c>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1233,7 @@
       </c>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1254,7 @@
       </c>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="27">
-        <v>432</v>
+        <v>40</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>6</v>
@@ -1274,7 +1275,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1296,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +1317,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>13</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>44261</v>
       </c>
       <c r="C26" s="27">
-        <v>1231</v>
+        <v>320</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>68</v>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>44261</v>
       </c>
       <c r="C27" s="27">
-        <v>1191</v>
+        <v>191</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>4</v>
@@ -1358,7 +1359,7 @@
       </c>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1380,7 @@
       </c>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1401,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>44191</v>
       </c>
       <c r="C30" s="27">
-        <v>740</v>
+        <v>74</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>6</v>
@@ -1421,7 +1422,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>44191</v>
       </c>
       <c r="C32" s="27">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>10</v>
@@ -1463,7 +1464,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1485,7 @@
       </c>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>14</v>
       </c>
@@ -1505,7 +1506,7 @@
       </c>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>44195</v>
       </c>
       <c r="C35" s="27">
-        <v>1364</v>
+        <v>364</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>4</v>
@@ -1526,7 +1527,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>44152</v>
       </c>
       <c r="C36" s="27">
-        <v>1192</v>
+        <v>193</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>6</v>
@@ -1547,7 +1548,7 @@
       </c>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1569,7 @@
       </c>
       <c r="G37" s="32"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1590,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1611,7 @@
       </c>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>44192</v>
       </c>
       <c r="C40" s="27">
-        <v>2256</v>
+        <v>256</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>4</v>
@@ -1631,7 +1632,7 @@
       </c>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>44192</v>
       </c>
       <c r="C41" s="27">
-        <v>1909</v>
+        <v>90</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>6</v>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>44192</v>
       </c>
       <c r="C43" s="27">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>10</v>
@@ -1694,7 +1695,7 @@
       </c>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>44196</v>
       </c>
       <c r="C44" s="27">
-        <v>1436</v>
+        <v>2000</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>6</v>
@@ -1715,7 +1716,7 @@
       </c>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1737,7 @@
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1758,7 @@
       </c>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>19</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>44292</v>
       </c>
       <c r="C48" s="27">
-        <v>123</v>
+        <v>1000</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>6</v>
@@ -1799,7 +1800,7 @@
       </c>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>44292</v>
       </c>
       <c r="C50" s="27">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>10</v>
@@ -1841,7 +1842,7 @@
       </c>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="27">
-        <v>1836</v>
+        <v>836</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>7</v>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1884,7 @@
       </c>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>20</v>
       </c>
@@ -1904,7 +1905,7 @@
       </c>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>44213</v>
       </c>
       <c r="C54" s="27">
-        <v>84</v>
+        <v>1900</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>6</v>
@@ -1925,7 +1926,7 @@
       </c>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>44213</v>
       </c>
       <c r="C55" s="27">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>7</v>
@@ -1946,7 +1947,7 @@
       </c>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>28</v>
       </c>
@@ -1967,7 +1968,7 @@
       </c>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>44222</v>
       </c>
       <c r="C57" s="27">
-        <v>1011</v>
+        <v>240</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>68</v>
@@ -1988,7 +1989,7 @@
       </c>
       <c r="G57" s="24"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2010,7 @@
       </c>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>44228</v>
       </c>
       <c r="C59" s="27">
-        <v>432</v>
+        <v>1400</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>6</v>
@@ -2030,7 +2031,7 @@
       </c>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>16</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>44228</v>
       </c>
       <c r="C60" s="27">
-        <v>559</v>
+        <v>2000</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>7</v>
@@ -2051,7 +2052,7 @@
       </c>
       <c r="G60" s="24"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>9</v>
       </c>
@@ -2072,7 +2073,7 @@
       </c>
       <c r="G61" s="24"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>9</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>44175</v>
       </c>
       <c r="C62" s="27">
-        <v>3333</v>
+        <v>1400</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>6</v>
@@ -2101,7 +2102,7 @@
         <v>44175</v>
       </c>
       <c r="C63" s="27">
-        <v>1460</v>
+        <v>300</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>10</v>
@@ -2114,7 +2115,7 @@
       </c>
       <c r="G63" s="24"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>3</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>44197</v>
       </c>
       <c r="C64" s="27">
-        <v>1202</v>
+        <v>2000</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>7</v>
@@ -2143,7 +2144,7 @@
         <v>44198</v>
       </c>
       <c r="C65" s="27">
-        <v>523</v>
+        <v>150</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>10</v>
@@ -2164,7 +2165,7 @@
         <v>44154</v>
       </c>
       <c r="C66" s="27">
-        <v>797</v>
+        <v>400</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>10</v>
@@ -2177,7 +2178,7 @@
       </c>
       <c r="G66" s="24"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2199,7 @@
       </c>
       <c r="G67" s="24"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2220,7 @@
       </c>
       <c r="G68" s="24"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2241,7 @@
       </c>
       <c r="G69" s="24"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>36</v>
       </c>
@@ -2261,7 +2262,7 @@
       </c>
       <c r="G70" s="24"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>36</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>44181</v>
       </c>
       <c r="C71" s="27">
-        <v>2267</v>
+        <v>350</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>4</v>
@@ -2282,7 +2283,7 @@
       </c>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>36</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>44181</v>
       </c>
       <c r="C72" s="27">
-        <v>2013</v>
+        <v>1300</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>6</v>
@@ -2303,7 +2304,7 @@
       </c>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>36</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>44180</v>
       </c>
       <c r="C73" s="27">
-        <v>1122</v>
+        <v>2000</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>7</v>
@@ -2345,7 +2346,7 @@
       </c>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2367,7 @@
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2388,7 @@
       </c>
       <c r="G76" s="24"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>13</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>44206</v>
       </c>
       <c r="C77" s="27">
-        <v>221</v>
+        <v>1200</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>6</v>
@@ -2408,7 +2409,7 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>13</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>44206</v>
       </c>
       <c r="C78" s="27">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>7</v>
@@ -2429,7 +2430,7 @@
       </c>
       <c r="G78" s="36"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>11</v>
       </c>
@@ -2450,7 +2451,7 @@
       </c>
       <c r="G79" s="36"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2472,7 @@
       </c>
       <c r="G80" s="36"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>11</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>44208</v>
       </c>
       <c r="C81" s="27">
-        <v>1715</v>
+        <v>700</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>4</v>
@@ -2492,7 +2493,7 @@
       </c>
       <c r="G81" s="24"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>11</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>44208</v>
       </c>
       <c r="C82" s="27">
-        <v>1278</v>
+        <v>500</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>6</v>
@@ -2513,7 +2514,7 @@
       </c>
       <c r="G82" s="24"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="27">
-        <v>335</v>
+        <v>1500</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>7</v>
@@ -2557,7 +2558,7 @@
         <v>70.757589916523301</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>37</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>65.106500006175096</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>37</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>37</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="27">
-        <v>1598</v>
+        <v>500</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>6</v>
@@ -2626,7 +2627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>37</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>44285</v>
       </c>
       <c r="C88" s="27">
-        <v>935</v>
+        <v>2000</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>7</v>
@@ -2672,7 +2673,7 @@
         <v>65.487199999728304</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>64.984600000506703</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>66.484599944781905</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>44273</v>
       </c>
       <c r="C92" s="27">
-        <v>7231</v>
+        <v>1000</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>6</v>
@@ -2741,7 +2742,7 @@
         <v>65.484599999136094</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>65.546799998085206</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>41</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>60.472795774570599</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>41</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>60.5467999989825</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>41</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>44315</v>
       </c>
       <c r="C96" s="27">
-        <v>135</v>
+        <v>2000</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>6</v>
@@ -2833,7 +2834,7 @@
         <v>61.074399998592298</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>13</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>60.484599939808199</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
         <v>13</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>72.0368642025431</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>44299</v>
       </c>
       <c r="C99" s="27">
-        <v>872</v>
+        <v>1000</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>7</v>
@@ -2925,7 +2926,7 @@
         <v>63.661621266826501</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
         <v>37</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>44286</v>
       </c>
       <c r="C101" s="27">
-        <v>3746</v>
+        <v>250</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>4</v>
@@ -2948,7 +2949,7 @@
         <v>60.457700003111697</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>3</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>63.537248821700402</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>8</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>60.195255350165802</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>8</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>61.046799998099402</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
         <v>8</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>44302</v>
       </c>
       <c r="C105" s="27">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>4</v>
@@ -3041,7 +3042,7 @@
         <v>72.533433284094698</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
         <v>5</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>44276</v>
       </c>
       <c r="C106" s="27">
-        <v>9063</v>
+        <v>2000</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>7</v>
@@ -3065,7 +3066,7 @@
         <v>68.868281723429405</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>14</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>65.546800000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
         <v>14</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="27">
-        <v>1073</v>
+        <v>2000</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>7</v>
@@ -3113,7 +3114,7 @@
         <v>67.046800000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>65.484599981994293</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
         <v>8</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>44303</v>
       </c>
       <c r="C111" s="27">
-        <v>1271</v>
+        <v>2000</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>7</v>
@@ -3209,7 +3210,7 @@
         <v>73.088209042189305</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>69.073815067657407</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="s">
         <v>17</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>44348</v>
       </c>
       <c r="C114" s="27">
-        <v>891</v>
+        <v>2000</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>6</v>
@@ -3265,7 +3266,7 @@
         <v>44267</v>
       </c>
       <c r="C115" s="27">
-        <v>3993</v>
+        <v>900</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>10</v>
@@ -3280,7 +3281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
         <v>41</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>13</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>44287</v>
       </c>
       <c r="C117" s="27">
-        <v>1540</v>
+        <v>500</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>4</v>
@@ -3326,7 +3327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
         <v>13</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>44287</v>
       </c>
       <c r="C118" s="27">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>6</v>
@@ -3349,7 +3350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
         <v>3</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>44307</v>
       </c>
       <c r="C119" s="27">
-        <v>2032</v>
+        <v>1000</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>6</v>
@@ -3372,7 +3373,7 @@
         <v>65.168589999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>44369</v>
       </c>
       <c r="C120" s="27">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>6</v>
@@ -3395,7 +3396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
         <v>19</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>44369</v>
       </c>
       <c r="C121" s="27">
-        <v>72</v>
+        <v>1500</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>7</v>
@@ -3418,7 +3419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="s">
         <v>8</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>44304</v>
       </c>
       <c r="C122" s="27">
-        <v>1346</v>
+        <v>1000</v>
       </c>
       <c r="D122" s="24" t="s">
         <v>6</v>
@@ -3441,7 +3442,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
         <v>5</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>44268</v>
       </c>
       <c r="C123" s="27">
-        <v>2955</v>
+        <v>500</v>
       </c>
       <c r="D123" s="24" t="s">
         <v>4</v>
@@ -3464,7 +3465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
         <v>5</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>44268</v>
       </c>
       <c r="C124" s="27">
-        <v>1229</v>
+        <v>200</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>18</v>
@@ -3487,7 +3488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
         <v>28</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
         <v>28</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>44311</v>
       </c>
       <c r="C126" s="27">
-        <v>1377</v>
+        <v>300</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>68</v>
@@ -3533,7 +3534,7 @@
         <v>66.003460056989994</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
         <v>28</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>66.076010780787001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>67.484600000656101</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="27">
-        <v>1280</v>
+        <v>280</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>4</v>
@@ -3602,7 +3603,7 @@
         <v>70.754478432292302</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>44277</v>
       </c>
       <c r="C130" s="27">
-        <v>3587</v>
+        <v>2000</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>6</v>
@@ -3625,7 +3626,7 @@
         <v>66.106500018621304</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
         <v>19</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>66.4872000005833</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="s">
         <v>5</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>65.984599996082807</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="s">
         <v>5</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>68.4845999923363</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="s">
         <v>5</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>66.484599999480494</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>44278</v>
       </c>
       <c r="C137" s="27">
-        <v>4871</v>
+        <v>871</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>7</v>
@@ -3794,7 +3795,7 @@
         <v>44278</v>
       </c>
       <c r="C138" s="27">
-        <v>1897</v>
+        <v>897</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>10</v>
@@ -3809,7 +3810,7 @@
         <v>61.456170741571803</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
         <v>9</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>61.546799999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>62.074400000783903</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>14</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>61.484599078340999</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>14</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>44282</v>
       </c>
       <c r="C142" s="27">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>6</v>
@@ -3924,7 +3925,7 @@
         <v>61.606499999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="s">
         <v>14</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>65.175164422303894</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
         <v>14</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>65.141418782656999</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
         <v>3</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>44310</v>
       </c>
       <c r="C146" s="27">
-        <v>4180</v>
+        <v>500</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>4</v>
@@ -3993,7 +3994,7 @@
         <v>64.637752386462296</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>16</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>44341</v>
       </c>
       <c r="C147" s="27">
-        <v>1118</v>
+        <v>1180</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>7</v>
@@ -4016,7 +4017,7 @@
         <v>65.019300005286794</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="s">
         <v>36</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>61.457700001073299</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="s">
         <v>36</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>65.136700001422199</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
         <v>36</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>44371</v>
       </c>
       <c r="C150" s="27">
-        <v>2825</v>
+        <v>825</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>4</v>
@@ -4085,7 +4086,7 @@
         <v>61.484599999339501</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
         <v>36</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>44371</v>
       </c>
       <c r="C151" s="27">
-        <v>2504</v>
+        <v>400</v>
       </c>
       <c r="D151" s="25" t="s">
         <v>6</v>
@@ -4108,7 +4109,7 @@
         <v>62.546800000697701</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="s">
         <v>36</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>44371</v>
       </c>
       <c r="C152" s="27">
-        <v>1477</v>
+        <v>400</v>
       </c>
       <c r="D152" s="25" t="s">
         <v>7</v>
@@ -4156,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="s">
         <v>13</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="s">
         <v>13</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>66.4577000013674</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="s">
         <v>13</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>44395</v>
       </c>
       <c r="C156" s="27">
-        <v>1105</v>
+        <v>1200</v>
       </c>
       <c r="D156" s="25" t="s">
         <v>6</v>
@@ -4228,7 +4229,7 @@
         <v>67.457699998921498</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="s">
         <v>13</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>44395</v>
       </c>
       <c r="C157" s="27">
-        <v>673</v>
+        <v>450</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>7</v>
@@ -4276,7 +4277,7 @@
         <v>70.457700025400101</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="s">
         <v>13</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>70.457699695122002</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
         <v>9</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
         <v>9</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="27">
-        <v>1234</v>
+        <v>234</v>
       </c>
       <c r="D161" s="25" t="s">
         <v>4</v>
@@ -4348,7 +4349,7 @@
         <v>66.484600000799702</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="s">
         <v>9</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="27">
-        <v>3441</v>
+        <v>441</v>
       </c>
       <c r="D162" s="25" t="s">
         <v>6</v>
@@ -4371,7 +4372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
         <v>9</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>67.25</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
         <v>70</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="s">
         <v>70</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
         <v>70</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>65.168589999999995</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
         <v>3</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="s">
         <v>19</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>44414</v>
       </c>
       <c r="C168" s="27">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D168" s="25" t="s">
         <v>68</v>
@@ -4509,7 +4510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="s">
         <v>19</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>44422</v>
       </c>
       <c r="C170" s="27">
-        <v>1698</v>
+        <v>698</v>
       </c>
       <c r="D170" s="25" t="s">
         <v>68</v>
@@ -4555,7 +4556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
         <v>30</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>44418</v>
       </c>
       <c r="C171" s="27">
-        <v>1005</v>
+        <v>100</v>
       </c>
       <c r="D171" s="25" t="s">
         <v>4</v>
@@ -4578,7 +4579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="s">
         <v>70</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>44345</v>
       </c>
       <c r="C172" s="27">
-        <v>355</v>
+        <v>1300</v>
       </c>
       <c r="D172" s="25" t="s">
         <v>6</v>
@@ -4601,7 +4602,7 @@
         <v>66.743593927295606</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="s">
         <v>70</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>67.075377283814106</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
         <v>46</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>68.484599981567897</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="s">
         <v>46</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>70.858111918958102</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
         <v>46</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>67.106499999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="s">
         <v>46</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>44408</v>
       </c>
       <c r="C177" s="27">
-        <v>473</v>
+        <v>1400</v>
       </c>
       <c r="D177" s="25" t="s">
         <v>6</v>
@@ -4716,7 +4717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="23" t="s">
         <v>46</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>68.487199997275496</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="23" t="s">
         <v>46</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>66.984599942531702</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
         <v>46</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>70.484600004340507</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="23" t="s">
         <v>46</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>67.484600000459295</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="23" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>44389</v>
       </c>
       <c r="C183" s="27">
-        <v>2312</v>
+        <v>200</v>
       </c>
       <c r="D183" s="25" t="s">
         <v>68</v>
@@ -4854,7 +4855,7 @@
         <v>67.046799998545893</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="s">
         <v>3</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>44379</v>
       </c>
       <c r="C184" s="27">
-        <v>6655</v>
+        <v>200</v>
       </c>
       <c r="D184" s="25" t="s">
         <v>4</v>
@@ -4877,7 +4878,7 @@
         <v>62.487199997556097</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="s">
         <v>19</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>62.546800001125902</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="s">
         <v>19</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>44380</v>
       </c>
       <c r="C186" s="27">
-        <v>2170</v>
+        <v>200</v>
       </c>
       <c r="D186" s="25" t="s">
         <v>4</v>
@@ -4923,7 +4924,7 @@
         <v>63.074399998847802</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
         <v>19</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>44415</v>
       </c>
       <c r="C187" s="27">
-        <v>1282</v>
+        <v>200</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>7</v>
@@ -4946,7 +4947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
         <v>8</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>71.066546292300103</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>65.874964900238695</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="23" t="s">
         <v>70</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="23" t="s">
         <v>3</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>44390</v>
       </c>
       <c r="C192" s="27">
-        <v>4038</v>
+        <v>1200</v>
       </c>
       <c r="D192" s="25" t="s">
         <v>6</v>
@@ -5061,7 +5062,7 @@
         <v>66.156257052041894</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="23" t="s">
         <v>19</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>66.019299998898106</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="s">
         <v>8</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>62.457700016584099</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="23" t="s">
         <v>8</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>44405</v>
       </c>
       <c r="C196" s="27">
-        <v>1698</v>
+        <v>200</v>
       </c>
       <c r="D196" s="25" t="s">
         <v>7</v>
@@ -5153,7 +5154,7 @@
         <v>66.106700005981907</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="23" t="s">
         <v>8</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>62.484600001055497</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="23" t="s">
         <v>8</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>63.0468000029175</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="23" t="s">
         <v>5</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>68.868281723429405</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="23" t="s">
         <v>3</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>68.074400027408501</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="s">
         <v>8</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>44406</v>
       </c>
       <c r="C202" s="27">
-        <v>1362</v>
+        <v>200</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>10</v>
@@ -5295,7 +5296,7 @@
         <v>73.088209042189305</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="23" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>67.820337288144799</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="23" t="s">
         <v>38</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
         <v>38</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
         <v>38</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
         <v>38</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
         <v>38</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
         <v>9</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>44378</v>
       </c>
       <c r="C211" s="27">
-        <v>4547</v>
+        <v>345</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>7</v>
@@ -5514,7 +5515,7 @@
         <v>44378</v>
       </c>
       <c r="C212" s="27">
-        <v>1728</v>
+        <v>313</v>
       </c>
       <c r="D212" s="25" t="s">
         <v>10</v>
@@ -5529,7 +5530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="s">
         <v>9</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="23" t="s">
         <v>5</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>44411</v>
       </c>
       <c r="C215" s="27">
-        <v>2004</v>
+        <v>200</v>
       </c>
       <c r="D215" s="25" t="s">
         <v>4</v>
@@ -5598,7 +5599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
         <v>5</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>44411</v>
       </c>
       <c r="C216" s="27">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="D216" s="25" t="s">
         <v>6</v>
@@ -5621,7 +5622,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="23" t="s">
         <v>5</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>44410</v>
       </c>
       <c r="C217" s="27">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D217" s="25" t="s">
         <v>31</v>
@@ -5644,254 +5645,259 @@
         <v>67.346617193850506</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D218"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D219"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D220"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D221"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D222"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D223"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="D224"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D225"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D226"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D227"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D228"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D229"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D230"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D231"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D232"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D233"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D234"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D235"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D236"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D237"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D238"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D239"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D240"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D241"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D242"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D243"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D244"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D245"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D246"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D247"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D248"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D249"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D250"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D251"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D252"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D253"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D254"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D255"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D256"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D257"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D258"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D259"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D260"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D261"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D262"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D263"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D264"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D265"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D266"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D267"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D268"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D269"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D270"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D271"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D272"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D273"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D274"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D275"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D276"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D277"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D278"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D279"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D280"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D281"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D282"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D283"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D284"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D285"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D286"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D287"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D288"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D289"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D290"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D291"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D292"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D293"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D294"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D295"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D296"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D297"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D298"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D299"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F299">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="6-7"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:F299">
       <sortCondition ref="F1:F299"/>
     </sortState>
@@ -6624,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C307"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6653,7 +6659,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>8.8000000000000007</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6664,7 +6670,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6675,7 +6681,7 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6686,7 +6692,7 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6697,7 +6703,7 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6708,7 +6714,7 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6719,7 +6725,7 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -6730,7 +6736,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6741,7 +6747,7 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6752,7 +6758,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>17.600000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6763,7 +6769,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6774,7 +6780,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6785,7 +6791,7 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6796,7 +6802,7 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6873,7 +6879,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>8.8000000000000007</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6884,7 +6890,7 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>8.8000000000000007</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6895,7 +6901,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>8.8000000000000007</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6906,7 +6912,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>8.8000000000000007</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6917,7 +6923,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>8.8000000000000007</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6928,7 +6934,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>8.8000000000000007</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6939,7 +6945,7 @@
         <v>25</v>
       </c>
       <c r="C28">
-        <v>8.8000000000000007</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6950,7 +6956,7 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>8.8000000000000007</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6961,7 +6967,7 @@
         <v>25</v>
       </c>
       <c r="C30">
-        <v>8.8000000000000007</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -6972,7 +6978,7 @@
         <v>25</v>
       </c>
       <c r="C31">
-        <v>8.8000000000000007</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6983,7 +6989,7 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <v>8.8000000000000007</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6994,7 +7000,7 @@
         <v>25</v>
       </c>
       <c r="C33">
-        <v>8.8000000000000007</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7005,7 +7011,7 @@
         <v>25</v>
       </c>
       <c r="C34">
-        <v>8.8000000000000007</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -7016,7 +7022,7 @@
         <v>25</v>
       </c>
       <c r="C35">
-        <v>8.8000000000000007</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -7027,7 +7033,7 @@
         <v>68</v>
       </c>
       <c r="C36">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7038,7 +7044,7 @@
         <v>68</v>
       </c>
       <c r="C37">
-        <v>8.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -7049,7 +7055,7 @@
         <v>68</v>
       </c>
       <c r="C38">
-        <v>8.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -7060,7 +7066,7 @@
         <v>68</v>
       </c>
       <c r="C39">
-        <v>8.8000000000000007</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -7071,7 +7077,7 @@
         <v>68</v>
       </c>
       <c r="C40">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -7082,7 +7088,7 @@
         <v>68</v>
       </c>
       <c r="C41">
-        <v>8.8000000000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -7093,7 +7099,7 @@
         <v>68</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -7104,7 +7110,7 @@
         <v>68</v>
       </c>
       <c r="C43">
-        <v>8.8000000000000007</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -7115,7 +7121,7 @@
         <v>68</v>
       </c>
       <c r="C44">
-        <v>8.8000000000000007</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -7126,7 +7132,7 @@
         <v>68</v>
       </c>
       <c r="C45">
-        <v>17.600000000000001</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -7159,7 +7165,7 @@
         <v>68</v>
       </c>
       <c r="C48">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -7170,7 +7176,7 @@
         <v>68</v>
       </c>
       <c r="C49">
-        <v>8.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -7181,7 +7187,7 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>17.600000000000001</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -7192,7 +7198,7 @@
         <v>68</v>
       </c>
       <c r="C51">
-        <v>17.600000000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -7203,7 +7209,7 @@
         <v>68</v>
       </c>
       <c r="C52">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -7214,7 +7220,7 @@
         <v>68</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -7225,7 +7231,7 @@
         <v>68</v>
       </c>
       <c r="C54">
-        <v>17.600000000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -7236,7 +7242,7 @@
         <v>68</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -7247,7 +7253,7 @@
         <v>68</v>
       </c>
       <c r="C56">
-        <v>8.8000000000000007</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -7258,7 +7264,7 @@
         <v>68</v>
       </c>
       <c r="C57">
-        <v>8.8000000000000007</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -7269,7 +7275,7 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -7280,7 +7286,7 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -7291,7 +7297,7 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -7302,7 +7308,7 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>8.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -7313,7 +7319,7 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>8.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -7324,7 +7330,7 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>8.8000000000000007</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -7335,7 +7341,7 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -7346,7 +7352,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>8.8000000000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -7357,7 +7363,7 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>8.8000000000000007</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -7368,7 +7374,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>8.8000000000000007</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -7379,7 +7385,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>8.8000000000000007</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -7390,7 +7396,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>8.8000000000000007</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -7401,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>7.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -7412,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>7.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -7423,7 +7429,7 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>7.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -7434,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="C73">
-        <v>7.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -7445,7 +7451,7 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>7.8000000000000007</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -7456,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>7.8000000000000007</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -7467,7 +7473,7 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>19.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -7478,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>7.8000000000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -7489,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="C78">
-        <v>7.8000000000000007</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -7500,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>15.600000000000001</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -7511,7 +7517,7 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>19.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -7522,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>19.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -7533,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="C82">
-        <v>7.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -7544,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>7.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -7621,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>7.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -7632,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>7.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -7643,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>7.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -7654,7 +7660,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>7.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -7665,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>7.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -7676,7 +7682,7 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>7.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -7687,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <v>7.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -7698,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>7.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -7709,7 +7715,7 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>7.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -7720,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>7.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -7731,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>7.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -7742,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>7.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -7753,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>7.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -7764,7 +7770,7 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>7.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -7775,7 +7781,7 @@
         <v>6</v>
       </c>
       <c r="C104">
-        <v>8.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -7786,7 +7792,7 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -7797,7 +7803,7 @@
         <v>6</v>
       </c>
       <c r="C106">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -7808,7 +7814,7 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -7819,7 +7825,7 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -7830,7 +7836,7 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -7841,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -7852,7 +7858,7 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -7863,7 +7869,7 @@
         <v>6</v>
       </c>
       <c r="C112">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -7874,7 +7880,7 @@
         <v>6</v>
       </c>
       <c r="C113">
-        <v>17.600000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -7885,7 +7891,7 @@
         <v>6</v>
       </c>
       <c r="C114">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -7896,7 +7902,7 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -7907,7 +7913,7 @@
         <v>6</v>
       </c>
       <c r="C116">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -7918,7 +7924,7 @@
         <v>6</v>
       </c>
       <c r="C117">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -7951,7 +7957,7 @@
         <v>6</v>
       </c>
       <c r="C120">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -7962,7 +7968,7 @@
         <v>6</v>
       </c>
       <c r="C121">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -7973,7 +7979,7 @@
         <v>6</v>
       </c>
       <c r="C122">
-        <v>17.600000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -7984,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="C123">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -7995,7 +8001,7 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -8006,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -8017,7 +8023,7 @@
         <v>6</v>
       </c>
       <c r="C126">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -8028,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -8039,7 +8045,7 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -8050,7 +8056,7 @@
         <v>6</v>
       </c>
       <c r="C129">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -8061,7 +8067,7 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -8072,7 +8078,7 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -8083,7 +8089,7 @@
         <v>6</v>
       </c>
       <c r="C132">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -8094,7 +8100,7 @@
         <v>6</v>
       </c>
       <c r="C133">
-        <v>8.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -8105,7 +8111,7 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>8.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -8116,7 +8122,7 @@
         <v>6</v>
       </c>
       <c r="C135">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -8127,7 +8133,7 @@
         <v>6</v>
       </c>
       <c r="C136">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -8138,7 +8144,7 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -8149,7 +8155,7 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>6.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -8160,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>6.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -8171,7 +8177,7 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <v>6.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -8182,7 +8188,7 @@
         <v>7</v>
       </c>
       <c r="C141">
-        <v>6.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -8193,7 +8199,7 @@
         <v>7</v>
       </c>
       <c r="C142">
-        <v>6.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -8204,7 +8210,7 @@
         <v>7</v>
       </c>
       <c r="C143">
-        <v>6.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -8215,7 +8221,7 @@
         <v>7</v>
       </c>
       <c r="C144">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -8226,7 +8232,7 @@
         <v>7</v>
       </c>
       <c r="C145">
-        <v>6.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -8237,7 +8243,7 @@
         <v>7</v>
       </c>
       <c r="C146">
-        <v>6.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -8248,7 +8254,7 @@
         <v>7</v>
       </c>
       <c r="C147">
-        <v>13.600000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -8259,7 +8265,7 @@
         <v>7</v>
       </c>
       <c r="C148">
-        <v>17</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -8270,7 +8276,7 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <v>17</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -8281,7 +8287,7 @@
         <v>7</v>
       </c>
       <c r="C150">
-        <v>6.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -8292,7 +8298,7 @@
         <v>7</v>
       </c>
       <c r="C151">
-        <v>6.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -8303,7 +8309,7 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>13.600000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -8314,7 +8320,7 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>13.600000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -8325,7 +8331,7 @@
         <v>7</v>
       </c>
       <c r="C154">
-        <v>6.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -8336,7 +8342,7 @@
         <v>7</v>
       </c>
       <c r="C155">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -8347,7 +8353,7 @@
         <v>7</v>
       </c>
       <c r="C156">
-        <v>13.600000000000001</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -8358,7 +8364,7 @@
         <v>7</v>
       </c>
       <c r="C157">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -8369,7 +8375,7 @@
         <v>7</v>
       </c>
       <c r="C158">
-        <v>6.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -8380,7 +8386,7 @@
         <v>7</v>
       </c>
       <c r="C159">
-        <v>6.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -8391,7 +8397,7 @@
         <v>7</v>
       </c>
       <c r="C160">
-        <v>6.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -8402,7 +8408,7 @@
         <v>7</v>
       </c>
       <c r="C161">
-        <v>6.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -8413,7 +8419,7 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>6.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -8424,7 +8430,7 @@
         <v>7</v>
       </c>
       <c r="C163">
-        <v>6.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -8435,7 +8441,7 @@
         <v>7</v>
       </c>
       <c r="C164">
-        <v>6.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -8446,7 +8452,7 @@
         <v>7</v>
       </c>
       <c r="C165">
-        <v>6.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -8457,7 +8463,7 @@
         <v>7</v>
       </c>
       <c r="C166">
-        <v>6.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -8468,7 +8474,7 @@
         <v>7</v>
       </c>
       <c r="C167">
-        <v>6.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -8479,7 +8485,7 @@
         <v>7</v>
       </c>
       <c r="C168">
-        <v>6.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -8490,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>6.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -8501,7 +8507,7 @@
         <v>7</v>
       </c>
       <c r="C170">
-        <v>6.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -8512,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="C171">
-        <v>6.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -8523,7 +8529,7 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -8534,7 +8540,7 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -8545,7 +8551,7 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -8556,7 +8562,7 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -8567,7 +8573,7 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -8578,7 +8584,7 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -8589,7 +8595,7 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -8600,7 +8606,7 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -8611,7 +8617,7 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -8622,7 +8628,7 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>17.600000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -8633,7 +8639,7 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -8644,7 +8650,7 @@
         <v>10</v>
       </c>
       <c r="C183">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -8655,7 +8661,7 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -8666,7 +8672,7 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -8677,7 +8683,7 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>17.600000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -8688,7 +8694,7 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>17.600000000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -8699,7 +8705,7 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -8710,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -8721,7 +8727,7 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>17.600000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -8732,7 +8738,7 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -8743,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -8754,7 +8760,7 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -8765,7 +8771,7 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -8776,7 +8782,7 @@
         <v>10</v>
       </c>
       <c r="C195">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -8787,7 +8793,7 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -8798,7 +8804,7 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -8809,7 +8815,7 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -8820,7 +8826,7 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -8831,7 +8837,7 @@
         <v>10</v>
       </c>
       <c r="C200">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -8842,7 +8848,7 @@
         <v>10</v>
       </c>
       <c r="C201">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -8853,7 +8859,7 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -8864,7 +8870,7 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -8875,7 +8881,7 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -8886,7 +8892,7 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -8897,7 +8903,7 @@
         <v>18</v>
       </c>
       <c r="C206">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -8908,7 +8914,7 @@
         <v>18</v>
       </c>
       <c r="C207">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -8919,7 +8925,7 @@
         <v>18</v>
       </c>
       <c r="C208">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -8930,7 +8936,7 @@
         <v>18</v>
       </c>
       <c r="C209">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -8941,7 +8947,7 @@
         <v>18</v>
       </c>
       <c r="C210">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -8952,7 +8958,7 @@
         <v>18</v>
       </c>
       <c r="C211">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -8963,7 +8969,7 @@
         <v>18</v>
       </c>
       <c r="C212">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -8974,7 +8980,7 @@
         <v>18</v>
       </c>
       <c r="C213">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -8985,7 +8991,7 @@
         <v>18</v>
       </c>
       <c r="C214">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -8996,7 +9002,7 @@
         <v>18</v>
       </c>
       <c r="C215">
-        <v>17.600000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -9007,7 +9013,7 @@
         <v>18</v>
       </c>
       <c r="C216">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -9018,7 +9024,7 @@
         <v>18</v>
       </c>
       <c r="C217">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -9029,7 +9035,7 @@
         <v>18</v>
       </c>
       <c r="C218">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -9040,7 +9046,7 @@
         <v>18</v>
       </c>
       <c r="C219">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -9051,7 +9057,7 @@
         <v>18</v>
       </c>
       <c r="C220">
-        <v>17.600000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -9062,7 +9068,7 @@
         <v>18</v>
       </c>
       <c r="C221">
-        <v>17.600000000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -9073,7 +9079,7 @@
         <v>18</v>
       </c>
       <c r="C222">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -9095,7 +9101,7 @@
         <v>18</v>
       </c>
       <c r="C224">
-        <v>17.600000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -9106,7 +9112,7 @@
         <v>18</v>
       </c>
       <c r="C225">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -9117,7 +9123,7 @@
         <v>18</v>
       </c>
       <c r="C226">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -9128,7 +9134,7 @@
         <v>18</v>
       </c>
       <c r="C227">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -9139,7 +9145,7 @@
         <v>18</v>
       </c>
       <c r="C228">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -9150,7 +9156,7 @@
         <v>18</v>
       </c>
       <c r="C229">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -9161,7 +9167,7 @@
         <v>18</v>
       </c>
       <c r="C230">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -9172,7 +9178,7 @@
         <v>18</v>
       </c>
       <c r="C231">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -9183,7 +9189,7 @@
         <v>18</v>
       </c>
       <c r="C232">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -9194,7 +9200,7 @@
         <v>18</v>
       </c>
       <c r="C233">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -9205,7 +9211,7 @@
         <v>18</v>
       </c>
       <c r="C234">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -9216,7 +9222,7 @@
         <v>18</v>
       </c>
       <c r="C235">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -9227,7 +9233,7 @@
         <v>18</v>
       </c>
       <c r="C236">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -9238,7 +9244,7 @@
         <v>18</v>
       </c>
       <c r="C237">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -9249,7 +9255,7 @@
         <v>18</v>
       </c>
       <c r="C238">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -9260,7 +9266,7 @@
         <v>18</v>
       </c>
       <c r="C239">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -9271,7 +9277,7 @@
         <v>26</v>
       </c>
       <c r="C240">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -9282,7 +9288,7 @@
         <v>26</v>
       </c>
       <c r="C241">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -9293,7 +9299,7 @@
         <v>26</v>
       </c>
       <c r="C242">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -9304,7 +9310,7 @@
         <v>26</v>
       </c>
       <c r="C243">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -9315,7 +9321,7 @@
         <v>26</v>
       </c>
       <c r="C244">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -9326,7 +9332,7 @@
         <v>26</v>
       </c>
       <c r="C245">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -9337,7 +9343,7 @@
         <v>26</v>
       </c>
       <c r="C246">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -9348,7 +9354,7 @@
         <v>26</v>
       </c>
       <c r="C247">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -9359,7 +9365,7 @@
         <v>26</v>
       </c>
       <c r="C248">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -9370,7 +9376,7 @@
         <v>26</v>
       </c>
       <c r="C249">
-        <v>17.600000000000001</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -9381,7 +9387,7 @@
         <v>26</v>
       </c>
       <c r="C250">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -9392,7 +9398,7 @@
         <v>26</v>
       </c>
       <c r="C251">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -9403,7 +9409,7 @@
         <v>26</v>
       </c>
       <c r="C252">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -9414,7 +9420,7 @@
         <v>26</v>
       </c>
       <c r="C253">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -9425,7 +9431,7 @@
         <v>26</v>
       </c>
       <c r="C254">
-        <v>17.600000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -9436,7 +9442,7 @@
         <v>26</v>
       </c>
       <c r="C255">
-        <v>17.600000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -9447,7 +9453,7 @@
         <v>26</v>
       </c>
       <c r="C256">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -9491,7 +9497,7 @@
         <v>26</v>
       </c>
       <c r="C260">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -9502,7 +9508,7 @@
         <v>26</v>
       </c>
       <c r="C261">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -9513,7 +9519,7 @@
         <v>26</v>
       </c>
       <c r="C262">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -9524,7 +9530,7 @@
         <v>26</v>
       </c>
       <c r="C263">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -9535,7 +9541,7 @@
         <v>26</v>
       </c>
       <c r="C264">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -9546,7 +9552,7 @@
         <v>26</v>
       </c>
       <c r="C265">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -9557,7 +9563,7 @@
         <v>26</v>
       </c>
       <c r="C266">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -9568,7 +9574,7 @@
         <v>26</v>
       </c>
       <c r="C267">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -9579,7 +9585,7 @@
         <v>26</v>
       </c>
       <c r="C268">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -9590,7 +9596,7 @@
         <v>26</v>
       </c>
       <c r="C269">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -9601,7 +9607,7 @@
         <v>26</v>
       </c>
       <c r="C270">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -9612,7 +9618,7 @@
         <v>26</v>
       </c>
       <c r="C271">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -9623,7 +9629,7 @@
         <v>26</v>
       </c>
       <c r="C272">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -9634,7 +9640,7 @@
         <v>26</v>
       </c>
       <c r="C273">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -9645,7 +9651,7 @@
         <v>31</v>
       </c>
       <c r="C274">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -9656,7 +9662,7 @@
         <v>31</v>
       </c>
       <c r="C275">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -9667,7 +9673,7 @@
         <v>31</v>
       </c>
       <c r="C276">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -9678,7 +9684,7 @@
         <v>31</v>
       </c>
       <c r="C277">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -9689,7 +9695,7 @@
         <v>31</v>
       </c>
       <c r="C278">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -9700,7 +9706,7 @@
         <v>31</v>
       </c>
       <c r="C279">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -9711,7 +9717,7 @@
         <v>31</v>
       </c>
       <c r="C280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -9722,7 +9728,7 @@
         <v>31</v>
       </c>
       <c r="C281">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -9733,7 +9739,7 @@
         <v>31</v>
       </c>
       <c r="C282">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -9744,7 +9750,7 @@
         <v>31</v>
       </c>
       <c r="C283">
-        <v>17.600000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -9766,7 +9772,7 @@
         <v>31</v>
       </c>
       <c r="C285">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -9777,7 +9783,7 @@
         <v>31</v>
       </c>
       <c r="C286">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -9788,7 +9794,7 @@
         <v>31</v>
       </c>
       <c r="C287">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -9799,7 +9805,7 @@
         <v>31</v>
       </c>
       <c r="C288">
-        <v>17.600000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -9810,7 +9816,7 @@
         <v>31</v>
       </c>
       <c r="C289">
-        <v>17.600000000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -9821,7 +9827,7 @@
         <v>31</v>
       </c>
       <c r="C290">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -9843,7 +9849,7 @@
         <v>31</v>
       </c>
       <c r="C292">
-        <v>17.600000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -9854,7 +9860,7 @@
         <v>31</v>
       </c>
       <c r="C293">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -9865,7 +9871,7 @@
         <v>31</v>
       </c>
       <c r="C294">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -9876,7 +9882,7 @@
         <v>31</v>
       </c>
       <c r="C295">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -9887,7 +9893,7 @@
         <v>31</v>
       </c>
       <c r="C296">
-        <v>8.8000000000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -9898,7 +9904,7 @@
         <v>31</v>
       </c>
       <c r="C297">
-        <v>8.8000000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -9909,7 +9915,7 @@
         <v>31</v>
       </c>
       <c r="C298">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -9920,7 +9926,7 @@
         <v>31</v>
       </c>
       <c r="C299">
-        <v>8.8000000000000007</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -9931,7 +9937,7 @@
         <v>31</v>
       </c>
       <c r="C300">
-        <v>8.8000000000000007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -9942,7 +9948,7 @@
         <v>31</v>
       </c>
       <c r="C301">
-        <v>8.8000000000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -9953,7 +9959,7 @@
         <v>31</v>
       </c>
       <c r="C302">
-        <v>8.8000000000000007</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -9964,7 +9970,7 @@
         <v>31</v>
       </c>
       <c r="C303">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -9975,7 +9981,7 @@
         <v>31</v>
       </c>
       <c r="C304">
-        <v>8.8000000000000007</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -9986,7 +9992,7 @@
         <v>31</v>
       </c>
       <c r="C305">
-        <v>8.8000000000000007</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -9997,7 +10003,7 @@
         <v>31</v>
       </c>
       <c r="C306">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -10008,7 +10014,7 @@
         <v>31</v>
       </c>
       <c r="C307">
-        <v>8.8000000000000007</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
